--- a/GUI + Reviews/202512/Review 202512/Dataiku/DWREP_EMS_2025-12-11_2025-12-11-23-29-47.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Dataiku/DWREP_EMS_2025-12-11_2025-12-11-23-29-47.xlsx
@@ -1,22 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Dataiku/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_FA6EF3DDA93C9EAA0ED597579380644EF1387FEE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE1BD67E-FD75-4892-80C3-62C14D88BB0F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-25695" yWindow="1305" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
     <sheet name="inclusion" sheetId="2" r:id="rId2"/>
     <sheet name="exclusion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">selection!$A$1:$I$394</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="856">
   <si>
     <t>Company</t>
   </si>
@@ -2581,13 +2606,16 @@
   </si>
   <si>
     <t>XMSM</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2612,7 +2640,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2635,13 +2663,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2650,13 +2692,2008 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Index Composition"/>
+      <sheetName val="Eligible Companies"/>
+      <sheetName val="Inclusion"/>
+      <sheetName val="Exclusion"/>
+      <sheetName val="Full Universe"/>
+      <sheetName val="Index Market Cap"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>SE0009161052</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>SE0005127818</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>AU0000291882</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>AU0000286213</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>US0042391096</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>JP3047490002</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>JP3047160001</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>BE0003851681</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>JP3047650001</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>US0084921008</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>SG2D63974620</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>US0144911049</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>US0152711091</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>CA0194561027</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>CH0008837566</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>CA02215R1073</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>US3981823038</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>US02665T3068</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>US03027X1000</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>US03064D1081</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>US75605Y1064</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>JP3825750007</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>US03784Y2000</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>JP3167620008</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>AU000000ARF6</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>NZARGE0010S7</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>LU1673108939</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>AU000000APZ8</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>SE0024320832</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>US0534841012</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>GB0002869419</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>CA0966311064</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>GB0001367019</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>US11120U1051</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>US11135E2037</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>AU000000BWP3</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>US1011211018</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>AT0000641352</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>US1331311027</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>CA1349211054</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>SG1M77906915</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>SGXC16332337</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>SG1U25933169</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>SG1V35936920</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>SG1M51904654</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>SGXE62145532</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>US14174T1079</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>FR0010828137</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>SE0000379190</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>SE0001664707</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>US12504L1098</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>SG1T66931158</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>AU000000CWP1</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>US15202L1070</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>AU000000CIP0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>AU0000077893</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>SGXC43938841</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>AU000000CHC0</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>AU000000CLW0</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>AU000000CQR9</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>AU0000030645</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>CA16141A1030</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>CA17039A1066</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>SE0010832204</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>SG1R89002252</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>FI4000369947</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>KYG2177B1014</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>BE0003593044</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>CA1946931070</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>ES0139140174</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>JP3047540004</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>US20464U1007</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>US22002T1088</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>SE0010714287</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>US22160N1090</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>US2227955026</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>FR0000064578</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>JP3048680007</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>CA2271071094</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>AU000000CMW8</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>US22822V1017</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v>CA1264621006</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84" t="str">
+            <v>US2296631094</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v>US23128Q1013</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86" t="str">
+            <v>GB00BJFLFT45</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87" t="str">
+            <v>JP3486800000</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v>SGXC62140063</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89" t="str">
+            <v>JP3046390005</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90" t="str">
+            <v>JP3046310003</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91" t="str">
+            <v>JP3046410001</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92" t="str">
+            <v>JP3548720006</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93" t="str">
+            <v>GB0002652740</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94" t="str">
+            <v>DE000A0HN5C6</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95" t="str">
+            <v>AU0000192833</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96" t="str">
+            <v>AU000000DXS1</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97" t="str">
+            <v>US2527843013</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98" t="str">
+            <v>AU0000367088</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99" t="str">
+            <v>SGXC50067435</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100" t="str">
+            <v>US2538681030</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101" t="str">
+            <v>US25401T6038</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102" t="str">
+            <v>SE0001634262</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103" t="str">
+            <v>US25960P1093</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104" t="str">
+            <v>CA26153W1095</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105" t="str">
+            <v>US2772761019</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106" t="str">
+            <v>SE0022050183</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107" t="str">
+            <v>US9396531017</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108" t="str">
+            <v>GB00BLWDVR75</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109" t="str">
+            <v>NO0010716418</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110" t="str">
+            <v>US26884U1097</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111" t="str">
+            <v>US29444U7000</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112" t="str">
+            <v>US29472R1086</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113" t="str">
+            <v>US29476L1070</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114" t="str">
+            <v>JP3688330004</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115" t="str">
+            <v>JP3048810000</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116" t="str">
+            <v>JP3688350002</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117" t="str">
+            <v>SGXC55341835</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118" t="str">
+            <v>US29670E1073</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119" t="str">
+            <v>US2971781057</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120" t="str">
+            <v>NL0015000K93</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121" t="str">
+            <v>US30225T1025</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122" t="str">
+            <v>SE0011166974</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123" t="str">
+            <v>SG2F08984575</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124" t="str">
+            <v>SE0017832488</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125" t="str">
+            <v>SE0016785786</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126" t="str">
+            <v>SE0013512506</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127" t="str">
+            <v>US3137451015</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128" t="str">
+            <v>US3149111086</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129" t="str">
+            <v>CA31890B1031</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130" t="str">
+            <v>US32054K1034</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131" t="str">
+            <v>CA33767E2024</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132" t="str">
+            <v>SG1O33912138</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133" t="str">
+            <v>US35086T1097</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134" t="str">
+            <v>SG1T60930966</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135" t="str">
+            <v>SG1CI9000006</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136" t="str">
+            <v>JP3046200006</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137" t="str">
+            <v>JP3046240002</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138" t="str">
+            <v>JP3386670008</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139" t="str">
+            <v>US36467J1088</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140" t="str">
+            <v>FR0010040865</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141" t="str">
+            <v>AU0000402562</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142" t="str">
+            <v>US3742971092</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143" t="str">
+            <v>US3793782018</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144" t="str">
+            <v>JP3044520009</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145" t="str">
+            <v>JP3047510007</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146" t="str">
+            <v>AU000000GMG2</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147" t="str">
+            <v>NZCPTE0001S9</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148" t="str">
+            <v>AU000000GPT8</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149" t="str">
+            <v>GB00B04V1276</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150" t="str">
+            <v>LU0775917882</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151" t="str">
+            <v>CA3874372053</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152" t="str">
+            <v>GB00BF5H9P87</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153" t="str">
+            <v>AU000000GOZ8</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154" t="str">
+            <v>CA4039254079</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155" t="str">
+            <v>GB00BRJQ8J25</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156" t="str">
+            <v>JP3046320002</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157" t="str">
+            <v>US41068X1000</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158" t="str">
+            <v>JP3047910009</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159" t="str">
+            <v>US42226K1051</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160" t="str">
+            <v>US42250P1030</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161" t="str">
+            <v>SE0017911480</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162" t="str">
+            <v>JP3834800009</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163" t="str">
+            <v>JP3046220004</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="B164" t="str">
+            <v>SE0015671995</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="B165" t="str">
+            <v>HK0012000102</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="B166" t="str">
+            <v>US4312841087</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="B167" t="str">
+            <v>AU0000058943</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="B168" t="str">
+            <v>AU0000113136</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169" t="str">
+            <v>BMG4587L1090</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="B170" t="str">
+            <v>JP3802060008</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171" t="str">
+            <v>JP3047610005</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="B172" t="str">
+            <v>US44107P1049</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="B173" t="str">
+            <v>US44267T1025</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="B174" t="str">
+            <v>SE0000170375</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="B175" t="str">
+            <v>JP3360800001</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="B176" t="str">
+            <v>JP3047660000</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="B177" t="str">
+            <v>HK0014000126</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178" t="str">
+            <v>JP3048160000</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="B179" t="str">
+            <v>JP3120010008</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="B180" t="str">
+            <v>JP3046300004</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="B181" t="str">
+            <v>US45378A1060</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182" t="str">
+            <v>JP3046500009</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="B183" t="str">
+            <v>AU000000INA9</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="B184" t="str">
+            <v>US45781V1017</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="B185" t="str">
+            <v>JE00BYVQYS01</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="B186" t="str">
+            <v>SE0017072259</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="B187" t="str">
+            <v>CA46071W2058</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="B188" t="str">
+            <v>CH1338987303</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="B189" t="str">
+            <v>US46124J2015</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="B190" t="str">
+            <v>JP3046190009</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="B191" t="str">
+            <v>US46187W1071</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="B192" t="str">
+            <v>US46284V1017</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="B193" t="str">
+            <v>JP3046420000</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="B194" t="str">
+            <v>JP3046400002</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="B195" t="str">
+            <v>JP3046230003</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="B196" t="str">
+            <v>JP3039710003</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="B197" t="str">
+            <v>JP3040890000</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="B198" t="str">
+            <v>JP3027680002</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="B199" t="str">
+            <v>JP3714200007</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="B200" t="str">
+            <v>SE0012481364</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="B201" t="str">
+            <v>US48020Q1076</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="B202" t="str">
+            <v>JP3386630002</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="B203" t="str">
+            <v>JP3211050004</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="B204" t="str">
+            <v>JP3279000008</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="B205" t="str">
+            <v>JP3046270009</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="B206" t="str">
+            <v>US4893981070</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="B207" t="str">
+            <v>SG1AF6000009</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="B208" t="str">
+            <v>SG1T22929874</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="B209" t="str">
+            <v>JP3277620005</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="B210" t="str">
+            <v>CA49410M1023</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="B211" t="str">
+            <v>US49427F1084</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="B212" t="str">
+            <v>US49446R1095</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="B213" t="str">
+            <v>US49803T3005</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="B214" t="str">
+            <v>NZKPGE0001S9</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="B215" t="str">
+            <v>FR0000121964</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="B216" t="str">
+            <v>FI4000312251</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="B217" t="str">
+            <v>JP3968300008</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="B218" t="str">
+            <v>US5128161099</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="B219" t="str">
+            <v>GB00BYW0PQ60</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="B220" t="str">
+            <v>JP3048180008</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="B221" t="str">
+            <v>DE000LEG1110</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="B222" t="str">
+            <v>SGXC61949712</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="B223" t="str">
+            <v>JP3167500002</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="B224" t="str">
+            <v>AU000000LIC9</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="B225" t="str">
+            <v>US53566V1061</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="B226" t="str">
+            <v>HK0823032773</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="B227" t="str">
+            <v>JP3982600003</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="B228" t="str">
+            <v>SE0017131337</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="B229" t="str">
+            <v>GB00B4WFW713</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="B230" t="str">
+            <v>US5021751020</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="B231" t="str">
+            <v>US5290434084</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="B232" t="str">
+            <v>US5543821012</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="B233" t="str">
+            <v>SG2C32962814</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="B234" t="str">
+            <v>SG1S03926213</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="B235" t="str">
+            <v>SG2D18969584</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="B236" t="str">
+            <v>US58463J3041</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="B237" t="str">
+            <v>FR0010241638</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="B238" t="str">
+            <v>ES0105025003</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="B239" t="str">
+            <v>US59522J1034</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="B240" t="str">
+            <v>US6011371027</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="B241" t="str">
+            <v>JP3048370005</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="B242" t="str">
+            <v>JP3460800000</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="B243" t="str">
+            <v>AU000000MGR9</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="B244" t="str">
+            <v>JP3899600005</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="B245" t="str">
+            <v>JP3048480002</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="B246" t="str">
+            <v>JP3046440008</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="B247" t="str">
+            <v>JP3893200000</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="B248" t="str">
+            <v>JP3048300002</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="B249" t="str">
+            <v>CH0011108872</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="B250" t="str">
+            <v>BE0003853703</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="B251" t="str">
+            <v>JP3046470005</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="B252" t="str">
+            <v>JP3046170001</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="B253" t="str">
+            <v>US63633D1046</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="B254" t="str">
+            <v>US6378701063</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="B255" t="str">
+            <v>AU000000NSR2</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="B256" t="str">
+            <v>US64119V3033</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="B257" t="str">
+            <v>US65158N1028</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="B258" t="str">
+            <v>JP3027670003</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="B259" t="str">
+            <v>JP3695010003</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="B260" t="str">
+            <v>JP3047550003</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="B261" t="str">
+            <v>JP3047750009</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="B262" t="str">
+            <v>US6374171063</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="B263" t="str">
+            <v>JP3048110005</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="B264" t="str">
+            <v>JP3762900003</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="B265" t="str">
+            <v>CA6674951059</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="B266" t="str">
+            <v>SE0006342333</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="B267" t="str">
+            <v>SGXC92727947</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="B268" t="str">
+            <v>JP3041770003</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="B269" t="str">
+            <v>SE0011426428</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="B270" t="str">
+            <v>US6819361006</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="B271" t="str">
+            <v>JP3047640002</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="B272" t="str">
+            <v>JP3173540000</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="B273" t="str">
+            <v>US6837121036</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="B274" t="str">
+            <v>JP3040880001</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="B275" t="str">
+            <v>SG2G60000004</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="B276" t="str">
+            <v>US69007J3041</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="B277" t="str">
+            <v>SE0007100359</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="B278" t="str">
+            <v>US69924R1086</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="B279" t="str">
+            <v>US7005171050</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="B280" t="str">
+            <v>SG1V52937132</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="B281" t="str">
+            <v>US70509V1008</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="B282" t="str">
+            <v>AU000000PPC5</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="B283" t="str">
+            <v>US71844V2016</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="B284" t="str">
+            <v>GB00B0LCW208</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="B285" t="str">
+            <v>SE0004977692</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="B286" t="str">
+            <v>US7376301039</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="B287" t="str">
+            <v>NZAPTE0001S3</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="B288" t="str">
+            <v>CA74167K1093</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="B289" t="str">
+            <v>GB00BYRJ5J14</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="B290" t="str">
+            <v>US74340W1036</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="B291" t="str">
+            <v>NZPFIE0001S5</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="B292" t="str">
+            <v>GB00BF01NH51</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="B293" t="str">
+            <v>CH0018294154</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="B294" t="str">
+            <v>NO0013178616</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="B295" t="str">
+            <v>US74460D1090</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="B296" t="str">
+            <v>US7549071030</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="B297" t="str">
+            <v>AU000000REA9</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="B298" t="str">
+            <v>US7561091049</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="B299" t="str">
+            <v>US7588491032</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="B300" t="str">
+            <v>AU0000253502</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="B301" t="str">
+            <v>JP3755200007</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="B302" t="str">
+            <v>BE0003720340</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="B303" t="str">
+            <v>US76169C1009</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="B304" t="str">
+            <v>GB00BGDT3G23</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="B305" t="str">
+            <v>CA7669101031</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="B306" t="str">
+            <v>AU000000RFF5</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="B307" t="str">
+            <v>US78377T1079</v>
+          </cell>
+        </row>
+        <row r="308">
+          <cell r="B308" t="str">
+            <v>US78573L1061</v>
+          </cell>
+        </row>
+        <row r="309">
+          <cell r="B309" t="str">
+            <v>GB00B1N7Z094</v>
+          </cell>
+        </row>
+        <row r="310">
+          <cell r="B310" t="str">
+            <v>JP3047960004</v>
+          </cell>
+        </row>
+        <row r="311">
+          <cell r="B311" t="str">
+            <v>JP3048880003</v>
+          </cell>
+        </row>
+        <row r="312">
+          <cell r="B312" t="str">
+            <v>SG1ED2000000</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="B313" t="str">
+            <v>GB00B135BJ46</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="B314" t="str">
+            <v>US78410G1040</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="B315" t="str">
+            <v>SE0009554454</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="B316" t="str">
+            <v>AU000000SCG8</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="B317" t="str">
+            <v>GB00B5ZN1N88</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="B318" t="str">
+            <v>JP3047820000</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="B319" t="str">
+            <v>AU000000SRV5</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="B320" t="str">
+            <v>GB00B62G9D36</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="B321" t="str">
+            <v>GG00BQZCBZ44</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="B322" t="str">
+            <v>US1462805086</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="B323" t="str">
+            <v>US8288061091</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="B324" t="str">
+            <v>GG00B1W3VF54</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="B325" t="str">
+            <v>US78440X8873</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="B326" t="str">
+            <v>CA83179X1087</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="B327" t="str">
+            <v>US83192D4025</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="B328" t="str">
+            <v>JP3048960003</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="B329" t="str">
+            <v>JP3161320001</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="B330" t="str">
+            <v>US7901481009</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="B331" t="str">
+            <v>US85254J1025</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="B332" t="str">
+            <v>JP3048200004</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="B333" t="str">
+            <v>SG1S18926810</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="B334" t="str">
+            <v>JP3399200009</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="B335" t="str">
+            <v>JP3046340000</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="B336" t="str">
+            <v>SE0006543344</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="B337" t="str">
+            <v>AU000000SGP0</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="B338" t="str">
+            <v>SGXC11267561</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="B339" t="str">
+            <v>NZSPGE0001S2</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="B340" t="str">
+            <v>JP3409000001</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="B341" t="str">
+            <v>US8666741041</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="B342" t="str">
+            <v>JP3336950005</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="B343" t="str">
+            <v>HK0016000132</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="B344" t="str">
+            <v>US8678921011</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="B345" t="str">
+            <v>SG1Q52922370</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="B346" t="str">
+            <v>GB00BF345X11</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="B347" t="str">
+            <v>SE0022243812</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="B348" t="str">
+            <v>SE0017565476</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="B349" t="str">
+            <v>HK0000063609</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="B350" t="str">
+            <v>CH0008038389</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="B351" t="str">
+            <v>DE0008303504</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="B352" t="str">
+            <v>JP3048750008</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="B353" t="str">
+            <v>US8754651060</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="B354" t="str">
+            <v>JP3464310006</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="B355" t="str">
+            <v>US88146M1018</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="B356" t="str">
+            <v>JP3538400007</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="B357" t="str">
+            <v>JP3049110004</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="B358" t="str">
+            <v>JP3582600007</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="B359" t="str">
+            <v>JP3569200003</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="B360" t="str">
+            <v>JP3044510000</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="B361" t="str">
+            <v>JP3595070008</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="B362" t="str">
+            <v>JP3047830009</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="B363" t="str">
+            <v>GB00BG49KP99</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="B364" t="str">
+            <v>US9026531049</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="B365" t="str">
+            <v>US9030021037</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="B366" t="str">
+            <v>FR0013326246</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="B367" t="str">
+            <v>GB0006928617</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368" t="str">
+            <v>SGXC39411175</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369" t="str">
+            <v>JP3045540006</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370" t="str">
+            <v>SG1S83002349</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="B371" t="str">
+            <v>US91704F1049</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="B372" t="str">
+            <v>US92276F1003</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373" t="str">
+            <v>US5544891048</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374" t="str">
+            <v>BE0003878957</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375" t="str">
+            <v>US9256521090</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376" t="str">
+            <v>AU000000VCX7</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="B377" t="str">
+            <v>NZCHPE0001S4</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="B378" t="str">
+            <v>DE000A1ML7J1</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="B379" t="str">
+            <v>US9290421091</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="B380" t="str">
+            <v>SE0017780133</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="B381" t="str">
+            <v>AU0000088064</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="B382" t="str">
+            <v>BE0974349814</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="B383" t="str">
+            <v>US95040Q1040</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="B384" t="str">
+            <v>US9621661043</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="B385" t="str">
+            <v>KYG9593A1040</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="B386" t="str">
+            <v>SE0018012635</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="B387" t="str">
+            <v>GB00B67G5X01</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="B388" t="str">
+            <v>US92936U1097</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="B389" t="str">
+            <v>US9840171030</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="B390" t="str">
+            <v>BE0974288202</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="B391" t="str">
+            <v>SG1T57930854</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="B392" t="str">
+            <v>US98954M1018</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="B393" t="str">
+            <v>US98954M2008</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2694,7 +4731,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2728,6 +4765,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2762,9 +4800,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2937,14 +4976,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H394"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I394"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2969,8 +5011,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2995,8 +5040,12 @@
       <c r="H2" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="b">
+        <f>ISNUMBER(MATCH(B2,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3021,8 +5070,12 @@
       <c r="H3" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="b">
+        <f>ISNUMBER(MATCH(B3,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3047,8 +5100,12 @@
       <c r="H4" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="b">
+        <f>ISNUMBER(MATCH(B4,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3073,8 +5130,12 @@
       <c r="H5" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="b">
+        <f>ISNUMBER(MATCH(B5,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3099,8 +5160,12 @@
       <c r="H6" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="b">
+        <f>ISNUMBER(MATCH(B6,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3125,8 +5190,12 @@
       <c r="H7" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="b">
+        <f>ISNUMBER(MATCH(B7,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3151,8 +5220,12 @@
       <c r="H8" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="b">
+        <f>ISNUMBER(MATCH(B8,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3177,8 +5250,12 @@
       <c r="H9" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="b">
+        <f>ISNUMBER(MATCH(B9,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3203,8 +5280,12 @@
       <c r="H10" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="b">
+        <f>ISNUMBER(MATCH(B10,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3229,8 +5310,12 @@
       <c r="H11" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="b">
+        <f>ISNUMBER(MATCH(B11,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3255,8 +5340,12 @@
       <c r="H12" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="b">
+        <f>ISNUMBER(MATCH(B12,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3281,8 +5370,12 @@
       <c r="H13" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="b">
+        <f>ISNUMBER(MATCH(B13,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3307,8 +5400,12 @@
       <c r="H14" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="b">
+        <f>ISNUMBER(MATCH(B14,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3333,8 +5430,12 @@
       <c r="H15" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="b">
+        <f>ISNUMBER(MATCH(B15,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3359,8 +5460,12 @@
       <c r="H16" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="b">
+        <f>ISNUMBER(MATCH(B16,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -3385,8 +5490,12 @@
       <c r="H17" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="b">
+        <f>ISNUMBER(MATCH(B17,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -3411,8 +5520,12 @@
       <c r="H18" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="b">
+        <f>ISNUMBER(MATCH(B18,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -3437,8 +5550,12 @@
       <c r="H19" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="b">
+        <f>ISNUMBER(MATCH(B19,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -3463,8 +5580,12 @@
       <c r="H20" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="b">
+        <f>ISNUMBER(MATCH(B20,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -3489,8 +5610,12 @@
       <c r="H21" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="b">
+        <f>ISNUMBER(MATCH(B21,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -3515,8 +5640,12 @@
       <c r="H22" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="b">
+        <f>ISNUMBER(MATCH(B22,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -3541,8 +5670,12 @@
       <c r="H23" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="b">
+        <f>ISNUMBER(MATCH(B23,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -3567,8 +5700,12 @@
       <c r="H24" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="b">
+        <f>ISNUMBER(MATCH(B24,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3593,8 +5730,12 @@
       <c r="H25" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="b">
+        <f>ISNUMBER(MATCH(B25,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -3619,8 +5760,12 @@
       <c r="H26" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="b">
+        <f>ISNUMBER(MATCH(B26,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -3645,8 +5790,12 @@
       <c r="H27" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="b">
+        <f>ISNUMBER(MATCH(B27,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -3671,8 +5820,12 @@
       <c r="H28" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="b">
+        <f>ISNUMBER(MATCH(B28,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -3697,8 +5850,12 @@
       <c r="H29" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="b">
+        <f>ISNUMBER(MATCH(B29,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -3723,8 +5880,12 @@
       <c r="H30" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="b">
+        <f>ISNUMBER(MATCH(B30,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -3749,8 +5910,12 @@
       <c r="H31" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="b">
+        <f>ISNUMBER(MATCH(B31,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -3775,8 +5940,12 @@
       <c r="H32" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" t="b">
+        <f>ISNUMBER(MATCH(B32,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -3801,8 +5970,12 @@
       <c r="H33" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" t="b">
+        <f>ISNUMBER(MATCH(B33,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -3827,8 +6000,12 @@
       <c r="H34" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" t="b">
+        <f>ISNUMBER(MATCH(B34,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -3853,8 +6030,12 @@
       <c r="H35" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" t="b">
+        <f>ISNUMBER(MATCH(B35,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -3879,8 +6060,12 @@
       <c r="H36" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="b">
+        <f>ISNUMBER(MATCH(B36,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -3905,8 +6090,12 @@
       <c r="H37" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" t="b">
+        <f>ISNUMBER(MATCH(B37,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -3931,8 +6120,12 @@
       <c r="H38" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" t="b">
+        <f>ISNUMBER(MATCH(B38,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -3957,8 +6150,12 @@
       <c r="H39" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="b">
+        <f>ISNUMBER(MATCH(B39,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -3983,8 +6180,12 @@
       <c r="H40" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="b">
+        <f>ISNUMBER(MATCH(B40,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -4009,8 +6210,12 @@
       <c r="H41" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" t="b">
+        <f>ISNUMBER(MATCH(B41,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -4035,8 +6240,12 @@
       <c r="H42" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" t="b">
+        <f>ISNUMBER(MATCH(B42,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -4061,8 +6270,12 @@
       <c r="H43" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" t="b">
+        <f>ISNUMBER(MATCH(B43,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -4087,8 +6300,12 @@
       <c r="H44" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" t="b">
+        <f>ISNUMBER(MATCH(B44,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -4113,8 +6330,12 @@
       <c r="H45" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" t="b">
+        <f>ISNUMBER(MATCH(B45,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -4139,8 +6360,12 @@
       <c r="H46" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" t="b">
+        <f>ISNUMBER(MATCH(B46,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -4165,8 +6390,12 @@
       <c r="H47" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" t="b">
+        <f>ISNUMBER(MATCH(B47,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -4191,8 +6420,12 @@
       <c r="H48" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" t="b">
+        <f>ISNUMBER(MATCH(B48,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -4217,8 +6450,12 @@
       <c r="H49" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" t="b">
+        <f>ISNUMBER(MATCH(B49,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -4243,8 +6480,12 @@
       <c r="H50" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" t="b">
+        <f>ISNUMBER(MATCH(B50,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -4269,8 +6510,12 @@
       <c r="H51" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" t="b">
+        <f>ISNUMBER(MATCH(B51,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -4295,8 +6540,12 @@
       <c r="H52" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" t="b">
+        <f>ISNUMBER(MATCH(B52,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -4321,8 +6570,12 @@
       <c r="H53" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" t="b">
+        <f>ISNUMBER(MATCH(B53,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -4347,8 +6600,12 @@
       <c r="H54" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" t="b">
+        <f>ISNUMBER(MATCH(B54,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -4373,8 +6630,12 @@
       <c r="H55" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" t="b">
+        <f>ISNUMBER(MATCH(B55,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -4399,8 +6660,12 @@
       <c r="H56" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" t="b">
+        <f>ISNUMBER(MATCH(B56,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -4425,8 +6690,12 @@
       <c r="H57" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" t="b">
+        <f>ISNUMBER(MATCH(B57,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -4440,7 +6709,7 @@
         <v>1719331000</v>
       </c>
       <c r="E58">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -4451,8 +6720,12 @@
       <c r="H58" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" t="b">
+        <f>ISNUMBER(MATCH(B58,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -4477,8 +6750,12 @@
       <c r="H59" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" t="b">
+        <f>ISNUMBER(MATCH(B59,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -4503,8 +6780,12 @@
       <c r="H60" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" t="b">
+        <f>ISNUMBER(MATCH(B60,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -4529,8 +6810,12 @@
       <c r="H61" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" t="b">
+        <f>ISNUMBER(MATCH(B61,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -4555,8 +6840,12 @@
       <c r="H62" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" t="b">
+        <f>ISNUMBER(MATCH(B62,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -4581,8 +6870,12 @@
       <c r="H63" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" t="b">
+        <f>ISNUMBER(MATCH(B63,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -4607,8 +6900,12 @@
       <c r="H64" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" t="b">
+        <f>ISNUMBER(MATCH(B64,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -4633,8 +6930,12 @@
       <c r="H65" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" t="b">
+        <f>ISNUMBER(MATCH(B65,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -4659,8 +6960,12 @@
       <c r="H66" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" t="b">
+        <f>ISNUMBER(MATCH(B66,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -4685,8 +6990,12 @@
       <c r="H67" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" t="b">
+        <f>ISNUMBER(MATCH(B67,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -4700,7 +7009,7 @@
         <v>3499778300</v>
       </c>
       <c r="E68">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -4711,8 +7020,12 @@
       <c r="H68" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" t="b">
+        <f>ISNUMBER(MATCH(B68,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -4737,8 +7050,12 @@
       <c r="H69" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" t="b">
+        <f>ISNUMBER(MATCH(B69,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -4763,8 +7080,12 @@
       <c r="H70" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" t="b">
+        <f>ISNUMBER(MATCH(B70,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -4789,8 +7110,12 @@
       <c r="H71" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" t="b">
+        <f>ISNUMBER(MATCH(B71,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +7140,12 @@
       <c r="H72" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" t="b">
+        <f>ISNUMBER(MATCH(B72,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -4841,8 +7170,12 @@
       <c r="H73" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" t="b">
+        <f>ISNUMBER(MATCH(B73,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -4867,8 +7200,12 @@
       <c r="H74" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" t="b">
+        <f>ISNUMBER(MATCH(B74,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -4893,8 +7230,12 @@
       <c r="H75" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" t="b">
+        <f>ISNUMBER(MATCH(B75,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -4919,8 +7260,12 @@
       <c r="H76" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" t="b">
+        <f>ISNUMBER(MATCH(B76,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -4945,8 +7290,12 @@
       <c r="H77" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" t="b">
+        <f>ISNUMBER(MATCH(B77,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -4971,8 +7320,12 @@
       <c r="H78" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" t="b">
+        <f>ISNUMBER(MATCH(B78,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -4997,8 +7350,12 @@
       <c r="H79" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" t="b">
+        <f>ISNUMBER(MATCH(B79,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -5023,8 +7380,12 @@
       <c r="H80" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" t="b">
+        <f>ISNUMBER(MATCH(B80,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -5049,8 +7410,12 @@
       <c r="H81" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" t="b">
+        <f>ISNUMBER(MATCH(B81,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -5075,8 +7440,12 @@
       <c r="H82" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" t="b">
+        <f>ISNUMBER(MATCH(B82,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -5101,8 +7470,12 @@
       <c r="H83" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" t="b">
+        <f>ISNUMBER(MATCH(B83,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -5127,8 +7500,12 @@
       <c r="H84" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" t="b">
+        <f>ISNUMBER(MATCH(B84,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -5153,8 +7530,12 @@
       <c r="H85" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" t="b">
+        <f>ISNUMBER(MATCH(B85,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -5179,8 +7560,12 @@
       <c r="H86" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" t="b">
+        <f>ISNUMBER(MATCH(B86,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -5205,8 +7590,12 @@
       <c r="H87" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" t="b">
+        <f>ISNUMBER(MATCH(B87,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -5231,8 +7620,12 @@
       <c r="H88" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" t="b">
+        <f>ISNUMBER(MATCH(B88,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -5257,8 +7650,12 @@
       <c r="H89" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" t="b">
+        <f>ISNUMBER(MATCH(B89,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -5283,8 +7680,12 @@
       <c r="H90" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" t="b">
+        <f>ISNUMBER(MATCH(B90,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -5309,8 +7710,12 @@
       <c r="H91" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" t="b">
+        <f>ISNUMBER(MATCH(B91,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -5335,8 +7740,12 @@
       <c r="H92" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" t="b">
+        <f>ISNUMBER(MATCH(B92,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -5361,8 +7770,12 @@
       <c r="H93" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" t="b">
+        <f>ISNUMBER(MATCH(B93,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -5387,8 +7800,12 @@
       <c r="H94" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" t="b">
+        <f>ISNUMBER(MATCH(B94,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -5413,8 +7830,12 @@
       <c r="H95" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" t="b">
+        <f>ISNUMBER(MATCH(B95,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -5439,8 +7860,12 @@
       <c r="H96" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" t="b">
+        <f>ISNUMBER(MATCH(B96,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -5465,8 +7890,12 @@
       <c r="H97" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" t="b">
+        <f>ISNUMBER(MATCH(B97,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -5491,8 +7920,12 @@
       <c r="H98" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" t="b">
+        <f>ISNUMBER(MATCH(B98,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -5517,8 +7950,12 @@
       <c r="H99" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" t="b">
+        <f>ISNUMBER(MATCH(B99,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -5543,8 +7980,12 @@
       <c r="H100" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" t="b">
+        <f>ISNUMBER(MATCH(B100,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -5569,8 +8010,12 @@
       <c r="H101" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" t="b">
+        <f>ISNUMBER(MATCH(B101,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -5595,8 +8040,12 @@
       <c r="H102" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" t="b">
+        <f>ISNUMBER(MATCH(B102,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -5621,8 +8070,12 @@
       <c r="H103" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" t="b">
+        <f>ISNUMBER(MATCH(B103,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -5647,8 +8100,12 @@
       <c r="H104" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" t="b">
+        <f>ISNUMBER(MATCH(B104,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -5673,8 +8130,12 @@
       <c r="H105" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" t="b">
+        <f>ISNUMBER(MATCH(B105,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -5699,8 +8160,12 @@
       <c r="H106" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" t="b">
+        <f>ISNUMBER(MATCH(B106,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -5725,8 +8190,12 @@
       <c r="H107" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" t="b">
+        <f>ISNUMBER(MATCH(B107,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -5751,8 +8220,12 @@
       <c r="H108" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" t="b">
+        <f>ISNUMBER(MATCH(B108,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -5777,8 +8250,12 @@
       <c r="H109" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" t="b">
+        <f>ISNUMBER(MATCH(B109,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -5803,8 +8280,12 @@
       <c r="H110" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" t="b">
+        <f>ISNUMBER(MATCH(B110,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -5829,8 +8310,12 @@
       <c r="H111" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" t="b">
+        <f>ISNUMBER(MATCH(B111,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -5855,8 +8340,12 @@
       <c r="H112" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" t="b">
+        <f>ISNUMBER(MATCH(B112,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -5881,8 +8370,12 @@
       <c r="H113" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" t="b">
+        <f>ISNUMBER(MATCH(B113,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -5907,8 +8400,12 @@
       <c r="H114" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" t="b">
+        <f>ISNUMBER(MATCH(B114,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -5933,8 +8430,12 @@
       <c r="H115" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" t="b">
+        <f>ISNUMBER(MATCH(B115,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -5959,8 +8460,12 @@
       <c r="H116" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" t="b">
+        <f>ISNUMBER(MATCH(B116,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -5985,8 +8490,12 @@
       <c r="H117" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117" t="b">
+        <f>ISNUMBER(MATCH(B117,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -6011,8 +8520,12 @@
       <c r="H118" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" t="b">
+        <f>ISNUMBER(MATCH(B118,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -6037,8 +8550,12 @@
       <c r="H119" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119" t="b">
+        <f>ISNUMBER(MATCH(B119,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -6063,8 +8580,12 @@
       <c r="H120" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120" t="b">
+        <f>ISNUMBER(MATCH(B120,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -6089,8 +8610,12 @@
       <c r="H121" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121" t="b">
+        <f>ISNUMBER(MATCH(B121,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -6115,8 +8640,12 @@
       <c r="H122" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122" t="b">
+        <f>ISNUMBER(MATCH(B122,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -6141,8 +8670,12 @@
       <c r="H123" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123" t="b">
+        <f>ISNUMBER(MATCH(B123,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -6156,7 +8689,7 @@
         <v>2051141600</v>
       </c>
       <c r="E124">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -6167,8 +8700,12 @@
       <c r="H124" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124" t="b">
+        <f>ISNUMBER(MATCH(B124,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -6193,8 +8730,12 @@
       <c r="H125" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="I125" t="b">
+        <f>ISNUMBER(MATCH(B125,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -6219,8 +8760,12 @@
       <c r="H126" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="I126" t="b">
+        <f>ISNUMBER(MATCH(B126,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -6245,8 +8790,12 @@
       <c r="H127" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="I127" t="b">
+        <f>ISNUMBER(MATCH(B127,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -6271,8 +8820,12 @@
       <c r="H128" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="I128" t="b">
+        <f>ISNUMBER(MATCH(B128,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -6297,8 +8850,12 @@
       <c r="H129" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129" t="b">
+        <f>ISNUMBER(MATCH(B129,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -6323,8 +8880,12 @@
       <c r="H130" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="I130" t="b">
+        <f>ISNUMBER(MATCH(B130,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -6349,8 +8910,12 @@
       <c r="H131" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="I131" t="b">
+        <f>ISNUMBER(MATCH(B131,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -6375,8 +8940,12 @@
       <c r="H132" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="I132" t="b">
+        <f>ISNUMBER(MATCH(B132,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -6401,8 +8970,12 @@
       <c r="H133" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="I133" t="b">
+        <f>ISNUMBER(MATCH(B133,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -6427,8 +9000,12 @@
       <c r="H134" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="I134" t="b">
+        <f>ISNUMBER(MATCH(B134,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -6453,8 +9030,12 @@
       <c r="H135" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="I135" t="b">
+        <f>ISNUMBER(MATCH(B135,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -6479,8 +9060,12 @@
       <c r="H136" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="I136" t="b">
+        <f>ISNUMBER(MATCH(B136,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -6505,8 +9090,12 @@
       <c r="H137" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="I137" t="b">
+        <f>ISNUMBER(MATCH(B137,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -6531,8 +9120,12 @@
       <c r="H138" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="I138" t="b">
+        <f>ISNUMBER(MATCH(B138,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -6557,8 +9150,12 @@
       <c r="H139" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="I139" t="b">
+        <f>ISNUMBER(MATCH(B139,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -6583,8 +9180,12 @@
       <c r="H140" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="I140" t="b">
+        <f>ISNUMBER(MATCH(B140,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -6598,7 +9199,7 @@
         <v>76792337</v>
       </c>
       <c r="E141">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -6609,8 +9210,12 @@
       <c r="H141" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="I141" t="b">
+        <f>ISNUMBER(MATCH(B141,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -6635,8 +9240,12 @@
       <c r="H142" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="I142" t="b">
+        <f>ISNUMBER(MATCH(B142,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -6661,8 +9270,12 @@
       <c r="H143" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="I143" t="b">
+        <f>ISNUMBER(MATCH(B143,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -6687,8 +9300,12 @@
       <c r="H144" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="I144" t="b">
+        <f>ISNUMBER(MATCH(B144,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -6713,8 +9330,12 @@
       <c r="H145" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="I145" t="b">
+        <f>ISNUMBER(MATCH(B145,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -6739,8 +9360,12 @@
       <c r="H146" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="I146" t="b">
+        <f>ISNUMBER(MATCH(B146,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -6765,8 +9390,12 @@
       <c r="H147" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="I147" t="b">
+        <f>ISNUMBER(MATCH(B147,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -6791,8 +9420,12 @@
       <c r="H148" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="I148" t="b">
+        <f>ISNUMBER(MATCH(B148,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -6817,8 +9450,12 @@
       <c r="H149" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="I149" t="b">
+        <f>ISNUMBER(MATCH(B149,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>156</v>
       </c>
@@ -6843,8 +9480,12 @@
       <c r="H150" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="I150" t="b">
+        <f>ISNUMBER(MATCH(B150,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>157</v>
       </c>
@@ -6869,8 +9510,12 @@
       <c r="H151" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="I151" t="b">
+        <f>ISNUMBER(MATCH(B151,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -6895,8 +9540,12 @@
       <c r="H152" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="153" spans="1:8">
+      <c r="I152" t="b">
+        <f>ISNUMBER(MATCH(B152,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -6921,8 +9570,12 @@
       <c r="H153" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
+      <c r="I153" t="b">
+        <f>ISNUMBER(MATCH(B153,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>160</v>
       </c>
@@ -6947,8 +9600,12 @@
       <c r="H154" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="I154" t="b">
+        <f>ISNUMBER(MATCH(B154,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -6973,8 +9630,12 @@
       <c r="H155" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="156" spans="1:8">
+      <c r="I155" t="b">
+        <f>ISNUMBER(MATCH(B155,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -6999,8 +9660,12 @@
       <c r="H156" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="157" spans="1:8">
+      <c r="I156" t="b">
+        <f>ISNUMBER(MATCH(B156,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>163</v>
       </c>
@@ -7025,8 +9690,12 @@
       <c r="H157" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="158" spans="1:8">
+      <c r="I157" t="b">
+        <f>ISNUMBER(MATCH(B157,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -7051,8 +9720,12 @@
       <c r="H158" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="I158" t="b">
+        <f>ISNUMBER(MATCH(B158,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>165</v>
       </c>
@@ -7077,8 +9750,12 @@
       <c r="H159" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="I159" t="b">
+        <f>ISNUMBER(MATCH(B159,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>166</v>
       </c>
@@ -7103,8 +9780,12 @@
       <c r="H160" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="161" spans="1:8">
+      <c r="I160" t="b">
+        <f>ISNUMBER(MATCH(B160,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -7129,8 +9810,12 @@
       <c r="H161" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="I161" t="b">
+        <f>ISNUMBER(MATCH(B161,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -7155,8 +9840,12 @@
       <c r="H162" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="163" spans="1:8">
+      <c r="I162" t="b">
+        <f>ISNUMBER(MATCH(B162,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -7181,8 +9870,12 @@
       <c r="H163" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="164" spans="1:8">
+      <c r="I163" t="b">
+        <f>ISNUMBER(MATCH(B163,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>170</v>
       </c>
@@ -7207,8 +9900,12 @@
       <c r="H164" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="165" spans="1:8">
+      <c r="I164" t="b">
+        <f>ISNUMBER(MATCH(B164,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>171</v>
       </c>
@@ -7233,8 +9930,12 @@
       <c r="H165" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="166" spans="1:8">
+      <c r="I165" t="b">
+        <f>ISNUMBER(MATCH(B165,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>172</v>
       </c>
@@ -7259,8 +9960,12 @@
       <c r="H166" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="167" spans="1:8">
+      <c r="I166" t="b">
+        <f>ISNUMBER(MATCH(B166,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>173</v>
       </c>
@@ -7285,8 +9990,12 @@
       <c r="H167" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="168" spans="1:8">
+      <c r="I167" t="b">
+        <f>ISNUMBER(MATCH(B167,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>174</v>
       </c>
@@ -7311,8 +10020,12 @@
       <c r="H168" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="169" spans="1:8">
+      <c r="I168" t="b">
+        <f>ISNUMBER(MATCH(B168,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -7337,8 +10050,12 @@
       <c r="H169" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="170" spans="1:8">
+      <c r="I169" t="b">
+        <f>ISNUMBER(MATCH(B169,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -7363,8 +10080,12 @@
       <c r="H170" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="171" spans="1:8">
+      <c r="I170" t="b">
+        <f>ISNUMBER(MATCH(B170,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>177</v>
       </c>
@@ -7389,8 +10110,12 @@
       <c r="H171" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="172" spans="1:8">
+      <c r="I171" t="b">
+        <f>ISNUMBER(MATCH(B171,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>178</v>
       </c>
@@ -7415,8 +10140,12 @@
       <c r="H172" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="173" spans="1:8">
+      <c r="I172" t="b">
+        <f>ISNUMBER(MATCH(B172,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>179</v>
       </c>
@@ -7441,8 +10170,12 @@
       <c r="H173" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="174" spans="1:8">
+      <c r="I173" t="b">
+        <f>ISNUMBER(MATCH(B173,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>180</v>
       </c>
@@ -7467,8 +10200,12 @@
       <c r="H174" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="175" spans="1:8">
+      <c r="I174" t="b">
+        <f>ISNUMBER(MATCH(B174,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -7493,8 +10230,12 @@
       <c r="H175" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="176" spans="1:8">
+      <c r="I175" t="b">
+        <f>ISNUMBER(MATCH(B175,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>182</v>
       </c>
@@ -7519,8 +10260,12 @@
       <c r="H176" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="177" spans="1:8">
+      <c r="I176" t="b">
+        <f>ISNUMBER(MATCH(B176,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>183</v>
       </c>
@@ -7545,8 +10290,12 @@
       <c r="H177" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="178" spans="1:8">
+      <c r="I177" t="b">
+        <f>ISNUMBER(MATCH(B177,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -7571,8 +10320,12 @@
       <c r="H178" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="179" spans="1:8">
+      <c r="I178" t="b">
+        <f>ISNUMBER(MATCH(B178,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>185</v>
       </c>
@@ -7597,8 +10350,12 @@
       <c r="H179" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="180" spans="1:8">
+      <c r="I179" t="b">
+        <f>ISNUMBER(MATCH(B179,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>186</v>
       </c>
@@ -7623,8 +10380,12 @@
       <c r="H180" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="181" spans="1:8">
+      <c r="I180" t="b">
+        <f>ISNUMBER(MATCH(B180,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>187</v>
       </c>
@@ -7649,8 +10410,12 @@
       <c r="H181" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="182" spans="1:8">
+      <c r="I181" t="b">
+        <f>ISNUMBER(MATCH(B181,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>188</v>
       </c>
@@ -7675,8 +10440,12 @@
       <c r="H182" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="183" spans="1:8">
+      <c r="I182" t="b">
+        <f>ISNUMBER(MATCH(B182,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>189</v>
       </c>
@@ -7701,8 +10470,12 @@
       <c r="H183" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="184" spans="1:8">
+      <c r="I183" t="b">
+        <f>ISNUMBER(MATCH(B183,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>190</v>
       </c>
@@ -7727,8 +10500,12 @@
       <c r="H184" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="185" spans="1:8">
+      <c r="I184" t="b">
+        <f>ISNUMBER(MATCH(B184,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>191</v>
       </c>
@@ -7753,8 +10530,12 @@
       <c r="H185" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="186" spans="1:8">
+      <c r="I185" t="b">
+        <f>ISNUMBER(MATCH(B185,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>192</v>
       </c>
@@ -7779,8 +10560,12 @@
       <c r="H186" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="187" spans="1:8">
+      <c r="I186" t="b">
+        <f>ISNUMBER(MATCH(B186,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>193</v>
       </c>
@@ -7805,8 +10590,12 @@
       <c r="H187" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="188" spans="1:8">
+      <c r="I187" t="b">
+        <f>ISNUMBER(MATCH(B187,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>194</v>
       </c>
@@ -7831,8 +10620,12 @@
       <c r="H188" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="189" spans="1:8">
+      <c r="I188" t="b">
+        <f>ISNUMBER(MATCH(B188,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>195</v>
       </c>
@@ -7857,8 +10650,12 @@
       <c r="H189" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="190" spans="1:8">
+      <c r="I189" t="b">
+        <f>ISNUMBER(MATCH(B189,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>196</v>
       </c>
@@ -7883,8 +10680,12 @@
       <c r="H190" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="191" spans="1:8">
+      <c r="I190" t="b">
+        <f>ISNUMBER(MATCH(B190,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>197</v>
       </c>
@@ -7909,8 +10710,12 @@
       <c r="H191" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="192" spans="1:8">
+      <c r="I191" t="b">
+        <f>ISNUMBER(MATCH(B191,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>198</v>
       </c>
@@ -7935,8 +10740,12 @@
       <c r="H192" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="193" spans="1:8">
+      <c r="I192" t="b">
+        <f>ISNUMBER(MATCH(B192,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>199</v>
       </c>
@@ -7961,8 +10770,12 @@
       <c r="H193" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="194" spans="1:8">
+      <c r="I193" t="b">
+        <f>ISNUMBER(MATCH(B193,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>200</v>
       </c>
@@ -7987,8 +10800,12 @@
       <c r="H194" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="195" spans="1:8">
+      <c r="I194" t="b">
+        <f>ISNUMBER(MATCH(B194,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>201</v>
       </c>
@@ -8013,8 +10830,12 @@
       <c r="H195" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="196" spans="1:8">
+      <c r="I195" t="b">
+        <f>ISNUMBER(MATCH(B195,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>202</v>
       </c>
@@ -8039,8 +10860,12 @@
       <c r="H196" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="197" spans="1:8">
+      <c r="I196" t="b">
+        <f>ISNUMBER(MATCH(B196,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>203</v>
       </c>
@@ -8065,8 +10890,12 @@
       <c r="H197" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="198" spans="1:8">
+      <c r="I197" t="b">
+        <f>ISNUMBER(MATCH(B197,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>204</v>
       </c>
@@ -8091,8 +10920,12 @@
       <c r="H198" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="199" spans="1:8">
+      <c r="I198" t="b">
+        <f>ISNUMBER(MATCH(B198,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>205</v>
       </c>
@@ -8117,8 +10950,12 @@
       <c r="H199" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="200" spans="1:8">
+      <c r="I199" t="b">
+        <f>ISNUMBER(MATCH(B199,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>206</v>
       </c>
@@ -8143,8 +10980,12 @@
       <c r="H200" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="201" spans="1:8">
+      <c r="I200" t="b">
+        <f>ISNUMBER(MATCH(B200,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>207</v>
       </c>
@@ -8169,8 +11010,12 @@
       <c r="H201" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="202" spans="1:8">
+      <c r="I201" t="b">
+        <f>ISNUMBER(MATCH(B201,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>208</v>
       </c>
@@ -8195,8 +11040,12 @@
       <c r="H202" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="203" spans="1:8">
+      <c r="I202" t="b">
+        <f>ISNUMBER(MATCH(B202,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -8221,8 +11070,12 @@
       <c r="H203" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="204" spans="1:8">
+      <c r="I203" t="b">
+        <f>ISNUMBER(MATCH(B203,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>210</v>
       </c>
@@ -8247,8 +11100,12 @@
       <c r="H204" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="205" spans="1:8">
+      <c r="I204" t="b">
+        <f>ISNUMBER(MATCH(B204,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>211</v>
       </c>
@@ -8273,8 +11130,12 @@
       <c r="H205" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="206" spans="1:8">
+      <c r="I205" t="b">
+        <f>ISNUMBER(MATCH(B205,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>212</v>
       </c>
@@ -8299,8 +11160,12 @@
       <c r="H206" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="207" spans="1:8">
+      <c r="I206" t="b">
+        <f>ISNUMBER(MATCH(B206,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>213</v>
       </c>
@@ -8325,8 +11190,12 @@
       <c r="H207" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="208" spans="1:8">
+      <c r="I207" t="b">
+        <f>ISNUMBER(MATCH(B207,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>214</v>
       </c>
@@ -8351,8 +11220,12 @@
       <c r="H208" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="209" spans="1:8">
+      <c r="I208" t="b">
+        <f>ISNUMBER(MATCH(B208,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>215</v>
       </c>
@@ -8377,8 +11250,12 @@
       <c r="H209" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="210" spans="1:8">
+      <c r="I209" t="b">
+        <f>ISNUMBER(MATCH(B209,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>216</v>
       </c>
@@ -8403,8 +11280,12 @@
       <c r="H210" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="211" spans="1:8">
+      <c r="I210" t="b">
+        <f>ISNUMBER(MATCH(B210,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>217</v>
       </c>
@@ -8429,8 +11310,12 @@
       <c r="H211" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="212" spans="1:8">
+      <c r="I211" t="b">
+        <f>ISNUMBER(MATCH(B211,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>218</v>
       </c>
@@ -8455,8 +11340,12 @@
       <c r="H212" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="213" spans="1:8">
+      <c r="I212" t="b">
+        <f>ISNUMBER(MATCH(B212,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>219</v>
       </c>
@@ -8481,8 +11370,12 @@
       <c r="H213" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="214" spans="1:8">
+      <c r="I213" t="b">
+        <f>ISNUMBER(MATCH(B213,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>220</v>
       </c>
@@ -8507,8 +11400,12 @@
       <c r="H214" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="215" spans="1:8">
+      <c r="I214" t="b">
+        <f>ISNUMBER(MATCH(B214,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>221</v>
       </c>
@@ -8533,8 +11430,12 @@
       <c r="H215" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="216" spans="1:8">
+      <c r="I215" t="b">
+        <f>ISNUMBER(MATCH(B215,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>222</v>
       </c>
@@ -8559,8 +11460,12 @@
       <c r="H216" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="217" spans="1:8">
+      <c r="I216" t="b">
+        <f>ISNUMBER(MATCH(B216,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>223</v>
       </c>
@@ -8585,8 +11490,12 @@
       <c r="H217" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="218" spans="1:8">
+      <c r="I217" t="b">
+        <f>ISNUMBER(MATCH(B217,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>224</v>
       </c>
@@ -8611,8 +11520,12 @@
       <c r="H218" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="219" spans="1:8">
+      <c r="I218" t="b">
+        <f>ISNUMBER(MATCH(B218,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>225</v>
       </c>
@@ -8637,8 +11550,12 @@
       <c r="H219" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="220" spans="1:8">
+      <c r="I219" t="b">
+        <f>ISNUMBER(MATCH(B219,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>226</v>
       </c>
@@ -8663,8 +11580,12 @@
       <c r="H220" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="221" spans="1:8">
+      <c r="I220" t="b">
+        <f>ISNUMBER(MATCH(B220,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>227</v>
       </c>
@@ -8689,8 +11610,12 @@
       <c r="H221" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="222" spans="1:8">
+      <c r="I221" t="b">
+        <f>ISNUMBER(MATCH(B221,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>228</v>
       </c>
@@ -8715,8 +11640,12 @@
       <c r="H222" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="223" spans="1:8">
+      <c r="I222" t="b">
+        <f>ISNUMBER(MATCH(B222,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>229</v>
       </c>
@@ -8741,8 +11670,12 @@
       <c r="H223" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="224" spans="1:8">
+      <c r="I223" t="b">
+        <f>ISNUMBER(MATCH(B223,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>230</v>
       </c>
@@ -8767,8 +11700,12 @@
       <c r="H224" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="225" spans="1:8">
+      <c r="I224" t="b">
+        <f>ISNUMBER(MATCH(B224,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>231</v>
       </c>
@@ -8793,8 +11730,12 @@
       <c r="H225" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="226" spans="1:8">
+      <c r="I225" t="b">
+        <f>ISNUMBER(MATCH(B225,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>232</v>
       </c>
@@ -8819,8 +11760,12 @@
       <c r="H226" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="227" spans="1:8">
+      <c r="I226" t="b">
+        <f>ISNUMBER(MATCH(B226,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>233</v>
       </c>
@@ -8845,8 +11790,12 @@
       <c r="H227" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="228" spans="1:8">
+      <c r="I227" t="b">
+        <f>ISNUMBER(MATCH(B227,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>234</v>
       </c>
@@ -8860,7 +11809,7 @@
         <v>21444000</v>
       </c>
       <c r="E228">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -8871,8 +11820,12 @@
       <c r="H228" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="229" spans="1:8">
+      <c r="I228" t="b">
+        <f>ISNUMBER(MATCH(B228,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>235</v>
       </c>
@@ -8897,8 +11850,12 @@
       <c r="H229" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="230" spans="1:8">
+      <c r="I229" t="b">
+        <f>ISNUMBER(MATCH(B229,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>236</v>
       </c>
@@ -8923,8 +11880,12 @@
       <c r="H230" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="231" spans="1:8">
+      <c r="I230" t="b">
+        <f>ISNUMBER(MATCH(B230,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>237</v>
       </c>
@@ -8949,8 +11910,12 @@
       <c r="H231" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="232" spans="1:8">
+      <c r="I231" t="b">
+        <f>ISNUMBER(MATCH(B231,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>238</v>
       </c>
@@ -8975,8 +11940,12 @@
       <c r="H232" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="233" spans="1:8">
+      <c r="I232" t="b">
+        <f>ISNUMBER(MATCH(B232,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>239</v>
       </c>
@@ -9001,8 +11970,12 @@
       <c r="H233" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="234" spans="1:8">
+      <c r="I233" t="b">
+        <f>ISNUMBER(MATCH(B233,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>240</v>
       </c>
@@ -9027,8 +12000,12 @@
       <c r="H234" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="235" spans="1:8">
+      <c r="I234" t="b">
+        <f>ISNUMBER(MATCH(B234,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>241</v>
       </c>
@@ -9053,8 +12030,12 @@
       <c r="H235" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="236" spans="1:8">
+      <c r="I235" t="b">
+        <f>ISNUMBER(MATCH(B235,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>242</v>
       </c>
@@ -9079,8 +12060,12 @@
       <c r="H236" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="237" spans="1:8">
+      <c r="I236" t="b">
+        <f>ISNUMBER(MATCH(B236,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>243</v>
       </c>
@@ -9105,8 +12090,12 @@
       <c r="H237" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="238" spans="1:8">
+      <c r="I237" t="b">
+        <f>ISNUMBER(MATCH(B237,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>244</v>
       </c>
@@ -9131,8 +12120,12 @@
       <c r="H238" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="239" spans="1:8">
+      <c r="I238" t="b">
+        <f>ISNUMBER(MATCH(B238,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>245</v>
       </c>
@@ -9157,8 +12150,12 @@
       <c r="H239" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="240" spans="1:8">
+      <c r="I239" t="b">
+        <f>ISNUMBER(MATCH(B239,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>246</v>
       </c>
@@ -9183,8 +12180,12 @@
       <c r="H240" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="241" spans="1:8">
+      <c r="I240" t="b">
+        <f>ISNUMBER(MATCH(B240,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>247</v>
       </c>
@@ -9209,8 +12210,12 @@
       <c r="H241" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="242" spans="1:8">
+      <c r="I241" t="b">
+        <f>ISNUMBER(MATCH(B241,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>248</v>
       </c>
@@ -9235,8 +12240,12 @@
       <c r="H242" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="243" spans="1:8">
+      <c r="I242" t="b">
+        <f>ISNUMBER(MATCH(B242,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>249</v>
       </c>
@@ -9261,8 +12270,12 @@
       <c r="H243" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="244" spans="1:8">
+      <c r="I243" t="b">
+        <f>ISNUMBER(MATCH(B243,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>250</v>
       </c>
@@ -9287,8 +12300,12 @@
       <c r="H244" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="245" spans="1:8">
+      <c r="I244" t="b">
+        <f>ISNUMBER(MATCH(B244,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>251</v>
       </c>
@@ -9313,8 +12330,12 @@
       <c r="H245" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="246" spans="1:8">
+      <c r="I245" t="b">
+        <f>ISNUMBER(MATCH(B245,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>252</v>
       </c>
@@ -9339,8 +12360,12 @@
       <c r="H246" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="247" spans="1:8">
+      <c r="I246" t="b">
+        <f>ISNUMBER(MATCH(B246,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>253</v>
       </c>
@@ -9365,8 +12390,12 @@
       <c r="H247" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="248" spans="1:8">
+      <c r="I247" t="b">
+        <f>ISNUMBER(MATCH(B247,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>254</v>
       </c>
@@ -9391,8 +12420,12 @@
       <c r="H248" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="249" spans="1:8">
+      <c r="I248" t="b">
+        <f>ISNUMBER(MATCH(B248,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>255</v>
       </c>
@@ -9417,8 +12450,12 @@
       <c r="H249" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="250" spans="1:8">
+      <c r="I249" t="b">
+        <f>ISNUMBER(MATCH(B249,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>256</v>
       </c>
@@ -9443,8 +12480,12 @@
       <c r="H250" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="251" spans="1:8">
+      <c r="I250" t="b">
+        <f>ISNUMBER(MATCH(B250,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>257</v>
       </c>
@@ -9469,8 +12510,12 @@
       <c r="H251" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="252" spans="1:8">
+      <c r="I251" t="b">
+        <f>ISNUMBER(MATCH(B251,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>258</v>
       </c>
@@ -9495,8 +12540,12 @@
       <c r="H252" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="253" spans="1:8">
+      <c r="I252" t="b">
+        <f>ISNUMBER(MATCH(B252,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>259</v>
       </c>
@@ -9521,8 +12570,12 @@
       <c r="H253" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="254" spans="1:8">
+      <c r="I253" t="b">
+        <f>ISNUMBER(MATCH(B253,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>260</v>
       </c>
@@ -9547,8 +12600,12 @@
       <c r="H254" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="255" spans="1:8">
+      <c r="I254" t="b">
+        <f>ISNUMBER(MATCH(B254,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>261</v>
       </c>
@@ -9573,8 +12630,12 @@
       <c r="H255" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="256" spans="1:8">
+      <c r="I255" t="b">
+        <f>ISNUMBER(MATCH(B255,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>262</v>
       </c>
@@ -9599,8 +12660,12 @@
       <c r="H256" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="257" spans="1:8">
+      <c r="I256" t="b">
+        <f>ISNUMBER(MATCH(B256,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>263</v>
       </c>
@@ -9625,8 +12690,12 @@
       <c r="H257" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="258" spans="1:8">
+      <c r="I257" t="b">
+        <f>ISNUMBER(MATCH(B257,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>264</v>
       </c>
@@ -9651,8 +12720,12 @@
       <c r="H258" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="259" spans="1:8">
+      <c r="I258" t="b">
+        <f>ISNUMBER(MATCH(B258,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>265</v>
       </c>
@@ -9677,8 +12750,12 @@
       <c r="H259" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="260" spans="1:8">
+      <c r="I259" t="b">
+        <f>ISNUMBER(MATCH(B259,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>266</v>
       </c>
@@ -9703,8 +12780,12 @@
       <c r="H260" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="261" spans="1:8">
+      <c r="I260" t="b">
+        <f>ISNUMBER(MATCH(B260,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>267</v>
       </c>
@@ -9729,8 +12810,12 @@
       <c r="H261" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="262" spans="1:8">
+      <c r="I261" t="b">
+        <f>ISNUMBER(MATCH(B261,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>268</v>
       </c>
@@ -9755,8 +12840,12 @@
       <c r="H262" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="263" spans="1:8">
+      <c r="I262" t="b">
+        <f>ISNUMBER(MATCH(B262,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>269</v>
       </c>
@@ -9781,8 +12870,12 @@
       <c r="H263" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="264" spans="1:8">
+      <c r="I263" t="b">
+        <f>ISNUMBER(MATCH(B263,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>270</v>
       </c>
@@ -9807,8 +12900,12 @@
       <c r="H264" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="265" spans="1:8">
+      <c r="I264" t="b">
+        <f>ISNUMBER(MATCH(B264,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>271</v>
       </c>
@@ -9833,8 +12930,12 @@
       <c r="H265" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="266" spans="1:8">
+      <c r="I265" t="b">
+        <f>ISNUMBER(MATCH(B265,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>272</v>
       </c>
@@ -9859,8 +12960,12 @@
       <c r="H266" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="267" spans="1:8">
+      <c r="I266" t="b">
+        <f>ISNUMBER(MATCH(B266,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>273</v>
       </c>
@@ -9874,7 +12979,7 @@
         <v>61580795</v>
       </c>
       <c r="E267">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F267">
         <v>1</v>
@@ -9885,8 +12990,12 @@
       <c r="H267" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="268" spans="1:8">
+      <c r="I267" t="b">
+        <f>ISNUMBER(MATCH(B267,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>274</v>
       </c>
@@ -9911,8 +13020,12 @@
       <c r="H268" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="269" spans="1:8">
+      <c r="I268" t="b">
+        <f>ISNUMBER(MATCH(B268,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>275</v>
       </c>
@@ -9937,8 +13050,12 @@
       <c r="H269" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="270" spans="1:8">
+      <c r="I269" t="b">
+        <f>ISNUMBER(MATCH(B269,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>276</v>
       </c>
@@ -9963,8 +13080,12 @@
       <c r="H270" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="271" spans="1:8">
+      <c r="I270" t="b">
+        <f>ISNUMBER(MATCH(B270,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>277</v>
       </c>
@@ -9989,8 +13110,12 @@
       <c r="H271" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="272" spans="1:8">
+      <c r="I271" t="b">
+        <f>ISNUMBER(MATCH(B271,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>278</v>
       </c>
@@ -10015,8 +13140,12 @@
       <c r="H272" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="273" spans="1:8">
+      <c r="I272" t="b">
+        <f>ISNUMBER(MATCH(B272,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>279</v>
       </c>
@@ -10030,7 +13159,7 @@
         <v>116707300</v>
       </c>
       <c r="E273">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F273">
         <v>1</v>
@@ -10041,8 +13170,12 @@
       <c r="H273" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="274" spans="1:8">
+      <c r="I273" t="b">
+        <f>ISNUMBER(MATCH(B273,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>280</v>
       </c>
@@ -10067,8 +13200,12 @@
       <c r="H274" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="275" spans="1:8">
+      <c r="I274" t="b">
+        <f>ISNUMBER(MATCH(B274,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>281</v>
       </c>
@@ -10093,8 +13230,12 @@
       <c r="H275" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="276" spans="1:8">
+      <c r="I275" t="b">
+        <f>ISNUMBER(MATCH(B275,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>282</v>
       </c>
@@ -10119,8 +13260,12 @@
       <c r="H276" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="277" spans="1:8">
+      <c r="I276" t="b">
+        <f>ISNUMBER(MATCH(B276,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>283</v>
       </c>
@@ -10145,8 +13290,12 @@
       <c r="H277" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="278" spans="1:8">
+      <c r="I277" t="b">
+        <f>ISNUMBER(MATCH(B277,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>284</v>
       </c>
@@ -10171,8 +13320,12 @@
       <c r="H278" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="279" spans="1:8">
+      <c r="I278" t="b">
+        <f>ISNUMBER(MATCH(B278,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>285</v>
       </c>
@@ -10197,8 +13350,12 @@
       <c r="H279" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="280" spans="1:8">
+      <c r="I279" t="b">
+        <f>ISNUMBER(MATCH(B279,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>286</v>
       </c>
@@ -10223,8 +13380,12 @@
       <c r="H280" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="281" spans="1:8">
+      <c r="I280" t="b">
+        <f>ISNUMBER(MATCH(B280,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>287</v>
       </c>
@@ -10249,8 +13410,12 @@
       <c r="H281" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="282" spans="1:8">
+      <c r="I281" t="b">
+        <f>ISNUMBER(MATCH(B281,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>288</v>
       </c>
@@ -10275,8 +13440,12 @@
       <c r="H282" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="283" spans="1:8">
+      <c r="I282" t="b">
+        <f>ISNUMBER(MATCH(B282,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>289</v>
       </c>
@@ -10301,8 +13470,12 @@
       <c r="H283" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="284" spans="1:8">
+      <c r="I283" t="b">
+        <f>ISNUMBER(MATCH(B283,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>290</v>
       </c>
@@ -10327,8 +13500,12 @@
       <c r="H284" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="285" spans="1:8">
+      <c r="I284" t="b">
+        <f>ISNUMBER(MATCH(B284,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>291</v>
       </c>
@@ -10353,8 +13530,12 @@
       <c r="H285" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="286" spans="1:8">
+      <c r="I285" t="b">
+        <f>ISNUMBER(MATCH(B285,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>292</v>
       </c>
@@ -10379,8 +13560,12 @@
       <c r="H286" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="287" spans="1:8">
+      <c r="I286" t="b">
+        <f>ISNUMBER(MATCH(B286,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>293</v>
       </c>
@@ -10405,8 +13590,12 @@
       <c r="H287" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="288" spans="1:8">
+      <c r="I287" t="b">
+        <f>ISNUMBER(MATCH(B287,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>294</v>
       </c>
@@ -10431,8 +13620,12 @@
       <c r="H288" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="289" spans="1:8">
+      <c r="I288" t="b">
+        <f>ISNUMBER(MATCH(B288,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>295</v>
       </c>
@@ -10457,8 +13650,12 @@
       <c r="H289" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="290" spans="1:8">
+      <c r="I289" t="b">
+        <f>ISNUMBER(MATCH(B289,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>296</v>
       </c>
@@ -10483,8 +13680,12 @@
       <c r="H290" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="291" spans="1:8">
+      <c r="I290" t="b">
+        <f>ISNUMBER(MATCH(B290,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>297</v>
       </c>
@@ -10509,8 +13710,12 @@
       <c r="H291" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="292" spans="1:8">
+      <c r="I291" t="b">
+        <f>ISNUMBER(MATCH(B291,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>298</v>
       </c>
@@ -10535,8 +13740,12 @@
       <c r="H292" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="293" spans="1:8">
+      <c r="I292" t="b">
+        <f>ISNUMBER(MATCH(B292,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>299</v>
       </c>
@@ -10561,8 +13770,12 @@
       <c r="H293" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="294" spans="1:8">
+      <c r="I293" t="b">
+        <f>ISNUMBER(MATCH(B293,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>300</v>
       </c>
@@ -10587,8 +13800,12 @@
       <c r="H294" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="295" spans="1:8">
+      <c r="I294" t="b">
+        <f>ISNUMBER(MATCH(B294,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>301</v>
       </c>
@@ -10613,8 +13830,12 @@
       <c r="H295" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="296" spans="1:8">
+      <c r="I295" t="b">
+        <f>ISNUMBER(MATCH(B295,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>302</v>
       </c>
@@ -10639,8 +13860,12 @@
       <c r="H296" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="297" spans="1:8">
+      <c r="I296" t="b">
+        <f>ISNUMBER(MATCH(B296,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>303</v>
       </c>
@@ -10665,8 +13890,12 @@
       <c r="H297" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="298" spans="1:8">
+      <c r="I297" t="b">
+        <f>ISNUMBER(MATCH(B297,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>304</v>
       </c>
@@ -10691,8 +13920,12 @@
       <c r="H298" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="299" spans="1:8">
+      <c r="I298" t="b">
+        <f>ISNUMBER(MATCH(B298,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>305</v>
       </c>
@@ -10717,8 +13950,12 @@
       <c r="H299" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="300" spans="1:8">
+      <c r="I299" t="b">
+        <f>ISNUMBER(MATCH(B299,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>306</v>
       </c>
@@ -10743,8 +13980,12 @@
       <c r="H300" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="301" spans="1:8">
+      <c r="I300" t="b">
+        <f>ISNUMBER(MATCH(B300,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>307</v>
       </c>
@@ -10769,8 +14010,12 @@
       <c r="H301" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="302" spans="1:8">
+      <c r="I301" t="b">
+        <f>ISNUMBER(MATCH(B301,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>308</v>
       </c>
@@ -10795,8 +14040,12 @@
       <c r="H302" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="303" spans="1:8">
+      <c r="I302" t="b">
+        <f>ISNUMBER(MATCH(B302,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>309</v>
       </c>
@@ -10821,8 +14070,12 @@
       <c r="H303" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="304" spans="1:8">
+      <c r="I303" t="b">
+        <f>ISNUMBER(MATCH(B303,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>310</v>
       </c>
@@ -10847,8 +14100,12 @@
       <c r="H304" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="305" spans="1:8">
+      <c r="I304" t="b">
+        <f>ISNUMBER(MATCH(B304,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>311</v>
       </c>
@@ -10873,8 +14130,12 @@
       <c r="H305" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="306" spans="1:8">
+      <c r="I305" t="b">
+        <f>ISNUMBER(MATCH(B305,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>312</v>
       </c>
@@ -10899,8 +14160,12 @@
       <c r="H306" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="307" spans="1:8">
+      <c r="I306" t="b">
+        <f>ISNUMBER(MATCH(B306,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>313</v>
       </c>
@@ -10925,8 +14190,12 @@
       <c r="H307" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="308" spans="1:8">
+      <c r="I307" t="b">
+        <f>ISNUMBER(MATCH(B307,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>314</v>
       </c>
@@ -10951,8 +14220,12 @@
       <c r="H308" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="309" spans="1:8">
+      <c r="I308" t="b">
+        <f>ISNUMBER(MATCH(B308,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>315</v>
       </c>
@@ -10977,8 +14250,12 @@
       <c r="H309" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="310" spans="1:8">
+      <c r="I309" t="b">
+        <f>ISNUMBER(MATCH(B309,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>316</v>
       </c>
@@ -11003,8 +14280,12 @@
       <c r="H310" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="311" spans="1:8">
+      <c r="I310" t="b">
+        <f>ISNUMBER(MATCH(B310,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>317</v>
       </c>
@@ -11029,8 +14310,12 @@
       <c r="H311" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="312" spans="1:8">
+      <c r="I311" t="b">
+        <f>ISNUMBER(MATCH(B311,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>318</v>
       </c>
@@ -11055,8 +14340,12 @@
       <c r="H312" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="313" spans="1:8">
+      <c r="I312" t="b">
+        <f>ISNUMBER(MATCH(B312,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>319</v>
       </c>
@@ -11081,8 +14370,12 @@
       <c r="H313" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="314" spans="1:8">
+      <c r="I313" t="b">
+        <f>ISNUMBER(MATCH(B313,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>320</v>
       </c>
@@ -11107,8 +14400,12 @@
       <c r="H314" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="315" spans="1:8">
+      <c r="I314" t="b">
+        <f>ISNUMBER(MATCH(B314,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>321</v>
       </c>
@@ -11133,8 +14430,12 @@
       <c r="H315" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="316" spans="1:8">
+      <c r="I315" t="b">
+        <f>ISNUMBER(MATCH(B315,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>322</v>
       </c>
@@ -11159,8 +14460,12 @@
       <c r="H316" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="317" spans="1:8">
+      <c r="I316" t="b">
+        <f>ISNUMBER(MATCH(B316,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>323</v>
       </c>
@@ -11185,8 +14490,12 @@
       <c r="H317" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="318" spans="1:8">
+      <c r="I317" t="b">
+        <f>ISNUMBER(MATCH(B317,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>324</v>
       </c>
@@ -11211,8 +14520,12 @@
       <c r="H318" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="319" spans="1:8">
+      <c r="I318" t="b">
+        <f>ISNUMBER(MATCH(B318,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>325</v>
       </c>
@@ -11237,8 +14550,12 @@
       <c r="H319" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="320" spans="1:8">
+      <c r="I319" t="b">
+        <f>ISNUMBER(MATCH(B319,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>326</v>
       </c>
@@ -11263,8 +14580,12 @@
       <c r="H320" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="321" spans="1:8">
+      <c r="I320" t="b">
+        <f>ISNUMBER(MATCH(B320,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>327</v>
       </c>
@@ -11289,8 +14610,12 @@
       <c r="H321" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="322" spans="1:8">
+      <c r="I321" t="b">
+        <f>ISNUMBER(MATCH(B321,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>328</v>
       </c>
@@ -11315,8 +14640,12 @@
       <c r="H322" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="323" spans="1:8">
+      <c r="I322" t="b">
+        <f>ISNUMBER(MATCH(B322,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>329</v>
       </c>
@@ -11341,8 +14670,12 @@
       <c r="H323" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="324" spans="1:8">
+      <c r="I323" t="b">
+        <f>ISNUMBER(MATCH(B323,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>330</v>
       </c>
@@ -11367,8 +14700,12 @@
       <c r="H324" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="325" spans="1:8">
+      <c r="I324" t="b">
+        <f>ISNUMBER(MATCH(B324,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>331</v>
       </c>
@@ -11393,8 +14730,12 @@
       <c r="H325" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="326" spans="1:8">
+      <c r="I325" t="b">
+        <f>ISNUMBER(MATCH(B325,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>332</v>
       </c>
@@ -11419,8 +14760,12 @@
       <c r="H326" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="327" spans="1:8">
+      <c r="I326" t="b">
+        <f>ISNUMBER(MATCH(B326,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>333</v>
       </c>
@@ -11445,8 +14790,12 @@
       <c r="H327" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="328" spans="1:8">
+      <c r="I327" t="b">
+        <f>ISNUMBER(MATCH(B327,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>334</v>
       </c>
@@ -11471,8 +14820,12 @@
       <c r="H328" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="329" spans="1:8">
+      <c r="I328" t="b">
+        <f>ISNUMBER(MATCH(B328,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>335</v>
       </c>
@@ -11497,8 +14850,12 @@
       <c r="H329" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="330" spans="1:8">
+      <c r="I329" t="b">
+        <f>ISNUMBER(MATCH(B329,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>336</v>
       </c>
@@ -11523,8 +14880,12 @@
       <c r="H330" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="331" spans="1:8">
+      <c r="I330" t="b">
+        <f>ISNUMBER(MATCH(B330,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>337</v>
       </c>
@@ -11549,8 +14910,12 @@
       <c r="H331" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="332" spans="1:8">
+      <c r="I331" t="b">
+        <f>ISNUMBER(MATCH(B331,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>338</v>
       </c>
@@ -11575,8 +14940,12 @@
       <c r="H332" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="333" spans="1:8">
+      <c r="I332" t="b">
+        <f>ISNUMBER(MATCH(B332,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>339</v>
       </c>
@@ -11601,8 +14970,12 @@
       <c r="H333" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="334" spans="1:8">
+      <c r="I333" t="b">
+        <f>ISNUMBER(MATCH(B333,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>340</v>
       </c>
@@ -11627,8 +15000,12 @@
       <c r="H334" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="335" spans="1:8">
+      <c r="I334" t="b">
+        <f>ISNUMBER(MATCH(B334,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>341</v>
       </c>
@@ -11653,8 +15030,12 @@
       <c r="H335" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="336" spans="1:8">
+      <c r="I335" t="b">
+        <f>ISNUMBER(MATCH(B335,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>342</v>
       </c>
@@ -11679,8 +15060,12 @@
       <c r="H336" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="337" spans="1:8">
+      <c r="I336" t="b">
+        <f>ISNUMBER(MATCH(B336,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>343</v>
       </c>
@@ -11705,8 +15090,12 @@
       <c r="H337" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="338" spans="1:8">
+      <c r="I337" t="b">
+        <f>ISNUMBER(MATCH(B337,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>344</v>
       </c>
@@ -11731,8 +15120,12 @@
       <c r="H338" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="339" spans="1:8">
+      <c r="I338" t="b">
+        <f>ISNUMBER(MATCH(B338,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>345</v>
       </c>
@@ -11757,8 +15150,12 @@
       <c r="H339" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="340" spans="1:8">
+      <c r="I339" t="b">
+        <f>ISNUMBER(MATCH(B339,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>346</v>
       </c>
@@ -11783,8 +15180,12 @@
       <c r="H340" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="341" spans="1:8">
+      <c r="I340" t="b">
+        <f>ISNUMBER(MATCH(B340,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>347</v>
       </c>
@@ -11809,8 +15210,12 @@
       <c r="H341" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="342" spans="1:8">
+      <c r="I341" t="b">
+        <f>ISNUMBER(MATCH(B341,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>348</v>
       </c>
@@ -11835,8 +15240,12 @@
       <c r="H342" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="343" spans="1:8">
+      <c r="I342" t="b">
+        <f>ISNUMBER(MATCH(B342,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>349</v>
       </c>
@@ -11850,7 +15259,7 @@
         <v>48755500</v>
       </c>
       <c r="E343">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F343">
         <v>1</v>
@@ -11861,8 +15270,12 @@
       <c r="H343" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="344" spans="1:8">
+      <c r="I343" t="b">
+        <f>ISNUMBER(MATCH(B343,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>350</v>
       </c>
@@ -11887,8 +15300,12 @@
       <c r="H344" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="345" spans="1:8">
+      <c r="I344" t="b">
+        <f>ISNUMBER(MATCH(B344,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>351</v>
       </c>
@@ -11913,8 +15330,12 @@
       <c r="H345" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="346" spans="1:8">
+      <c r="I345" t="b">
+        <f>ISNUMBER(MATCH(B345,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>352</v>
       </c>
@@ -11928,7 +15349,7 @@
         <v>2945448200</v>
       </c>
       <c r="E346">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F346">
         <v>1</v>
@@ -11939,8 +15360,12 @@
       <c r="H346" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="347" spans="1:8">
+      <c r="I346" t="b">
+        <f>ISNUMBER(MATCH(B346,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>353</v>
       </c>
@@ -11965,8 +15390,12 @@
       <c r="H347" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="348" spans="1:8">
+      <c r="I347" t="b">
+        <f>ISNUMBER(MATCH(B347,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>354</v>
       </c>
@@ -11991,8 +15420,12 @@
       <c r="H348" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="349" spans="1:8">
+      <c r="I348" t="b">
+        <f>ISNUMBER(MATCH(B348,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>355</v>
       </c>
@@ -12017,8 +15450,12 @@
       <c r="H349" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="350" spans="1:8">
+      <c r="I349" t="b">
+        <f>ISNUMBER(MATCH(B349,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>356</v>
       </c>
@@ -12043,8 +15480,12 @@
       <c r="H350" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="351" spans="1:8">
+      <c r="I350" t="b">
+        <f>ISNUMBER(MATCH(B350,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>357</v>
       </c>
@@ -12069,8 +15510,12 @@
       <c r="H351" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="352" spans="1:8">
+      <c r="I351" t="b">
+        <f>ISNUMBER(MATCH(B351,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>358</v>
       </c>
@@ -12095,8 +15540,12 @@
       <c r="H352" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="353" spans="1:8">
+      <c r="I352" t="b">
+        <f>ISNUMBER(MATCH(B352,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>359</v>
       </c>
@@ -12121,8 +15570,12 @@
       <c r="H353" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="354" spans="1:8">
+      <c r="I353" t="b">
+        <f>ISNUMBER(MATCH(B353,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>360</v>
       </c>
@@ -12147,8 +15600,12 @@
       <c r="H354" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="355" spans="1:8">
+      <c r="I354" t="b">
+        <f>ISNUMBER(MATCH(B354,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>361</v>
       </c>
@@ -12173,8 +15630,12 @@
       <c r="H355" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="356" spans="1:8">
+      <c r="I355" t="b">
+        <f>ISNUMBER(MATCH(B355,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>362</v>
       </c>
@@ -12199,8 +15660,12 @@
       <c r="H356" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="357" spans="1:8">
+      <c r="I356" t="b">
+        <f>ISNUMBER(MATCH(B356,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>363</v>
       </c>
@@ -12225,8 +15690,12 @@
       <c r="H357" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="358" spans="1:8">
+      <c r="I357" t="b">
+        <f>ISNUMBER(MATCH(B357,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>364</v>
       </c>
@@ -12251,8 +15720,12 @@
       <c r="H358" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="359" spans="1:8">
+      <c r="I358" t="b">
+        <f>ISNUMBER(MATCH(B358,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>365</v>
       </c>
@@ -12277,8 +15750,12 @@
       <c r="H359" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="360" spans="1:8">
+      <c r="I359" t="b">
+        <f>ISNUMBER(MATCH(B359,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>366</v>
       </c>
@@ -12303,8 +15780,12 @@
       <c r="H360" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="361" spans="1:8">
+      <c r="I360" t="b">
+        <f>ISNUMBER(MATCH(B360,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>367</v>
       </c>
@@ -12329,8 +15810,12 @@
       <c r="H361" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="362" spans="1:8">
+      <c r="I361" t="b">
+        <f>ISNUMBER(MATCH(B361,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>368</v>
       </c>
@@ -12355,8 +15840,12 @@
       <c r="H362" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="363" spans="1:8">
+      <c r="I362" t="b">
+        <f>ISNUMBER(MATCH(B362,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>369</v>
       </c>
@@ -12381,8 +15870,12 @@
       <c r="H363" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="364" spans="1:8">
+      <c r="I363" t="b">
+        <f>ISNUMBER(MATCH(B363,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>370</v>
       </c>
@@ -12407,8 +15900,12 @@
       <c r="H364" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="365" spans="1:8">
+      <c r="I364" t="b">
+        <f>ISNUMBER(MATCH(B364,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>371</v>
       </c>
@@ -12433,8 +15930,12 @@
       <c r="H365" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="366" spans="1:8">
+      <c r="I365" t="b">
+        <f>ISNUMBER(MATCH(B365,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>372</v>
       </c>
@@ -12459,8 +15960,12 @@
       <c r="H366" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="367" spans="1:8">
+      <c r="I366" t="b">
+        <f>ISNUMBER(MATCH(B366,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>373</v>
       </c>
@@ -12474,7 +15979,7 @@
         <v>143244727</v>
       </c>
       <c r="E367">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F367">
         <v>1</v>
@@ -12485,8 +15990,12 @@
       <c r="H367" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="368" spans="1:8">
+      <c r="I367" t="b">
+        <f>ISNUMBER(MATCH(B367,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>374</v>
       </c>
@@ -12511,8 +16020,12 @@
       <c r="H368" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="369" spans="1:8">
+      <c r="I368" t="b">
+        <f>ISNUMBER(MATCH(B368,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>375</v>
       </c>
@@ -12537,8 +16050,12 @@
       <c r="H369" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="370" spans="1:8">
+      <c r="I369" t="b">
+        <f>ISNUMBER(MATCH(B369,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>376</v>
       </c>
@@ -12563,8 +16080,12 @@
       <c r="H370" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="371" spans="1:8">
+      <c r="I370" t="b">
+        <f>ISNUMBER(MATCH(B370,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>377</v>
       </c>
@@ -12589,8 +16110,12 @@
       <c r="H371" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="372" spans="1:8">
+      <c r="I371" t="b">
+        <f>ISNUMBER(MATCH(B371,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>378</v>
       </c>
@@ -12615,8 +16140,12 @@
       <c r="H372" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="373" spans="1:8">
+      <c r="I372" t="b">
+        <f>ISNUMBER(MATCH(B372,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>379</v>
       </c>
@@ -12641,8 +16170,12 @@
       <c r="H373" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="374" spans="1:8">
+      <c r="I373" t="b">
+        <f>ISNUMBER(MATCH(B373,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>380</v>
       </c>
@@ -12667,8 +16200,12 @@
       <c r="H374" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="375" spans="1:8">
+      <c r="I374" t="b">
+        <f>ISNUMBER(MATCH(B374,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>381</v>
       </c>
@@ -12693,8 +16230,12 @@
       <c r="H375" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="376" spans="1:8">
+      <c r="I375" t="b">
+        <f>ISNUMBER(MATCH(B375,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>382</v>
       </c>
@@ -12719,8 +16260,12 @@
       <c r="H376" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="377" spans="1:8">
+      <c r="I376" t="b">
+        <f>ISNUMBER(MATCH(B376,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>383</v>
       </c>
@@ -12745,8 +16290,12 @@
       <c r="H377" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="378" spans="1:8">
+      <c r="I377" t="b">
+        <f>ISNUMBER(MATCH(B377,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>384</v>
       </c>
@@ -12771,8 +16320,12 @@
       <c r="H378" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="379" spans="1:8">
+      <c r="I378" t="b">
+        <f>ISNUMBER(MATCH(B378,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>385</v>
       </c>
@@ -12797,8 +16350,12 @@
       <c r="H379" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="380" spans="1:8">
+      <c r="I379" t="b">
+        <f>ISNUMBER(MATCH(B379,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>386</v>
       </c>
@@ -12823,8 +16380,12 @@
       <c r="H380" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="381" spans="1:8">
+      <c r="I380" t="b">
+        <f>ISNUMBER(MATCH(B380,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>387</v>
       </c>
@@ -12849,8 +16410,12 @@
       <c r="H381" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="382" spans="1:8">
+      <c r="I381" t="b">
+        <f>ISNUMBER(MATCH(B381,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>388</v>
       </c>
@@ -12875,8 +16440,12 @@
       <c r="H382" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="383" spans="1:8">
+      <c r="I382" t="b">
+        <f>ISNUMBER(MATCH(B382,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>389</v>
       </c>
@@ -12901,8 +16470,12 @@
       <c r="H383" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="384" spans="1:8">
+      <c r="I383" t="b">
+        <f>ISNUMBER(MATCH(B383,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>390</v>
       </c>
@@ -12927,8 +16500,12 @@
       <c r="H384" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="385" spans="1:8">
+      <c r="I384" t="b">
+        <f>ISNUMBER(MATCH(B384,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>391</v>
       </c>
@@ -12953,8 +16530,12 @@
       <c r="H385" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="386" spans="1:8">
+      <c r="I385" t="b">
+        <f>ISNUMBER(MATCH(B385,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>392</v>
       </c>
@@ -12979,8 +16560,12 @@
       <c r="H386" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="387" spans="1:8">
+      <c r="I386" t="b">
+        <f>ISNUMBER(MATCH(B386,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>393</v>
       </c>
@@ -13005,8 +16590,12 @@
       <c r="H387" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="388" spans="1:8">
+      <c r="I387" t="b">
+        <f>ISNUMBER(MATCH(B387,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>394</v>
       </c>
@@ -13031,8 +16620,12 @@
       <c r="H388" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="389" spans="1:8">
+      <c r="I388" t="b">
+        <f>ISNUMBER(MATCH(B388,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>395</v>
       </c>
@@ -13057,8 +16650,12 @@
       <c r="H389" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="390" spans="1:8">
+      <c r="I389" t="b">
+        <f>ISNUMBER(MATCH(B389,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>396</v>
       </c>
@@ -13083,8 +16680,12 @@
       <c r="H390" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="391" spans="1:8">
+      <c r="I390" t="b">
+        <f>ISNUMBER(MATCH(B390,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>397</v>
       </c>
@@ -13098,7 +16699,7 @@
         <v>46695094</v>
       </c>
       <c r="E391">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F391">
         <v>1</v>
@@ -13109,8 +16710,12 @@
       <c r="H391" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="392" spans="1:8">
+      <c r="I391" t="b">
+        <f>ISNUMBER(MATCH(B391,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>398</v>
       </c>
@@ -13135,8 +16740,12 @@
       <c r="H392" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="393" spans="1:8">
+      <c r="I392" t="b">
+        <f>ISNUMBER(MATCH(B392,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>399</v>
       </c>
@@ -13161,8 +16770,12 @@
       <c r="H393" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="394" spans="1:8">
+      <c r="I393" t="b">
+        <f>ISNUMBER(MATCH(B393,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>400</v>
       </c>
@@ -13187,21 +16800,35 @@
       <c r="H394" t="s">
         <v>816</v>
       </c>
+      <c r="I394" t="b">
+        <f>ISNUMBER(MATCH(B394,'[1]Index Composition'!$B$2:$B$393,0))</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I394" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13212,7 +16839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -13223,7 +16850,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -13234,7 +16861,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -13245,7 +16872,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -13256,7 +16883,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -13267,7 +16894,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -13278,7 +16905,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -13289,7 +16916,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>158</v>
       </c>
@@ -13300,7 +16927,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>192</v>
       </c>
@@ -13311,7 +16938,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>326</v>
       </c>
@@ -13322,7 +16949,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>375</v>
       </c>
@@ -13335,18 +16962,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13357,7 +16987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>826</v>
       </c>
@@ -13368,7 +16998,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>827</v>
       </c>
@@ -13379,7 +17009,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>828</v>
       </c>
@@ -13390,7 +17020,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>829</v>
       </c>
@@ -13401,7 +17031,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>830</v>
       </c>
@@ -13412,7 +17042,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>831</v>
       </c>
@@ -13423,7 +17053,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>832</v>
       </c>
@@ -13434,7 +17064,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>833</v>
       </c>
@@ -13445,7 +17075,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>834</v>
       </c>
@@ -13456,7 +17086,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>835</v>
       </c>
@@ -13467,7 +17097,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>836</v>
       </c>
@@ -13478,7 +17108,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>837</v>
       </c>
@@ -13489,7 +17119,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>838</v>
       </c>
@@ -13500,7 +17130,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>839</v>
       </c>
@@ -13513,5 +17143,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/GUI + Reviews/202512/Review 202512/Dataiku/DWREP_EMS_2025-12-11_2025-12-11-23-29-47.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Dataiku/DWREP_EMS_2025-12-11_2025-12-11-23-29-47.xlsx
@@ -1,47 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Dataiku/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_FA6EF3DDA93C9EAA0ED597579380644EF1387FEE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE1BD67E-FD75-4892-80C3-62C14D88BB0F}"/>
   <bookViews>
-    <workbookView xWindow="-25695" yWindow="1305" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
     <sheet name="inclusion" sheetId="2" r:id="rId2"/>
     <sheet name="exclusion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">selection!$A$1:$I$394</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="855">
   <si>
     <t>Company</t>
   </si>
@@ -2606,16 +2581,13 @@
   </si>
   <si>
     <t>XMSM</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2640,7 +2612,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2663,27 +2635,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2692,2008 +2650,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Index Composition"/>
-      <sheetName val="Eligible Companies"/>
-      <sheetName val="Inclusion"/>
-      <sheetName val="Exclusion"/>
-      <sheetName val="Full Universe"/>
-      <sheetName val="Index Market Cap"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>SE0009161052</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>SE0005127818</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>AU0000291882</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>AU0000286213</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>US0042391096</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>JP3047490002</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>JP3047160001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>BE0003851681</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>JP3047650001</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>US0084921008</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>SG2D63974620</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>US0144911049</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>US0152711091</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>CA0194561027</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>CH0008837566</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>CA02215R1073</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>US3981823038</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>US02665T3068</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>US03027X1000</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>US03064D1081</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>US75605Y1064</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>JP3825750007</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>US03784Y2000</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>JP3167620008</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>AU000000ARF6</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>NZARGE0010S7</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>LU1673108939</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>AU000000APZ8</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>SE0024320832</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>US0534841012</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v>GB0002869419</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>CA0966311064</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>GB0001367019</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35" t="str">
-            <v>US11120U1051</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="str">
-            <v>US11135E2037</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>AU000000BWP3</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v>US1011211018</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39" t="str">
-            <v>AT0000641352</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>US1331311027</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>CA1349211054</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42" t="str">
-            <v>SG1M77906915</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43" t="str">
-            <v>SGXC16332337</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44" t="str">
-            <v>SG1U25933169</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45" t="str">
-            <v>SG1V35936920</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46" t="str">
-            <v>SG1M51904654</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47" t="str">
-            <v>SGXE62145532</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48" t="str">
-            <v>US14174T1079</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49" t="str">
-            <v>FR0010828137</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50" t="str">
-            <v>SE0000379190</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51" t="str">
-            <v>SE0001664707</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52" t="str">
-            <v>US12504L1098</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53" t="str">
-            <v>SG1T66931158</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54" t="str">
-            <v>AU000000CWP1</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55" t="str">
-            <v>US15202L1070</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56" t="str">
-            <v>AU000000CIP0</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57" t="str">
-            <v>AU0000077893</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58" t="str">
-            <v>SGXC43938841</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59" t="str">
-            <v>AU000000CHC0</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60" t="str">
-            <v>AU000000CLW0</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61" t="str">
-            <v>AU000000CQR9</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62" t="str">
-            <v>AU0000030645</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63" t="str">
-            <v>CA16141A1030</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64" t="str">
-            <v>CA17039A1066</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65" t="str">
-            <v>SE0010832204</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66" t="str">
-            <v>SG1R89002252</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67" t="str">
-            <v>FI4000369947</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68" t="str">
-            <v>KYG2177B1014</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69" t="str">
-            <v>BE0003593044</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70" t="str">
-            <v>CA1946931070</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71" t="str">
-            <v>ES0139140174</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72" t="str">
-            <v>JP3047540004</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73" t="str">
-            <v>US20464U1007</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74" t="str">
-            <v>US22002T1088</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75" t="str">
-            <v>SE0010714287</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76" t="str">
-            <v>US22160N1090</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77" t="str">
-            <v>US2227955026</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78" t="str">
-            <v>FR0000064578</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79" t="str">
-            <v>JP3048680007</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80" t="str">
-            <v>CA2271071094</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81" t="str">
-            <v>AU000000CMW8</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82" t="str">
-            <v>US22822V1017</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83" t="str">
-            <v>CA1264621006</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84" t="str">
-            <v>US2296631094</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85" t="str">
-            <v>US23128Q1013</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86" t="str">
-            <v>GB00BJFLFT45</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87" t="str">
-            <v>JP3486800000</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88" t="str">
-            <v>SGXC62140063</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89" t="str">
-            <v>JP3046390005</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90" t="str">
-            <v>JP3046310003</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91" t="str">
-            <v>JP3046410001</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92" t="str">
-            <v>JP3548720006</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93" t="str">
-            <v>GB0002652740</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94" t="str">
-            <v>DE000A0HN5C6</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95" t="str">
-            <v>AU0000192833</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96" t="str">
-            <v>AU000000DXS1</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97" t="str">
-            <v>US2527843013</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98" t="str">
-            <v>AU0000367088</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99" t="str">
-            <v>SGXC50067435</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100" t="str">
-            <v>US2538681030</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101" t="str">
-            <v>US25401T6038</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="B102" t="str">
-            <v>SE0001634262</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="B103" t="str">
-            <v>US25960P1093</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="B104" t="str">
-            <v>CA26153W1095</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="B105" t="str">
-            <v>US2772761019</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106" t="str">
-            <v>SE0022050183</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="B107" t="str">
-            <v>US9396531017</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="B108" t="str">
-            <v>GB00BLWDVR75</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="B109" t="str">
-            <v>NO0010716418</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="B110" t="str">
-            <v>US26884U1097</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="B111" t="str">
-            <v>US29444U7000</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="B112" t="str">
-            <v>US29472R1086</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="B113" t="str">
-            <v>US29476L1070</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="B114" t="str">
-            <v>JP3688330004</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="B115" t="str">
-            <v>JP3048810000</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="B116" t="str">
-            <v>JP3688350002</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="B117" t="str">
-            <v>SGXC55341835</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="B118" t="str">
-            <v>US29670E1073</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="B119" t="str">
-            <v>US2971781057</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="B120" t="str">
-            <v>NL0015000K93</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="B121" t="str">
-            <v>US30225T1025</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="B122" t="str">
-            <v>SE0011166974</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="B123" t="str">
-            <v>SG2F08984575</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="B124" t="str">
-            <v>SE0017832488</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="B125" t="str">
-            <v>SE0016785786</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="B126" t="str">
-            <v>SE0013512506</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="B127" t="str">
-            <v>US3137451015</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="B128" t="str">
-            <v>US3149111086</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="B129" t="str">
-            <v>CA31890B1031</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="B130" t="str">
-            <v>US32054K1034</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="B131" t="str">
-            <v>CA33767E2024</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="B132" t="str">
-            <v>SG1O33912138</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="B133" t="str">
-            <v>US35086T1097</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="B134" t="str">
-            <v>SG1T60930966</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="B135" t="str">
-            <v>SG1CI9000006</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="B136" t="str">
-            <v>JP3046200006</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="B137" t="str">
-            <v>JP3046240002</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="B138" t="str">
-            <v>JP3386670008</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="B139" t="str">
-            <v>US36467J1088</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="B140" t="str">
-            <v>FR0010040865</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="B141" t="str">
-            <v>AU0000402562</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="B142" t="str">
-            <v>US3742971092</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="B143" t="str">
-            <v>US3793782018</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="B144" t="str">
-            <v>JP3044520009</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="B145" t="str">
-            <v>JP3047510007</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="B146" t="str">
-            <v>AU000000GMG2</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="B147" t="str">
-            <v>NZCPTE0001S9</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="B148" t="str">
-            <v>AU000000GPT8</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="B149" t="str">
-            <v>GB00B04V1276</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="B150" t="str">
-            <v>LU0775917882</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="B151" t="str">
-            <v>CA3874372053</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="B152" t="str">
-            <v>GB00BF5H9P87</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="B153" t="str">
-            <v>AU000000GOZ8</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="B154" t="str">
-            <v>CA4039254079</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="B155" t="str">
-            <v>GB00BRJQ8J25</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="B156" t="str">
-            <v>JP3046320002</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="B157" t="str">
-            <v>US41068X1000</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="B158" t="str">
-            <v>JP3047910009</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="B159" t="str">
-            <v>US42226K1051</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="B160" t="str">
-            <v>US42250P1030</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="B161" t="str">
-            <v>SE0017911480</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="B162" t="str">
-            <v>JP3834800009</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="B163" t="str">
-            <v>JP3046220004</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="B164" t="str">
-            <v>SE0015671995</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="B165" t="str">
-            <v>HK0012000102</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="B166" t="str">
-            <v>US4312841087</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="B167" t="str">
-            <v>AU0000058943</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="B168" t="str">
-            <v>AU0000113136</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="B169" t="str">
-            <v>BMG4587L1090</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="B170" t="str">
-            <v>JP3802060008</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="B171" t="str">
-            <v>JP3047610005</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="B172" t="str">
-            <v>US44107P1049</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="B173" t="str">
-            <v>US44267T1025</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="B174" t="str">
-            <v>SE0000170375</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="B175" t="str">
-            <v>JP3360800001</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="B176" t="str">
-            <v>JP3047660000</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="B177" t="str">
-            <v>HK0014000126</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="B178" t="str">
-            <v>JP3048160000</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="B179" t="str">
-            <v>JP3120010008</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="B180" t="str">
-            <v>JP3046300004</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="B181" t="str">
-            <v>US45378A1060</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="B182" t="str">
-            <v>JP3046500009</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="B183" t="str">
-            <v>AU000000INA9</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="B184" t="str">
-            <v>US45781V1017</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="B185" t="str">
-            <v>JE00BYVQYS01</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="B186" t="str">
-            <v>SE0017072259</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="B187" t="str">
-            <v>CA46071W2058</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="B188" t="str">
-            <v>CH1338987303</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="B189" t="str">
-            <v>US46124J2015</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="B190" t="str">
-            <v>JP3046190009</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="B191" t="str">
-            <v>US46187W1071</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="B192" t="str">
-            <v>US46284V1017</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="B193" t="str">
-            <v>JP3046420000</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="B194" t="str">
-            <v>JP3046400002</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="B195" t="str">
-            <v>JP3046230003</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="B196" t="str">
-            <v>JP3039710003</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="B197" t="str">
-            <v>JP3040890000</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="B198" t="str">
-            <v>JP3027680002</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="B199" t="str">
-            <v>JP3714200007</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="B200" t="str">
-            <v>SE0012481364</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="B201" t="str">
-            <v>US48020Q1076</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="B202" t="str">
-            <v>JP3386630002</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="B203" t="str">
-            <v>JP3211050004</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="B204" t="str">
-            <v>JP3279000008</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="B205" t="str">
-            <v>JP3046270009</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="B206" t="str">
-            <v>US4893981070</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="B207" t="str">
-            <v>SG1AF6000009</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="B208" t="str">
-            <v>SG1T22929874</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="B209" t="str">
-            <v>JP3277620005</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="B210" t="str">
-            <v>CA49410M1023</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="B211" t="str">
-            <v>US49427F1084</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="B212" t="str">
-            <v>US49446R1095</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="B213" t="str">
-            <v>US49803T3005</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="B214" t="str">
-            <v>NZKPGE0001S9</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="B215" t="str">
-            <v>FR0000121964</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="B216" t="str">
-            <v>FI4000312251</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="B217" t="str">
-            <v>JP3968300008</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="B218" t="str">
-            <v>US5128161099</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="B219" t="str">
-            <v>GB00BYW0PQ60</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="B220" t="str">
-            <v>JP3048180008</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="B221" t="str">
-            <v>DE000LEG1110</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="B222" t="str">
-            <v>SGXC61949712</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="B223" t="str">
-            <v>JP3167500002</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="B224" t="str">
-            <v>AU000000LIC9</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="B225" t="str">
-            <v>US53566V1061</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="B226" t="str">
-            <v>HK0823032773</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="B227" t="str">
-            <v>JP3982600003</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="B228" t="str">
-            <v>SE0017131337</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="B229" t="str">
-            <v>GB00B4WFW713</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="B230" t="str">
-            <v>US5021751020</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="B231" t="str">
-            <v>US5290434084</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="B232" t="str">
-            <v>US5543821012</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="B233" t="str">
-            <v>SG2C32962814</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="B234" t="str">
-            <v>SG1S03926213</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="B235" t="str">
-            <v>SG2D18969584</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="B236" t="str">
-            <v>US58463J3041</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="B237" t="str">
-            <v>FR0010241638</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="B238" t="str">
-            <v>ES0105025003</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="B239" t="str">
-            <v>US59522J1034</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="B240" t="str">
-            <v>US6011371027</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="B241" t="str">
-            <v>JP3048370005</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="B242" t="str">
-            <v>JP3460800000</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="B243" t="str">
-            <v>AU000000MGR9</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="B244" t="str">
-            <v>JP3899600005</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="B245" t="str">
-            <v>JP3048480002</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="B246" t="str">
-            <v>JP3046440008</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="B247" t="str">
-            <v>JP3893200000</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="B248" t="str">
-            <v>JP3048300002</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="B249" t="str">
-            <v>CH0011108872</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="B250" t="str">
-            <v>BE0003853703</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="B251" t="str">
-            <v>JP3046470005</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="B252" t="str">
-            <v>JP3046170001</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="B253" t="str">
-            <v>US63633D1046</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="B254" t="str">
-            <v>US6378701063</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="B255" t="str">
-            <v>AU000000NSR2</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="B256" t="str">
-            <v>US64119V3033</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="B257" t="str">
-            <v>US65158N1028</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="B258" t="str">
-            <v>JP3027670003</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="B259" t="str">
-            <v>JP3695010003</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="B260" t="str">
-            <v>JP3047550003</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="B261" t="str">
-            <v>JP3047750009</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="B262" t="str">
-            <v>US6374171063</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="B263" t="str">
-            <v>JP3048110005</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="B264" t="str">
-            <v>JP3762900003</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="B265" t="str">
-            <v>CA6674951059</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="B266" t="str">
-            <v>SE0006342333</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="B267" t="str">
-            <v>SGXC92727947</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="B268" t="str">
-            <v>JP3041770003</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="B269" t="str">
-            <v>SE0011426428</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="B270" t="str">
-            <v>US6819361006</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="B271" t="str">
-            <v>JP3047640002</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="B272" t="str">
-            <v>JP3173540000</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="B273" t="str">
-            <v>US6837121036</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="B274" t="str">
-            <v>JP3040880001</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="B275" t="str">
-            <v>SG2G60000004</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="B276" t="str">
-            <v>US69007J3041</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="B277" t="str">
-            <v>SE0007100359</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="B278" t="str">
-            <v>US69924R1086</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="B279" t="str">
-            <v>US7005171050</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="B280" t="str">
-            <v>SG1V52937132</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="B281" t="str">
-            <v>US70509V1008</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="B282" t="str">
-            <v>AU000000PPC5</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="B283" t="str">
-            <v>US71844V2016</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="B284" t="str">
-            <v>GB00B0LCW208</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="B285" t="str">
-            <v>SE0004977692</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="B286" t="str">
-            <v>US7376301039</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="B287" t="str">
-            <v>NZAPTE0001S3</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="B288" t="str">
-            <v>CA74167K1093</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="B289" t="str">
-            <v>GB00BYRJ5J14</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="B290" t="str">
-            <v>US74340W1036</v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="B291" t="str">
-            <v>NZPFIE0001S5</v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="B292" t="str">
-            <v>GB00BF01NH51</v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="B293" t="str">
-            <v>CH0018294154</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="B294" t="str">
-            <v>NO0013178616</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="B295" t="str">
-            <v>US74460D1090</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="B296" t="str">
-            <v>US7549071030</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="B297" t="str">
-            <v>AU000000REA9</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="B298" t="str">
-            <v>US7561091049</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="B299" t="str">
-            <v>US7588491032</v>
-          </cell>
-        </row>
-        <row r="300">
-          <cell r="B300" t="str">
-            <v>AU0000253502</v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="B301" t="str">
-            <v>JP3755200007</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="B302" t="str">
-            <v>BE0003720340</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="B303" t="str">
-            <v>US76169C1009</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="B304" t="str">
-            <v>GB00BGDT3G23</v>
-          </cell>
-        </row>
-        <row r="305">
-          <cell r="B305" t="str">
-            <v>CA7669101031</v>
-          </cell>
-        </row>
-        <row r="306">
-          <cell r="B306" t="str">
-            <v>AU000000RFF5</v>
-          </cell>
-        </row>
-        <row r="307">
-          <cell r="B307" t="str">
-            <v>US78377T1079</v>
-          </cell>
-        </row>
-        <row r="308">
-          <cell r="B308" t="str">
-            <v>US78573L1061</v>
-          </cell>
-        </row>
-        <row r="309">
-          <cell r="B309" t="str">
-            <v>GB00B1N7Z094</v>
-          </cell>
-        </row>
-        <row r="310">
-          <cell r="B310" t="str">
-            <v>JP3047960004</v>
-          </cell>
-        </row>
-        <row r="311">
-          <cell r="B311" t="str">
-            <v>JP3048880003</v>
-          </cell>
-        </row>
-        <row r="312">
-          <cell r="B312" t="str">
-            <v>SG1ED2000000</v>
-          </cell>
-        </row>
-        <row r="313">
-          <cell r="B313" t="str">
-            <v>GB00B135BJ46</v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="B314" t="str">
-            <v>US78410G1040</v>
-          </cell>
-        </row>
-        <row r="315">
-          <cell r="B315" t="str">
-            <v>SE0009554454</v>
-          </cell>
-        </row>
-        <row r="316">
-          <cell r="B316" t="str">
-            <v>AU000000SCG8</v>
-          </cell>
-        </row>
-        <row r="317">
-          <cell r="B317" t="str">
-            <v>GB00B5ZN1N88</v>
-          </cell>
-        </row>
-        <row r="318">
-          <cell r="B318" t="str">
-            <v>JP3047820000</v>
-          </cell>
-        </row>
-        <row r="319">
-          <cell r="B319" t="str">
-            <v>AU000000SRV5</v>
-          </cell>
-        </row>
-        <row r="320">
-          <cell r="B320" t="str">
-            <v>GB00B62G9D36</v>
-          </cell>
-        </row>
-        <row r="321">
-          <cell r="B321" t="str">
-            <v>GG00BQZCBZ44</v>
-          </cell>
-        </row>
-        <row r="322">
-          <cell r="B322" t="str">
-            <v>US1462805086</v>
-          </cell>
-        </row>
-        <row r="323">
-          <cell r="B323" t="str">
-            <v>US8288061091</v>
-          </cell>
-        </row>
-        <row r="324">
-          <cell r="B324" t="str">
-            <v>GG00B1W3VF54</v>
-          </cell>
-        </row>
-        <row r="325">
-          <cell r="B325" t="str">
-            <v>US78440X8873</v>
-          </cell>
-        </row>
-        <row r="326">
-          <cell r="B326" t="str">
-            <v>CA83179X1087</v>
-          </cell>
-        </row>
-        <row r="327">
-          <cell r="B327" t="str">
-            <v>US83192D4025</v>
-          </cell>
-        </row>
-        <row r="328">
-          <cell r="B328" t="str">
-            <v>JP3048960003</v>
-          </cell>
-        </row>
-        <row r="329">
-          <cell r="B329" t="str">
-            <v>JP3161320001</v>
-          </cell>
-        </row>
-        <row r="330">
-          <cell r="B330" t="str">
-            <v>US7901481009</v>
-          </cell>
-        </row>
-        <row r="331">
-          <cell r="B331" t="str">
-            <v>US85254J1025</v>
-          </cell>
-        </row>
-        <row r="332">
-          <cell r="B332" t="str">
-            <v>JP3048200004</v>
-          </cell>
-        </row>
-        <row r="333">
-          <cell r="B333" t="str">
-            <v>SG1S18926810</v>
-          </cell>
-        </row>
-        <row r="334">
-          <cell r="B334" t="str">
-            <v>JP3399200009</v>
-          </cell>
-        </row>
-        <row r="335">
-          <cell r="B335" t="str">
-            <v>JP3046340000</v>
-          </cell>
-        </row>
-        <row r="336">
-          <cell r="B336" t="str">
-            <v>SE0006543344</v>
-          </cell>
-        </row>
-        <row r="337">
-          <cell r="B337" t="str">
-            <v>AU000000SGP0</v>
-          </cell>
-        </row>
-        <row r="338">
-          <cell r="B338" t="str">
-            <v>SGXC11267561</v>
-          </cell>
-        </row>
-        <row r="339">
-          <cell r="B339" t="str">
-            <v>NZSPGE0001S2</v>
-          </cell>
-        </row>
-        <row r="340">
-          <cell r="B340" t="str">
-            <v>JP3409000001</v>
-          </cell>
-        </row>
-        <row r="341">
-          <cell r="B341" t="str">
-            <v>US8666741041</v>
-          </cell>
-        </row>
-        <row r="342">
-          <cell r="B342" t="str">
-            <v>JP3336950005</v>
-          </cell>
-        </row>
-        <row r="343">
-          <cell r="B343" t="str">
-            <v>HK0016000132</v>
-          </cell>
-        </row>
-        <row r="344">
-          <cell r="B344" t="str">
-            <v>US8678921011</v>
-          </cell>
-        </row>
-        <row r="345">
-          <cell r="B345" t="str">
-            <v>SG1Q52922370</v>
-          </cell>
-        </row>
-        <row r="346">
-          <cell r="B346" t="str">
-            <v>GB00BF345X11</v>
-          </cell>
-        </row>
-        <row r="347">
-          <cell r="B347" t="str">
-            <v>SE0022243812</v>
-          </cell>
-        </row>
-        <row r="348">
-          <cell r="B348" t="str">
-            <v>SE0017565476</v>
-          </cell>
-        </row>
-        <row r="349">
-          <cell r="B349" t="str">
-            <v>HK0000063609</v>
-          </cell>
-        </row>
-        <row r="350">
-          <cell r="B350" t="str">
-            <v>CH0008038389</v>
-          </cell>
-        </row>
-        <row r="351">
-          <cell r="B351" t="str">
-            <v>DE0008303504</v>
-          </cell>
-        </row>
-        <row r="352">
-          <cell r="B352" t="str">
-            <v>JP3048750008</v>
-          </cell>
-        </row>
-        <row r="353">
-          <cell r="B353" t="str">
-            <v>US8754651060</v>
-          </cell>
-        </row>
-        <row r="354">
-          <cell r="B354" t="str">
-            <v>JP3464310006</v>
-          </cell>
-        </row>
-        <row r="355">
-          <cell r="B355" t="str">
-            <v>US88146M1018</v>
-          </cell>
-        </row>
-        <row r="356">
-          <cell r="B356" t="str">
-            <v>JP3538400007</v>
-          </cell>
-        </row>
-        <row r="357">
-          <cell r="B357" t="str">
-            <v>JP3049110004</v>
-          </cell>
-        </row>
-        <row r="358">
-          <cell r="B358" t="str">
-            <v>JP3582600007</v>
-          </cell>
-        </row>
-        <row r="359">
-          <cell r="B359" t="str">
-            <v>JP3569200003</v>
-          </cell>
-        </row>
-        <row r="360">
-          <cell r="B360" t="str">
-            <v>JP3044510000</v>
-          </cell>
-        </row>
-        <row r="361">
-          <cell r="B361" t="str">
-            <v>JP3595070008</v>
-          </cell>
-        </row>
-        <row r="362">
-          <cell r="B362" t="str">
-            <v>JP3047830009</v>
-          </cell>
-        </row>
-        <row r="363">
-          <cell r="B363" t="str">
-            <v>GB00BG49KP99</v>
-          </cell>
-        </row>
-        <row r="364">
-          <cell r="B364" t="str">
-            <v>US9026531049</v>
-          </cell>
-        </row>
-        <row r="365">
-          <cell r="B365" t="str">
-            <v>US9030021037</v>
-          </cell>
-        </row>
-        <row r="366">
-          <cell r="B366" t="str">
-            <v>FR0013326246</v>
-          </cell>
-        </row>
-        <row r="367">
-          <cell r="B367" t="str">
-            <v>GB0006928617</v>
-          </cell>
-        </row>
-        <row r="368">
-          <cell r="B368" t="str">
-            <v>SGXC39411175</v>
-          </cell>
-        </row>
-        <row r="369">
-          <cell r="B369" t="str">
-            <v>JP3045540006</v>
-          </cell>
-        </row>
-        <row r="370">
-          <cell r="B370" t="str">
-            <v>SG1S83002349</v>
-          </cell>
-        </row>
-        <row r="371">
-          <cell r="B371" t="str">
-            <v>US91704F1049</v>
-          </cell>
-        </row>
-        <row r="372">
-          <cell r="B372" t="str">
-            <v>US92276F1003</v>
-          </cell>
-        </row>
-        <row r="373">
-          <cell r="B373" t="str">
-            <v>US5544891048</v>
-          </cell>
-        </row>
-        <row r="374">
-          <cell r="B374" t="str">
-            <v>BE0003878957</v>
-          </cell>
-        </row>
-        <row r="375">
-          <cell r="B375" t="str">
-            <v>US9256521090</v>
-          </cell>
-        </row>
-        <row r="376">
-          <cell r="B376" t="str">
-            <v>AU000000VCX7</v>
-          </cell>
-        </row>
-        <row r="377">
-          <cell r="B377" t="str">
-            <v>NZCHPE0001S4</v>
-          </cell>
-        </row>
-        <row r="378">
-          <cell r="B378" t="str">
-            <v>DE000A1ML7J1</v>
-          </cell>
-        </row>
-        <row r="379">
-          <cell r="B379" t="str">
-            <v>US9290421091</v>
-          </cell>
-        </row>
-        <row r="380">
-          <cell r="B380" t="str">
-            <v>SE0017780133</v>
-          </cell>
-        </row>
-        <row r="381">
-          <cell r="B381" t="str">
-            <v>AU0000088064</v>
-          </cell>
-        </row>
-        <row r="382">
-          <cell r="B382" t="str">
-            <v>BE0974349814</v>
-          </cell>
-        </row>
-        <row r="383">
-          <cell r="B383" t="str">
-            <v>US95040Q1040</v>
-          </cell>
-        </row>
-        <row r="384">
-          <cell r="B384" t="str">
-            <v>US9621661043</v>
-          </cell>
-        </row>
-        <row r="385">
-          <cell r="B385" t="str">
-            <v>KYG9593A1040</v>
-          </cell>
-        </row>
-        <row r="386">
-          <cell r="B386" t="str">
-            <v>SE0018012635</v>
-          </cell>
-        </row>
-        <row r="387">
-          <cell r="B387" t="str">
-            <v>GB00B67G5X01</v>
-          </cell>
-        </row>
-        <row r="388">
-          <cell r="B388" t="str">
-            <v>US92936U1097</v>
-          </cell>
-        </row>
-        <row r="389">
-          <cell r="B389" t="str">
-            <v>US9840171030</v>
-          </cell>
-        </row>
-        <row r="390">
-          <cell r="B390" t="str">
-            <v>BE0974288202</v>
-          </cell>
-        </row>
-        <row r="391">
-          <cell r="B391" t="str">
-            <v>SG1T57930854</v>
-          </cell>
-        </row>
-        <row r="392">
-          <cell r="B392" t="str">
-            <v>US98954M1018</v>
-          </cell>
-        </row>
-        <row r="393">
-          <cell r="B393" t="str">
-            <v>US98954M2008</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4731,7 +2694,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4765,7 +2728,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4800,10 +2762,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4976,17 +2937,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I394"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H394"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5011,11 +2969,8 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -5040,12 +2995,8 @@
       <c r="H2" t="s">
         <v>814</v>
       </c>
-      <c r="I2" t="b">
-        <f>ISNUMBER(MATCH(B2,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -5070,12 +3021,8 @@
       <c r="H3" t="s">
         <v>814</v>
       </c>
-      <c r="I3" t="b">
-        <f>ISNUMBER(MATCH(B3,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5100,12 +3047,8 @@
       <c r="H4" t="s">
         <v>815</v>
       </c>
-      <c r="I4" t="b">
-        <f>ISNUMBER(MATCH(B4,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -5130,12 +3073,8 @@
       <c r="H5" t="s">
         <v>815</v>
       </c>
-      <c r="I5" t="b">
-        <f>ISNUMBER(MATCH(B5,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -5160,12 +3099,8 @@
       <c r="H6" t="s">
         <v>816</v>
       </c>
-      <c r="I6" t="b">
-        <f>ISNUMBER(MATCH(B6,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5190,12 +3125,8 @@
       <c r="H7" t="s">
         <v>817</v>
       </c>
-      <c r="I7" t="b">
-        <f>ISNUMBER(MATCH(B7,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5220,12 +3151,8 @@
       <c r="H8" t="s">
         <v>817</v>
       </c>
-      <c r="I8" t="b">
-        <f>ISNUMBER(MATCH(B8,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -5250,12 +3177,8 @@
       <c r="H9" t="s">
         <v>818</v>
       </c>
-      <c r="I9" t="b">
-        <f>ISNUMBER(MATCH(B9,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -5280,12 +3203,8 @@
       <c r="H10" t="s">
         <v>817</v>
       </c>
-      <c r="I10" t="b">
-        <f>ISNUMBER(MATCH(B10,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -5310,12 +3229,8 @@
       <c r="H11" t="s">
         <v>816</v>
       </c>
-      <c r="I11" t="b">
-        <f>ISNUMBER(MATCH(B11,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -5340,12 +3255,8 @@
       <c r="H12" t="s">
         <v>819</v>
       </c>
-      <c r="I12" t="b">
-        <f>ISNUMBER(MATCH(B12,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -5370,12 +3281,8 @@
       <c r="H13" t="s">
         <v>816</v>
       </c>
-      <c r="I13" t="b">
-        <f>ISNUMBER(MATCH(B13,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -5400,12 +3307,8 @@
       <c r="H14" t="s">
         <v>816</v>
       </c>
-      <c r="I14" t="b">
-        <f>ISNUMBER(MATCH(B14,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -5430,12 +3333,8 @@
       <c r="H15" t="s">
         <v>820</v>
       </c>
-      <c r="I15" t="b">
-        <f>ISNUMBER(MATCH(B15,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -5460,12 +3359,8 @@
       <c r="H16" t="s">
         <v>821</v>
       </c>
-      <c r="I16" t="b">
-        <f>ISNUMBER(MATCH(B16,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -5490,12 +3385,8 @@
       <c r="H17" t="s">
         <v>820</v>
       </c>
-      <c r="I17" t="b">
-        <f>ISNUMBER(MATCH(B17,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -5520,12 +3411,8 @@
       <c r="H18" t="s">
         <v>816</v>
       </c>
-      <c r="I18" t="b">
-        <f>ISNUMBER(MATCH(B18,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -5550,12 +3437,8 @@
       <c r="H19" t="s">
         <v>816</v>
       </c>
-      <c r="I19" t="b">
-        <f>ISNUMBER(MATCH(B19,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -5580,12 +3463,8 @@
       <c r="H20" t="s">
         <v>816</v>
       </c>
-      <c r="I20" t="b">
-        <f>ISNUMBER(MATCH(B20,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -5610,12 +3489,8 @@
       <c r="H21" t="s">
         <v>816</v>
       </c>
-      <c r="I21" t="b">
-        <f>ISNUMBER(MATCH(B21,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -5640,12 +3515,8 @@
       <c r="H22" t="s">
         <v>816</v>
       </c>
-      <c r="I22" t="b">
-        <f>ISNUMBER(MATCH(B22,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -5670,12 +3541,8 @@
       <c r="H23" t="s">
         <v>817</v>
       </c>
-      <c r="I23" t="b">
-        <f>ISNUMBER(MATCH(B23,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -5700,12 +3567,8 @@
       <c r="H24" t="s">
         <v>816</v>
       </c>
-      <c r="I24" t="b">
-        <f>ISNUMBER(MATCH(B24,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -5730,12 +3593,8 @@
       <c r="H25" t="s">
         <v>817</v>
       </c>
-      <c r="I25" t="b">
-        <f>ISNUMBER(MATCH(B25,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -5760,12 +3619,8 @@
       <c r="H26" t="s">
         <v>815</v>
       </c>
-      <c r="I26" t="b">
-        <f>ISNUMBER(MATCH(B26,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -5790,12 +3645,8 @@
       <c r="H27" t="s">
         <v>822</v>
       </c>
-      <c r="I27" t="b">
-        <f>ISNUMBER(MATCH(B27,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -5820,12 +3671,8 @@
       <c r="H28" t="s">
         <v>818</v>
       </c>
-      <c r="I28" t="b">
-        <f>ISNUMBER(MATCH(B28,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -5850,12 +3697,8 @@
       <c r="H29" t="s">
         <v>815</v>
       </c>
-      <c r="I29" t="b">
-        <f>ISNUMBER(MATCH(B29,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -5880,12 +3723,8 @@
       <c r="H30" t="s">
         <v>814</v>
       </c>
-      <c r="I30" t="b">
-        <f>ISNUMBER(MATCH(B30,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -5910,12 +3749,8 @@
       <c r="H31" t="s">
         <v>816</v>
       </c>
-      <c r="I31" t="b">
-        <f>ISNUMBER(MATCH(B31,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -5940,12 +3775,8 @@
       <c r="H32" t="s">
         <v>823</v>
       </c>
-      <c r="I32" t="b">
-        <f>ISNUMBER(MATCH(B32,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -5970,12 +3801,8 @@
       <c r="H33" t="s">
         <v>820</v>
       </c>
-      <c r="I33" t="b">
-        <f>ISNUMBER(MATCH(B33,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -6000,12 +3827,8 @@
       <c r="H34" t="s">
         <v>823</v>
       </c>
-      <c r="I34" t="b">
-        <f>ISNUMBER(MATCH(B34,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -6030,12 +3853,8 @@
       <c r="H35" t="s">
         <v>816</v>
       </c>
-      <c r="I35" t="b">
-        <f>ISNUMBER(MATCH(B35,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -6060,12 +3879,8 @@
       <c r="H36" t="s">
         <v>816</v>
       </c>
-      <c r="I36" t="b">
-        <f>ISNUMBER(MATCH(B36,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -6090,12 +3905,8 @@
       <c r="H37" t="s">
         <v>815</v>
       </c>
-      <c r="I37" t="b">
-        <f>ISNUMBER(MATCH(B37,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -6120,12 +3931,8 @@
       <c r="H38" t="s">
         <v>816</v>
       </c>
-      <c r="I38" t="b">
-        <f>ISNUMBER(MATCH(B38,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -6150,12 +3957,8 @@
       <c r="H39" t="s">
         <v>818</v>
       </c>
-      <c r="I39" t="b">
-        <f>ISNUMBER(MATCH(B39,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -6180,12 +3983,8 @@
       <c r="H40" t="s">
         <v>816</v>
       </c>
-      <c r="I40" t="b">
-        <f>ISNUMBER(MATCH(B40,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -6210,12 +4009,8 @@
       <c r="H41" t="s">
         <v>820</v>
       </c>
-      <c r="I41" t="b">
-        <f>ISNUMBER(MATCH(B41,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -6240,12 +4035,8 @@
       <c r="H42" t="s">
         <v>819</v>
       </c>
-      <c r="I42" t="b">
-        <f>ISNUMBER(MATCH(B42,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -6270,12 +4061,8 @@
       <c r="H43" t="s">
         <v>819</v>
       </c>
-      <c r="I43" t="b">
-        <f>ISNUMBER(MATCH(B43,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -6300,12 +4087,8 @@
       <c r="H44" t="s">
         <v>819</v>
       </c>
-      <c r="I44" t="b">
-        <f>ISNUMBER(MATCH(B44,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -6330,12 +4113,8 @@
       <c r="H45" t="s">
         <v>819</v>
       </c>
-      <c r="I45" t="b">
-        <f>ISNUMBER(MATCH(B45,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -6360,12 +4139,8 @@
       <c r="H46" t="s">
         <v>819</v>
       </c>
-      <c r="I46" t="b">
-        <f>ISNUMBER(MATCH(B46,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -6390,12 +4165,8 @@
       <c r="H47" t="s">
         <v>819</v>
       </c>
-      <c r="I47" t="b">
-        <f>ISNUMBER(MATCH(B47,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -6420,12 +4191,8 @@
       <c r="H48" t="s">
         <v>816</v>
       </c>
-      <c r="I48" t="b">
-        <f>ISNUMBER(MATCH(B48,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -6450,12 +4217,8 @@
       <c r="H49" t="s">
         <v>818</v>
       </c>
-      <c r="I49" t="b">
-        <f>ISNUMBER(MATCH(B49,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -6480,12 +4243,8 @@
       <c r="H50" t="s">
         <v>814</v>
       </c>
-      <c r="I50" t="b">
-        <f>ISNUMBER(MATCH(B50,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -6510,12 +4269,8 @@
       <c r="H51" t="s">
         <v>814</v>
       </c>
-      <c r="I51" t="b">
-        <f>ISNUMBER(MATCH(B51,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -6540,12 +4295,8 @@
       <c r="H52" t="s">
         <v>816</v>
       </c>
-      <c r="I52" t="b">
-        <f>ISNUMBER(MATCH(B52,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -6570,12 +4321,8 @@
       <c r="H53" t="s">
         <v>819</v>
       </c>
-      <c r="I53" t="b">
-        <f>ISNUMBER(MATCH(B53,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -6600,12 +4347,8 @@
       <c r="H54" t="s">
         <v>815</v>
       </c>
-      <c r="I54" t="b">
-        <f>ISNUMBER(MATCH(B54,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -6630,12 +4373,8 @@
       <c r="H55" t="s">
         <v>816</v>
       </c>
-      <c r="I55" t="b">
-        <f>ISNUMBER(MATCH(B55,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -6660,12 +4399,8 @@
       <c r="H56" t="s">
         <v>815</v>
       </c>
-      <c r="I56" t="b">
-        <f>ISNUMBER(MATCH(B56,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -6690,12 +4425,8 @@
       <c r="H57" t="s">
         <v>815</v>
       </c>
-      <c r="I57" t="b">
-        <f>ISNUMBER(MATCH(B57,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -6709,7 +4440,7 @@
         <v>1719331000</v>
       </c>
       <c r="E58">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -6720,12 +4451,8 @@
       <c r="H58" t="s">
         <v>819</v>
       </c>
-      <c r="I58" t="b">
-        <f>ISNUMBER(MATCH(B58,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -6750,12 +4477,8 @@
       <c r="H59" t="s">
         <v>815</v>
       </c>
-      <c r="I59" t="b">
-        <f>ISNUMBER(MATCH(B59,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -6780,12 +4503,8 @@
       <c r="H60" t="s">
         <v>815</v>
       </c>
-      <c r="I60" t="b">
-        <f>ISNUMBER(MATCH(B60,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -6810,12 +4529,8 @@
       <c r="H61" t="s">
         <v>815</v>
       </c>
-      <c r="I61" t="b">
-        <f>ISNUMBER(MATCH(B61,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -6840,12 +4555,8 @@
       <c r="H62" t="s">
         <v>815</v>
       </c>
-      <c r="I62" t="b">
-        <f>ISNUMBER(MATCH(B62,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -6870,12 +4581,8 @@
       <c r="H63" t="s">
         <v>820</v>
       </c>
-      <c r="I63" t="b">
-        <f>ISNUMBER(MATCH(B63,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -6900,12 +4607,8 @@
       <c r="H64" t="s">
         <v>820</v>
       </c>
-      <c r="I64" t="b">
-        <f>ISNUMBER(MATCH(B64,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -6930,12 +4633,8 @@
       <c r="H65" t="s">
         <v>814</v>
       </c>
-      <c r="I65" t="b">
-        <f>ISNUMBER(MATCH(B65,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -6960,12 +4659,8 @@
       <c r="H66" t="s">
         <v>819</v>
       </c>
-      <c r="I66" t="b">
-        <f>ISNUMBER(MATCH(B66,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -6990,12 +4685,8 @@
       <c r="H67" t="s">
         <v>818</v>
       </c>
-      <c r="I67" t="b">
-        <f>ISNUMBER(MATCH(B67,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -7009,7 +4700,7 @@
         <v>3499778300</v>
       </c>
       <c r="E68">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -7020,12 +4711,8 @@
       <c r="H68" t="s">
         <v>824</v>
       </c>
-      <c r="I68" t="b">
-        <f>ISNUMBER(MATCH(B68,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -7050,12 +4737,8 @@
       <c r="H69" t="s">
         <v>818</v>
       </c>
-      <c r="I69" t="b">
-        <f>ISNUMBER(MATCH(B69,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -7080,12 +4763,8 @@
       <c r="H70" t="s">
         <v>820</v>
       </c>
-      <c r="I70" t="b">
-        <f>ISNUMBER(MATCH(B70,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -7110,12 +4789,8 @@
       <c r="H71" t="s">
         <v>818</v>
       </c>
-      <c r="I71" t="b">
-        <f>ISNUMBER(MATCH(B71,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -7140,12 +4815,8 @@
       <c r="H72" t="s">
         <v>817</v>
       </c>
-      <c r="I72" t="b">
-        <f>ISNUMBER(MATCH(B72,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -7170,12 +4841,8 @@
       <c r="H73" t="s">
         <v>816</v>
       </c>
-      <c r="I73" t="b">
-        <f>ISNUMBER(MATCH(B73,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -7200,12 +4867,8 @@
       <c r="H74" t="s">
         <v>816</v>
       </c>
-      <c r="I74" t="b">
-        <f>ISNUMBER(MATCH(B74,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -7230,12 +4893,8 @@
       <c r="H75" t="s">
         <v>814</v>
       </c>
-      <c r="I75" t="b">
-        <f>ISNUMBER(MATCH(B75,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -7260,12 +4919,8 @@
       <c r="H76" t="s">
         <v>816</v>
       </c>
-      <c r="I76" t="b">
-        <f>ISNUMBER(MATCH(B76,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -7290,12 +4945,8 @@
       <c r="H77" t="s">
         <v>816</v>
       </c>
-      <c r="I77" t="b">
-        <f>ISNUMBER(MATCH(B77,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -7320,12 +4971,8 @@
       <c r="H78" t="s">
         <v>818</v>
       </c>
-      <c r="I78" t="b">
-        <f>ISNUMBER(MATCH(B78,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -7350,12 +4997,8 @@
       <c r="H79" t="s">
         <v>817</v>
       </c>
-      <c r="I79" t="b">
-        <f>ISNUMBER(MATCH(B79,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -7380,12 +5023,8 @@
       <c r="H80" t="s">
         <v>820</v>
       </c>
-      <c r="I80" t="b">
-        <f>ISNUMBER(MATCH(B80,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -7410,12 +5049,8 @@
       <c r="H81" t="s">
         <v>815</v>
       </c>
-      <c r="I81" t="b">
-        <f>ISNUMBER(MATCH(B81,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -7440,12 +5075,8 @@
       <c r="H82" t="s">
         <v>816</v>
       </c>
-      <c r="I82" t="b">
-        <f>ISNUMBER(MATCH(B82,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -7470,12 +5101,8 @@
       <c r="H83" t="s">
         <v>820</v>
       </c>
-      <c r="I83" t="b">
-        <f>ISNUMBER(MATCH(B83,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -7500,12 +5127,8 @@
       <c r="H84" t="s">
         <v>816</v>
       </c>
-      <c r="I84" t="b">
-        <f>ISNUMBER(MATCH(B84,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -7530,12 +5153,8 @@
       <c r="H85" t="s">
         <v>816</v>
       </c>
-      <c r="I85" t="b">
-        <f>ISNUMBER(MATCH(B85,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -7560,12 +5179,8 @@
       <c r="H86" t="s">
         <v>816</v>
       </c>
-      <c r="I86" t="b">
-        <f>ISNUMBER(MATCH(B86,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -7590,12 +5205,8 @@
       <c r="H87" t="s">
         <v>823</v>
       </c>
-      <c r="I87" t="b">
-        <f>ISNUMBER(MATCH(B87,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -7620,12 +5231,8 @@
       <c r="H88" t="s">
         <v>817</v>
       </c>
-      <c r="I88" t="b">
-        <f>ISNUMBER(MATCH(B88,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -7650,12 +5257,8 @@
       <c r="H89" t="s">
         <v>819</v>
       </c>
-      <c r="I89" t="b">
-        <f>ISNUMBER(MATCH(B89,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -7680,12 +5283,8 @@
       <c r="H90" t="s">
         <v>817</v>
       </c>
-      <c r="I90" t="b">
-        <f>ISNUMBER(MATCH(B90,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -7710,12 +5309,8 @@
       <c r="H91" t="s">
         <v>817</v>
       </c>
-      <c r="I91" t="b">
-        <f>ISNUMBER(MATCH(B91,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -7740,12 +5335,8 @@
       <c r="H92" t="s">
         <v>817</v>
       </c>
-      <c r="I92" t="b">
-        <f>ISNUMBER(MATCH(B92,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -7770,12 +5361,8 @@
       <c r="H93" t="s">
         <v>817</v>
       </c>
-      <c r="I93" t="b">
-        <f>ISNUMBER(MATCH(B93,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -7800,12 +5387,8 @@
       <c r="H94" t="s">
         <v>823</v>
       </c>
-      <c r="I94" t="b">
-        <f>ISNUMBER(MATCH(B94,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -7830,12 +5413,8 @@
       <c r="H95" t="s">
         <v>818</v>
       </c>
-      <c r="I95" t="b">
-        <f>ISNUMBER(MATCH(B95,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -7860,12 +5439,8 @@
       <c r="H96" t="s">
         <v>815</v>
       </c>
-      <c r="I96" t="b">
-        <f>ISNUMBER(MATCH(B96,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -7890,12 +5465,8 @@
       <c r="H97" t="s">
         <v>815</v>
       </c>
-      <c r="I97" t="b">
-        <f>ISNUMBER(MATCH(B97,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -7920,12 +5491,8 @@
       <c r="H98" t="s">
         <v>816</v>
       </c>
-      <c r="I98" t="b">
-        <f>ISNUMBER(MATCH(B98,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -7950,12 +5517,8 @@
       <c r="H99" t="s">
         <v>815</v>
       </c>
-      <c r="I99" t="b">
-        <f>ISNUMBER(MATCH(B99,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -7980,12 +5543,8 @@
       <c r="H100" t="s">
         <v>816</v>
       </c>
-      <c r="I100" t="b">
-        <f>ISNUMBER(MATCH(B100,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -8010,12 +5569,8 @@
       <c r="H101" t="s">
         <v>816</v>
       </c>
-      <c r="I101" t="b">
-        <f>ISNUMBER(MATCH(B101,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -8040,12 +5595,8 @@
       <c r="H102" t="s">
         <v>816</v>
       </c>
-      <c r="I102" t="b">
-        <f>ISNUMBER(MATCH(B102,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -8070,12 +5621,8 @@
       <c r="H103" t="s">
         <v>814</v>
       </c>
-      <c r="I103" t="b">
-        <f>ISNUMBER(MATCH(B103,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -8100,12 +5647,8 @@
       <c r="H104" t="s">
         <v>816</v>
       </c>
-      <c r="I104" t="b">
-        <f>ISNUMBER(MATCH(B104,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -8130,12 +5673,8 @@
       <c r="H105" t="s">
         <v>820</v>
       </c>
-      <c r="I105" t="b">
-        <f>ISNUMBER(MATCH(B105,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -8160,12 +5699,8 @@
       <c r="H106" t="s">
         <v>816</v>
       </c>
-      <c r="I106" t="b">
-        <f>ISNUMBER(MATCH(B106,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -8190,12 +5725,8 @@
       <c r="H107" t="s">
         <v>814</v>
       </c>
-      <c r="I107" t="b">
-        <f>ISNUMBER(MATCH(B107,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -8220,12 +5751,8 @@
       <c r="H108" t="s">
         <v>816</v>
       </c>
-      <c r="I108" t="b">
-        <f>ISNUMBER(MATCH(B108,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -8250,12 +5777,8 @@
       <c r="H109" t="s">
         <v>823</v>
       </c>
-      <c r="I109" t="b">
-        <f>ISNUMBER(MATCH(B109,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -8280,12 +5803,8 @@
       <c r="H110" t="s">
         <v>825</v>
       </c>
-      <c r="I110" t="b">
-        <f>ISNUMBER(MATCH(B110,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -8310,12 +5829,8 @@
       <c r="H111" t="s">
         <v>816</v>
       </c>
-      <c r="I111" t="b">
-        <f>ISNUMBER(MATCH(B111,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -8340,12 +5855,8 @@
       <c r="H112" t="s">
         <v>816</v>
       </c>
-      <c r="I112" t="b">
-        <f>ISNUMBER(MATCH(B112,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -8370,12 +5881,8 @@
       <c r="H113" t="s">
         <v>816</v>
       </c>
-      <c r="I113" t="b">
-        <f>ISNUMBER(MATCH(B113,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -8400,12 +5907,8 @@
       <c r="H114" t="s">
         <v>816</v>
       </c>
-      <c r="I114" t="b">
-        <f>ISNUMBER(MATCH(B114,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -8430,12 +5933,8 @@
       <c r="H115" t="s">
         <v>817</v>
       </c>
-      <c r="I115" t="b">
-        <f>ISNUMBER(MATCH(B115,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -8460,12 +5959,8 @@
       <c r="H116" t="s">
         <v>817</v>
       </c>
-      <c r="I116" t="b">
-        <f>ISNUMBER(MATCH(B116,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -8490,12 +5985,8 @@
       <c r="H117" t="s">
         <v>817</v>
       </c>
-      <c r="I117" t="b">
-        <f>ISNUMBER(MATCH(B117,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -8520,12 +6011,8 @@
       <c r="H118" t="s">
         <v>819</v>
       </c>
-      <c r="I118" t="b">
-        <f>ISNUMBER(MATCH(B118,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -8550,12 +6037,8 @@
       <c r="H119" t="s">
         <v>816</v>
       </c>
-      <c r="I119" t="b">
-        <f>ISNUMBER(MATCH(B119,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -8580,12 +6063,8 @@
       <c r="H120" t="s">
         <v>816</v>
       </c>
-      <c r="I120" t="b">
-        <f>ISNUMBER(MATCH(B120,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -8610,12 +6089,8 @@
       <c r="H121" t="s">
         <v>818</v>
       </c>
-      <c r="I121" t="b">
-        <f>ISNUMBER(MATCH(B121,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -8640,12 +6115,8 @@
       <c r="H122" t="s">
         <v>816</v>
       </c>
-      <c r="I122" t="b">
-        <f>ISNUMBER(MATCH(B122,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -8670,12 +6141,8 @@
       <c r="H123" t="s">
         <v>814</v>
       </c>
-      <c r="I123" t="b">
-        <f>ISNUMBER(MATCH(B123,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -8689,7 +6156,7 @@
         <v>2051141600</v>
       </c>
       <c r="E124">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -8700,12 +6167,8 @@
       <c r="H124" t="s">
         <v>819</v>
       </c>
-      <c r="I124" t="b">
-        <f>ISNUMBER(MATCH(B124,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -8730,12 +6193,8 @@
       <c r="H125" t="s">
         <v>814</v>
       </c>
-      <c r="I125" t="b">
-        <f>ISNUMBER(MATCH(B125,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -8760,12 +6219,8 @@
       <c r="H126" t="s">
         <v>814</v>
       </c>
-      <c r="I126" t="b">
-        <f>ISNUMBER(MATCH(B126,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -8790,12 +6245,8 @@
       <c r="H127" t="s">
         <v>814</v>
       </c>
-      <c r="I127" t="b">
-        <f>ISNUMBER(MATCH(B127,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -8820,12 +6271,8 @@
       <c r="H128" t="s">
         <v>816</v>
       </c>
-      <c r="I128" t="b">
-        <f>ISNUMBER(MATCH(B128,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -8850,12 +6297,8 @@
       <c r="H129" t="s">
         <v>816</v>
       </c>
-      <c r="I129" t="b">
-        <f>ISNUMBER(MATCH(B129,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -8880,12 +6323,8 @@
       <c r="H130" t="s">
         <v>820</v>
       </c>
-      <c r="I130" t="b">
-        <f>ISNUMBER(MATCH(B130,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -8910,12 +6349,8 @@
       <c r="H131" t="s">
         <v>816</v>
       </c>
-      <c r="I131" t="b">
-        <f>ISNUMBER(MATCH(B131,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -8940,12 +6375,8 @@
       <c r="H132" t="s">
         <v>820</v>
       </c>
-      <c r="I132" t="b">
-        <f>ISNUMBER(MATCH(B132,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -8970,12 +6401,8 @@
       <c r="H133" t="s">
         <v>824</v>
       </c>
-      <c r="I133" t="b">
-        <f>ISNUMBER(MATCH(B133,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -9000,12 +6427,8 @@
       <c r="H134" t="s">
         <v>816</v>
       </c>
-      <c r="I134" t="b">
-        <f>ISNUMBER(MATCH(B134,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -9030,12 +6453,8 @@
       <c r="H135" t="s">
         <v>819</v>
       </c>
-      <c r="I135" t="b">
-        <f>ISNUMBER(MATCH(B135,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -9060,12 +6479,8 @@
       <c r="H136" t="s">
         <v>819</v>
       </c>
-      <c r="I136" t="b">
-        <f>ISNUMBER(MATCH(B136,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -9090,12 +6505,8 @@
       <c r="H137" t="s">
         <v>817</v>
       </c>
-      <c r="I137" t="b">
-        <f>ISNUMBER(MATCH(B137,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -9120,12 +6531,8 @@
       <c r="H138" t="s">
         <v>817</v>
       </c>
-      <c r="I138" t="b">
-        <f>ISNUMBER(MATCH(B138,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -9150,12 +6557,8 @@
       <c r="H139" t="s">
         <v>817</v>
       </c>
-      <c r="I139" t="b">
-        <f>ISNUMBER(MATCH(B139,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -9180,12 +6583,8 @@
       <c r="H140" t="s">
         <v>816</v>
       </c>
-      <c r="I140" t="b">
-        <f>ISNUMBER(MATCH(B140,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -9199,7 +6598,7 @@
         <v>76792337</v>
       </c>
       <c r="E141">
-        <v>0.60000000000000009</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -9210,12 +6609,8 @@
       <c r="H141" t="s">
         <v>818</v>
       </c>
-      <c r="I141" t="b">
-        <f>ISNUMBER(MATCH(B141,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -9240,12 +6635,8 @@
       <c r="H142" t="s">
         <v>815</v>
       </c>
-      <c r="I142" t="b">
-        <f>ISNUMBER(MATCH(B142,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -9270,12 +6661,8 @@
       <c r="H143" t="s">
         <v>816</v>
       </c>
-      <c r="I143" t="b">
-        <f>ISNUMBER(MATCH(B143,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -9300,12 +6687,8 @@
       <c r="H144" t="s">
         <v>816</v>
       </c>
-      <c r="I144" t="b">
-        <f>ISNUMBER(MATCH(B144,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -9330,12 +6713,8 @@
       <c r="H145" t="s">
         <v>817</v>
       </c>
-      <c r="I145" t="b">
-        <f>ISNUMBER(MATCH(B145,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -9360,12 +6739,8 @@
       <c r="H146" t="s">
         <v>817</v>
       </c>
-      <c r="I146" t="b">
-        <f>ISNUMBER(MATCH(B146,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -9390,12 +6765,8 @@
       <c r="H147" t="s">
         <v>815</v>
       </c>
-      <c r="I147" t="b">
-        <f>ISNUMBER(MATCH(B147,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -9420,12 +6791,8 @@
       <c r="H148" t="s">
         <v>822</v>
       </c>
-      <c r="I148" t="b">
-        <f>ISNUMBER(MATCH(B148,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -9450,12 +6817,8 @@
       <c r="H149" t="s">
         <v>815</v>
       </c>
-      <c r="I149" t="b">
-        <f>ISNUMBER(MATCH(B149,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>156</v>
       </c>
@@ -9480,12 +6843,8 @@
       <c r="H150" t="s">
         <v>823</v>
       </c>
-      <c r="I150" t="b">
-        <f>ISNUMBER(MATCH(B150,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>157</v>
       </c>
@@ -9510,12 +6869,8 @@
       <c r="H151" t="s">
         <v>818</v>
       </c>
-      <c r="I151" t="b">
-        <f>ISNUMBER(MATCH(B151,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -9540,12 +6895,8 @@
       <c r="H152" t="s">
         <v>820</v>
       </c>
-      <c r="I152" t="b">
-        <f>ISNUMBER(MATCH(B152,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -9570,12 +6921,8 @@
       <c r="H153" t="s">
         <v>823</v>
       </c>
-      <c r="I153" t="b">
-        <f>ISNUMBER(MATCH(B153,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>160</v>
       </c>
@@ -9600,12 +6947,8 @@
       <c r="H154" t="s">
         <v>815</v>
       </c>
-      <c r="I154" t="b">
-        <f>ISNUMBER(MATCH(B154,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -9630,12 +6973,8 @@
       <c r="H155" t="s">
         <v>820</v>
       </c>
-      <c r="I155" t="b">
-        <f>ISNUMBER(MATCH(B155,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -9660,12 +6999,8 @@
       <c r="H156" t="s">
         <v>823</v>
       </c>
-      <c r="I156" t="b">
-        <f>ISNUMBER(MATCH(B156,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>163</v>
       </c>
@@ -9690,12 +7025,8 @@
       <c r="H157" t="s">
         <v>817</v>
       </c>
-      <c r="I157" t="b">
-        <f>ISNUMBER(MATCH(B157,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -9720,12 +7051,8 @@
       <c r="H158" t="s">
         <v>816</v>
       </c>
-      <c r="I158" t="b">
-        <f>ISNUMBER(MATCH(B158,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>165</v>
       </c>
@@ -9750,12 +7077,8 @@
       <c r="H159" t="s">
         <v>817</v>
       </c>
-      <c r="I159" t="b">
-        <f>ISNUMBER(MATCH(B159,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>166</v>
       </c>
@@ -9780,12 +7103,8 @@
       <c r="H160" t="s">
         <v>816</v>
       </c>
-      <c r="I160" t="b">
-        <f>ISNUMBER(MATCH(B160,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -9810,12 +7129,8 @@
       <c r="H161" t="s">
         <v>816</v>
       </c>
-      <c r="I161" t="b">
-        <f>ISNUMBER(MATCH(B161,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -9840,12 +7155,8 @@
       <c r="H162" t="s">
         <v>814</v>
       </c>
-      <c r="I162" t="b">
-        <f>ISNUMBER(MATCH(B162,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -9870,12 +7181,8 @@
       <c r="H163" t="s">
         <v>817</v>
       </c>
-      <c r="I163" t="b">
-        <f>ISNUMBER(MATCH(B163,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>170</v>
       </c>
@@ -9900,12 +7207,8 @@
       <c r="H164" t="s">
         <v>817</v>
       </c>
-      <c r="I164" t="b">
-        <f>ISNUMBER(MATCH(B164,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>171</v>
       </c>
@@ -9930,12 +7233,8 @@
       <c r="H165" t="s">
         <v>814</v>
       </c>
-      <c r="I165" t="b">
-        <f>ISNUMBER(MATCH(B165,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>172</v>
       </c>
@@ -9960,12 +7259,8 @@
       <c r="H166" t="s">
         <v>824</v>
       </c>
-      <c r="I166" t="b">
-        <f>ISNUMBER(MATCH(B166,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>173</v>
       </c>
@@ -9990,12 +7285,8 @@
       <c r="H167" t="s">
         <v>816</v>
       </c>
-      <c r="I167" t="b">
-        <f>ISNUMBER(MATCH(B167,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>174</v>
       </c>
@@ -10020,12 +7311,8 @@
       <c r="H168" t="s">
         <v>815</v>
       </c>
-      <c r="I168" t="b">
-        <f>ISNUMBER(MATCH(B168,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -10050,12 +7337,8 @@
       <c r="H169" t="s">
         <v>815</v>
       </c>
-      <c r="I169" t="b">
-        <f>ISNUMBER(MATCH(B169,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -10080,12 +7363,8 @@
       <c r="H170" t="s">
         <v>816</v>
       </c>
-      <c r="I170" t="b">
-        <f>ISNUMBER(MATCH(B170,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>177</v>
       </c>
@@ -10110,12 +7389,8 @@
       <c r="H171" t="s">
         <v>817</v>
       </c>
-      <c r="I171" t="b">
-        <f>ISNUMBER(MATCH(B171,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>178</v>
       </c>
@@ -10140,12 +7415,8 @@
       <c r="H172" t="s">
         <v>817</v>
       </c>
-      <c r="I172" t="b">
-        <f>ISNUMBER(MATCH(B172,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>179</v>
       </c>
@@ -10170,12 +7441,8 @@
       <c r="H173" t="s">
         <v>816</v>
       </c>
-      <c r="I173" t="b">
-        <f>ISNUMBER(MATCH(B173,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>180</v>
       </c>
@@ -10200,12 +7467,8 @@
       <c r="H174" t="s">
         <v>816</v>
       </c>
-      <c r="I174" t="b">
-        <f>ISNUMBER(MATCH(B174,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -10230,12 +7493,8 @@
       <c r="H175" t="s">
         <v>814</v>
       </c>
-      <c r="I175" t="b">
-        <f>ISNUMBER(MATCH(B175,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>182</v>
       </c>
@@ -10260,12 +7519,8 @@
       <c r="H176" t="s">
         <v>817</v>
       </c>
-      <c r="I176" t="b">
-        <f>ISNUMBER(MATCH(B176,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>183</v>
       </c>
@@ -10290,12 +7545,8 @@
       <c r="H177" t="s">
         <v>817</v>
       </c>
-      <c r="I177" t="b">
-        <f>ISNUMBER(MATCH(B177,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -10320,12 +7571,8 @@
       <c r="H178" t="s">
         <v>824</v>
       </c>
-      <c r="I178" t="b">
-        <f>ISNUMBER(MATCH(B178,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>185</v>
       </c>
@@ -10350,12 +7597,8 @@
       <c r="H179" t="s">
         <v>817</v>
       </c>
-      <c r="I179" t="b">
-        <f>ISNUMBER(MATCH(B179,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>186</v>
       </c>
@@ -10380,12 +7623,8 @@
       <c r="H180" t="s">
         <v>817</v>
       </c>
-      <c r="I180" t="b">
-        <f>ISNUMBER(MATCH(B180,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>187</v>
       </c>
@@ -10410,12 +7649,8 @@
       <c r="H181" t="s">
         <v>817</v>
       </c>
-      <c r="I181" t="b">
-        <f>ISNUMBER(MATCH(B181,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>188</v>
       </c>
@@ -10440,12 +7675,8 @@
       <c r="H182" t="s">
         <v>816</v>
       </c>
-      <c r="I182" t="b">
-        <f>ISNUMBER(MATCH(B182,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>189</v>
       </c>
@@ -10470,12 +7701,8 @@
       <c r="H183" t="s">
         <v>817</v>
       </c>
-      <c r="I183" t="b">
-        <f>ISNUMBER(MATCH(B183,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>190</v>
       </c>
@@ -10500,12 +7727,8 @@
       <c r="H184" t="s">
         <v>815</v>
       </c>
-      <c r="I184" t="b">
-        <f>ISNUMBER(MATCH(B184,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>191</v>
       </c>
@@ -10530,12 +7753,8 @@
       <c r="H185" t="s">
         <v>816</v>
       </c>
-      <c r="I185" t="b">
-        <f>ISNUMBER(MATCH(B185,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>192</v>
       </c>
@@ -10560,12 +7779,8 @@
       <c r="H186" t="s">
         <v>823</v>
       </c>
-      <c r="I186" t="b">
-        <f>ISNUMBER(MATCH(B186,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>193</v>
       </c>
@@ -10590,12 +7805,8 @@
       <c r="H187" t="s">
         <v>814</v>
       </c>
-      <c r="I187" t="b">
-        <f>ISNUMBER(MATCH(B187,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>194</v>
       </c>
@@ -10620,12 +7831,8 @@
       <c r="H188" t="s">
         <v>820</v>
       </c>
-      <c r="I188" t="b">
-        <f>ISNUMBER(MATCH(B188,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>195</v>
       </c>
@@ -10650,12 +7857,8 @@
       <c r="H189" t="s">
         <v>821</v>
       </c>
-      <c r="I189" t="b">
-        <f>ISNUMBER(MATCH(B189,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>196</v>
       </c>
@@ -10680,12 +7883,8 @@
       <c r="H190" t="s">
         <v>816</v>
       </c>
-      <c r="I190" t="b">
-        <f>ISNUMBER(MATCH(B190,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>197</v>
       </c>
@@ -10710,12 +7909,8 @@
       <c r="H191" t="s">
         <v>817</v>
       </c>
-      <c r="I191" t="b">
-        <f>ISNUMBER(MATCH(B191,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>198</v>
       </c>
@@ -10740,12 +7935,8 @@
       <c r="H192" t="s">
         <v>816</v>
       </c>
-      <c r="I192" t="b">
-        <f>ISNUMBER(MATCH(B192,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>199</v>
       </c>
@@ -10770,12 +7961,8 @@
       <c r="H193" t="s">
         <v>816</v>
       </c>
-      <c r="I193" t="b">
-        <f>ISNUMBER(MATCH(B193,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>200</v>
       </c>
@@ -10800,12 +7987,8 @@
       <c r="H194" t="s">
         <v>817</v>
       </c>
-      <c r="I194" t="b">
-        <f>ISNUMBER(MATCH(B194,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>201</v>
       </c>
@@ -10830,12 +8013,8 @@
       <c r="H195" t="s">
         <v>817</v>
       </c>
-      <c r="I195" t="b">
-        <f>ISNUMBER(MATCH(B195,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>202</v>
       </c>
@@ -10860,12 +8039,8 @@
       <c r="H196" t="s">
         <v>817</v>
       </c>
-      <c r="I196" t="b">
-        <f>ISNUMBER(MATCH(B196,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>203</v>
       </c>
@@ -10890,12 +8065,8 @@
       <c r="H197" t="s">
         <v>817</v>
       </c>
-      <c r="I197" t="b">
-        <f>ISNUMBER(MATCH(B197,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>204</v>
       </c>
@@ -10920,12 +8091,8 @@
       <c r="H198" t="s">
         <v>817</v>
       </c>
-      <c r="I198" t="b">
-        <f>ISNUMBER(MATCH(B198,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>205</v>
       </c>
@@ -10950,12 +8117,8 @@
       <c r="H199" t="s">
         <v>817</v>
       </c>
-      <c r="I199" t="b">
-        <f>ISNUMBER(MATCH(B199,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>206</v>
       </c>
@@ -10980,12 +8143,8 @@
       <c r="H200" t="s">
         <v>817</v>
       </c>
-      <c r="I200" t="b">
-        <f>ISNUMBER(MATCH(B200,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>207</v>
       </c>
@@ -11010,12 +8169,8 @@
       <c r="H201" t="s">
         <v>814</v>
       </c>
-      <c r="I201" t="b">
-        <f>ISNUMBER(MATCH(B201,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>208</v>
       </c>
@@ -11040,12 +8195,8 @@
       <c r="H202" t="s">
         <v>816</v>
       </c>
-      <c r="I202" t="b">
-        <f>ISNUMBER(MATCH(B202,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -11070,12 +8221,8 @@
       <c r="H203" t="s">
         <v>817</v>
       </c>
-      <c r="I203" t="b">
-        <f>ISNUMBER(MATCH(B203,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
         <v>210</v>
       </c>
@@ -11100,12 +8247,8 @@
       <c r="H204" t="s">
         <v>817</v>
       </c>
-      <c r="I204" t="b">
-        <f>ISNUMBER(MATCH(B204,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
         <v>211</v>
       </c>
@@ -11130,12 +8273,8 @@
       <c r="H205" t="s">
         <v>817</v>
       </c>
-      <c r="I205" t="b">
-        <f>ISNUMBER(MATCH(B205,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
         <v>212</v>
       </c>
@@ -11160,12 +8299,8 @@
       <c r="H206" t="s">
         <v>817</v>
       </c>
-      <c r="I206" t="b">
-        <f>ISNUMBER(MATCH(B206,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
         <v>213</v>
       </c>
@@ -11190,12 +8325,8 @@
       <c r="H207" t="s">
         <v>816</v>
       </c>
-      <c r="I207" t="b">
-        <f>ISNUMBER(MATCH(B207,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
         <v>214</v>
       </c>
@@ -11220,12 +8351,8 @@
       <c r="H208" t="s">
         <v>819</v>
       </c>
-      <c r="I208" t="b">
-        <f>ISNUMBER(MATCH(B208,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>215</v>
       </c>
@@ -11250,12 +8377,8 @@
       <c r="H209" t="s">
         <v>819</v>
       </c>
-      <c r="I209" t="b">
-        <f>ISNUMBER(MATCH(B209,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>216</v>
       </c>
@@ -11280,12 +8403,8 @@
       <c r="H210" t="s">
         <v>820</v>
       </c>
-      <c r="I210" t="b">
-        <f>ISNUMBER(MATCH(B210,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>217</v>
       </c>
@@ -11310,12 +8429,8 @@
       <c r="H211" t="s">
         <v>816</v>
       </c>
-      <c r="I211" t="b">
-        <f>ISNUMBER(MATCH(B211,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>218</v>
       </c>
@@ -11340,12 +8455,8 @@
       <c r="H212" t="s">
         <v>816</v>
       </c>
-      <c r="I212" t="b">
-        <f>ISNUMBER(MATCH(B212,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>219</v>
       </c>
@@ -11370,12 +8481,8 @@
       <c r="H213" t="s">
         <v>817</v>
       </c>
-      <c r="I213" t="b">
-        <f>ISNUMBER(MATCH(B213,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>220</v>
       </c>
@@ -11400,12 +8507,8 @@
       <c r="H214" t="s">
         <v>816</v>
       </c>
-      <c r="I214" t="b">
-        <f>ISNUMBER(MATCH(B214,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>221</v>
       </c>
@@ -11430,12 +8533,8 @@
       <c r="H215" t="s">
         <v>822</v>
       </c>
-      <c r="I215" t="b">
-        <f>ISNUMBER(MATCH(B215,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>222</v>
       </c>
@@ -11460,12 +8559,8 @@
       <c r="H216" t="s">
         <v>818</v>
       </c>
-      <c r="I216" t="b">
-        <f>ISNUMBER(MATCH(B216,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>223</v>
       </c>
@@ -11490,12 +8585,8 @@
       <c r="H217" t="s">
         <v>818</v>
       </c>
-      <c r="I217" t="b">
-        <f>ISNUMBER(MATCH(B217,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>224</v>
       </c>
@@ -11520,12 +8611,8 @@
       <c r="H218" t="s">
         <v>817</v>
       </c>
-      <c r="I218" t="b">
-        <f>ISNUMBER(MATCH(B218,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>225</v>
       </c>
@@ -11550,12 +8637,8 @@
       <c r="H219" t="s">
         <v>816</v>
       </c>
-      <c r="I219" t="b">
-        <f>ISNUMBER(MATCH(B219,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>226</v>
       </c>
@@ -11580,12 +8663,8 @@
       <c r="H220" t="s">
         <v>823</v>
       </c>
-      <c r="I220" t="b">
-        <f>ISNUMBER(MATCH(B220,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>227</v>
       </c>
@@ -11610,12 +8689,8 @@
       <c r="H221" t="s">
         <v>817</v>
       </c>
-      <c r="I221" t="b">
-        <f>ISNUMBER(MATCH(B221,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>228</v>
       </c>
@@ -11640,12 +8715,8 @@
       <c r="H222" t="s">
         <v>818</v>
       </c>
-      <c r="I222" t="b">
-        <f>ISNUMBER(MATCH(B222,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>229</v>
       </c>
@@ -11670,12 +8741,8 @@
       <c r="H223" t="s">
         <v>819</v>
       </c>
-      <c r="I223" t="b">
-        <f>ISNUMBER(MATCH(B223,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>230</v>
       </c>
@@ -11700,12 +8767,8 @@
       <c r="H224" t="s">
         <v>817</v>
       </c>
-      <c r="I224" t="b">
-        <f>ISNUMBER(MATCH(B224,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>231</v>
       </c>
@@ -11730,12 +8793,8 @@
       <c r="H225" t="s">
         <v>815</v>
       </c>
-      <c r="I225" t="b">
-        <f>ISNUMBER(MATCH(B225,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>232</v>
       </c>
@@ -11760,12 +8819,8 @@
       <c r="H226" t="s">
         <v>816</v>
       </c>
-      <c r="I226" t="b">
-        <f>ISNUMBER(MATCH(B226,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>233</v>
       </c>
@@ -11790,12 +8845,8 @@
       <c r="H227" t="s">
         <v>824</v>
       </c>
-      <c r="I227" t="b">
-        <f>ISNUMBER(MATCH(B227,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>234</v>
       </c>
@@ -11809,7 +8860,7 @@
         <v>21444000</v>
       </c>
       <c r="E228">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -11820,12 +8871,8 @@
       <c r="H228" t="s">
         <v>817</v>
       </c>
-      <c r="I228" t="b">
-        <f>ISNUMBER(MATCH(B228,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>235</v>
       </c>
@@ -11850,12 +8897,8 @@
       <c r="H229" t="s">
         <v>814</v>
       </c>
-      <c r="I229" t="b">
-        <f>ISNUMBER(MATCH(B229,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>236</v>
       </c>
@@ -11880,12 +8923,8 @@
       <c r="H230" t="s">
         <v>823</v>
       </c>
-      <c r="I230" t="b">
-        <f>ISNUMBER(MATCH(B230,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>237</v>
       </c>
@@ -11910,12 +8949,8 @@
       <c r="H231" t="s">
         <v>816</v>
       </c>
-      <c r="I231" t="b">
-        <f>ISNUMBER(MATCH(B231,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>238</v>
       </c>
@@ -11940,12 +8975,8 @@
       <c r="H232" t="s">
         <v>816</v>
       </c>
-      <c r="I232" t="b">
-        <f>ISNUMBER(MATCH(B232,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>239</v>
       </c>
@@ -11970,12 +9001,8 @@
       <c r="H233" t="s">
         <v>816</v>
       </c>
-      <c r="I233" t="b">
-        <f>ISNUMBER(MATCH(B233,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>240</v>
       </c>
@@ -12000,12 +9027,8 @@
       <c r="H234" t="s">
         <v>819</v>
       </c>
-      <c r="I234" t="b">
-        <f>ISNUMBER(MATCH(B234,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>241</v>
       </c>
@@ -12030,12 +9053,8 @@
       <c r="H235" t="s">
         <v>819</v>
       </c>
-      <c r="I235" t="b">
-        <f>ISNUMBER(MATCH(B235,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>242</v>
       </c>
@@ -12060,12 +9079,8 @@
       <c r="H236" t="s">
         <v>819</v>
       </c>
-      <c r="I236" t="b">
-        <f>ISNUMBER(MATCH(B236,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>243</v>
       </c>
@@ -12090,12 +9105,8 @@
       <c r="H237" t="s">
         <v>816</v>
       </c>
-      <c r="I237" t="b">
-        <f>ISNUMBER(MATCH(B237,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>244</v>
       </c>
@@ -12120,12 +9131,8 @@
       <c r="H238" t="s">
         <v>818</v>
       </c>
-      <c r="I238" t="b">
-        <f>ISNUMBER(MATCH(B238,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>245</v>
       </c>
@@ -12150,12 +9157,8 @@
       <c r="H239" t="s">
         <v>818</v>
       </c>
-      <c r="I239" t="b">
-        <f>ISNUMBER(MATCH(B239,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>246</v>
       </c>
@@ -12180,12 +9183,8 @@
       <c r="H240" t="s">
         <v>816</v>
       </c>
-      <c r="I240" t="b">
-        <f>ISNUMBER(MATCH(B240,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>247</v>
       </c>
@@ -12210,12 +9209,8 @@
       <c r="H241" t="s">
         <v>816</v>
       </c>
-      <c r="I241" t="b">
-        <f>ISNUMBER(MATCH(B241,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>248</v>
       </c>
@@ -12240,12 +9235,8 @@
       <c r="H242" t="s">
         <v>817</v>
       </c>
-      <c r="I242" t="b">
-        <f>ISNUMBER(MATCH(B242,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>249</v>
       </c>
@@ -12270,12 +9261,8 @@
       <c r="H243" t="s">
         <v>817</v>
       </c>
-      <c r="I243" t="b">
-        <f>ISNUMBER(MATCH(B243,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
         <v>250</v>
       </c>
@@ -12300,12 +9287,8 @@
       <c r="H244" t="s">
         <v>815</v>
       </c>
-      <c r="I244" t="b">
-        <f>ISNUMBER(MATCH(B244,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>251</v>
       </c>
@@ -12330,12 +9313,8 @@
       <c r="H245" t="s">
         <v>817</v>
       </c>
-      <c r="I245" t="b">
-        <f>ISNUMBER(MATCH(B245,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>252</v>
       </c>
@@ -12360,12 +9339,8 @@
       <c r="H246" t="s">
         <v>817</v>
       </c>
-      <c r="I246" t="b">
-        <f>ISNUMBER(MATCH(B246,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
         <v>253</v>
       </c>
@@ -12390,12 +9365,8 @@
       <c r="H247" t="s">
         <v>817</v>
       </c>
-      <c r="I247" t="b">
-        <f>ISNUMBER(MATCH(B247,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
         <v>254</v>
       </c>
@@ -12420,12 +9391,8 @@
       <c r="H248" t="s">
         <v>817</v>
       </c>
-      <c r="I248" t="b">
-        <f>ISNUMBER(MATCH(B248,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
         <v>255</v>
       </c>
@@ -12450,12 +9417,8 @@
       <c r="H249" t="s">
         <v>817</v>
       </c>
-      <c r="I249" t="b">
-        <f>ISNUMBER(MATCH(B249,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
         <v>256</v>
       </c>
@@ -12480,12 +9443,8 @@
       <c r="H250" t="s">
         <v>821</v>
       </c>
-      <c r="I250" t="b">
-        <f>ISNUMBER(MATCH(B250,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
         <v>257</v>
       </c>
@@ -12510,12 +9469,8 @@
       <c r="H251" t="s">
         <v>818</v>
       </c>
-      <c r="I251" t="b">
-        <f>ISNUMBER(MATCH(B251,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252" t="s">
         <v>258</v>
       </c>
@@ -12540,12 +9495,8 @@
       <c r="H252" t="s">
         <v>817</v>
       </c>
-      <c r="I252" t="b">
-        <f>ISNUMBER(MATCH(B252,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253" t="s">
         <v>259</v>
       </c>
@@ -12570,12 +9521,8 @@
       <c r="H253" t="s">
         <v>817</v>
       </c>
-      <c r="I253" t="b">
-        <f>ISNUMBER(MATCH(B253,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" t="s">
         <v>260</v>
       </c>
@@ -12600,12 +9547,8 @@
       <c r="H254" t="s">
         <v>816</v>
       </c>
-      <c r="I254" t="b">
-        <f>ISNUMBER(MATCH(B254,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255" t="s">
         <v>261</v>
       </c>
@@ -12630,12 +9573,8 @@
       <c r="H255" t="s">
         <v>816</v>
       </c>
-      <c r="I255" t="b">
-        <f>ISNUMBER(MATCH(B255,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256" t="s">
         <v>262</v>
       </c>
@@ -12660,12 +9599,8 @@
       <c r="H256" t="s">
         <v>815</v>
       </c>
-      <c r="I256" t="b">
-        <f>ISNUMBER(MATCH(B256,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257" t="s">
         <v>263</v>
       </c>
@@ -12690,12 +9625,8 @@
       <c r="H257" t="s">
         <v>816</v>
       </c>
-      <c r="I257" t="b">
-        <f>ISNUMBER(MATCH(B257,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258" t="s">
         <v>264</v>
       </c>
@@ -12720,12 +9651,8 @@
       <c r="H258" t="s">
         <v>816</v>
       </c>
-      <c r="I258" t="b">
-        <f>ISNUMBER(MATCH(B258,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
         <v>265</v>
       </c>
@@ -12750,12 +9677,8 @@
       <c r="H259" t="s">
         <v>817</v>
       </c>
-      <c r="I259" t="b">
-        <f>ISNUMBER(MATCH(B259,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
         <v>266</v>
       </c>
@@ -12780,12 +9703,8 @@
       <c r="H260" t="s">
         <v>817</v>
       </c>
-      <c r="I260" t="b">
-        <f>ISNUMBER(MATCH(B260,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
         <v>267</v>
       </c>
@@ -12810,12 +9729,8 @@
       <c r="H261" t="s">
         <v>817</v>
       </c>
-      <c r="I261" t="b">
-        <f>ISNUMBER(MATCH(B261,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262" t="s">
         <v>268</v>
       </c>
@@ -12840,12 +9755,8 @@
       <c r="H262" t="s">
         <v>817</v>
       </c>
-      <c r="I262" t="b">
-        <f>ISNUMBER(MATCH(B262,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
         <v>269</v>
       </c>
@@ -12870,12 +9781,8 @@
       <c r="H263" t="s">
         <v>816</v>
       </c>
-      <c r="I263" t="b">
-        <f>ISNUMBER(MATCH(B263,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
         <v>270</v>
       </c>
@@ -12900,12 +9807,8 @@
       <c r="H264" t="s">
         <v>817</v>
       </c>
-      <c r="I264" t="b">
-        <f>ISNUMBER(MATCH(B264,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
         <v>271</v>
       </c>
@@ -12930,12 +9833,8 @@
       <c r="H265" t="s">
         <v>817</v>
       </c>
-      <c r="I265" t="b">
-        <f>ISNUMBER(MATCH(B265,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266" t="s">
         <v>272</v>
       </c>
@@ -12960,12 +9859,8 @@
       <c r="H266" t="s">
         <v>820</v>
       </c>
-      <c r="I266" t="b">
-        <f>ISNUMBER(MATCH(B266,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
         <v>273</v>
       </c>
@@ -12979,7 +9874,7 @@
         <v>61580795</v>
       </c>
       <c r="E267">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F267">
         <v>1</v>
@@ -12990,12 +9885,8 @@
       <c r="H267" t="s">
         <v>814</v>
       </c>
-      <c r="I267" t="b">
-        <f>ISNUMBER(MATCH(B267,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
         <v>274</v>
       </c>
@@ -13020,12 +9911,8 @@
       <c r="H268" t="s">
         <v>816</v>
       </c>
-      <c r="I268" t="b">
-        <f>ISNUMBER(MATCH(B268,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
         <v>275</v>
       </c>
@@ -13050,12 +9937,8 @@
       <c r="H269" t="s">
         <v>817</v>
       </c>
-      <c r="I269" t="b">
-        <f>ISNUMBER(MATCH(B269,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
         <v>276</v>
       </c>
@@ -13080,12 +9963,8 @@
       <c r="H270" t="s">
         <v>814</v>
       </c>
-      <c r="I270" t="b">
-        <f>ISNUMBER(MATCH(B270,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
         <v>277</v>
       </c>
@@ -13110,12 +9989,8 @@
       <c r="H271" t="s">
         <v>816</v>
       </c>
-      <c r="I271" t="b">
-        <f>ISNUMBER(MATCH(B271,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
         <v>278</v>
       </c>
@@ -13140,12 +10015,8 @@
       <c r="H272" t="s">
         <v>817</v>
       </c>
-      <c r="I272" t="b">
-        <f>ISNUMBER(MATCH(B272,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
         <v>279</v>
       </c>
@@ -13159,7 +10030,7 @@
         <v>116707300</v>
       </c>
       <c r="E273">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F273">
         <v>1</v>
@@ -13170,12 +10041,8 @@
       <c r="H273" t="s">
         <v>817</v>
       </c>
-      <c r="I273" t="b">
-        <f>ISNUMBER(MATCH(B273,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274" t="s">
         <v>280</v>
       </c>
@@ -13200,12 +10067,8 @@
       <c r="H274" t="s">
         <v>816</v>
       </c>
-      <c r="I274" t="b">
-        <f>ISNUMBER(MATCH(B274,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275" t="s">
         <v>281</v>
       </c>
@@ -13230,12 +10093,8 @@
       <c r="H275" t="s">
         <v>817</v>
       </c>
-      <c r="I275" t="b">
-        <f>ISNUMBER(MATCH(B275,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
         <v>282</v>
       </c>
@@ -13260,12 +10119,8 @@
       <c r="H276" t="s">
         <v>819</v>
       </c>
-      <c r="I276" t="b">
-        <f>ISNUMBER(MATCH(B276,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277" t="s">
         <v>283</v>
       </c>
@@ -13290,12 +10145,8 @@
       <c r="H277" t="s">
         <v>816</v>
       </c>
-      <c r="I277" t="b">
-        <f>ISNUMBER(MATCH(B277,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278" t="s">
         <v>284</v>
       </c>
@@ -13320,12 +10171,8 @@
       <c r="H278" t="s">
         <v>814</v>
       </c>
-      <c r="I278" t="b">
-        <f>ISNUMBER(MATCH(B278,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279" t="s">
         <v>285</v>
       </c>
@@ -13350,12 +10197,8 @@
       <c r="H279" t="s">
         <v>816</v>
       </c>
-      <c r="I279" t="b">
-        <f>ISNUMBER(MATCH(B279,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280" t="s">
         <v>286</v>
       </c>
@@ -13380,12 +10223,8 @@
       <c r="H280" t="s">
         <v>816</v>
       </c>
-      <c r="I280" t="b">
-        <f>ISNUMBER(MATCH(B280,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281" t="s">
         <v>287</v>
       </c>
@@ -13410,12 +10249,8 @@
       <c r="H281" t="s">
         <v>819</v>
       </c>
-      <c r="I281" t="b">
-        <f>ISNUMBER(MATCH(B281,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282" t="s">
         <v>288</v>
       </c>
@@ -13440,12 +10275,8 @@
       <c r="H282" t="s">
         <v>816</v>
       </c>
-      <c r="I282" t="b">
-        <f>ISNUMBER(MATCH(B282,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:8">
       <c r="A283" t="s">
         <v>289</v>
       </c>
@@ -13470,12 +10301,8 @@
       <c r="H283" t="s">
         <v>815</v>
       </c>
-      <c r="I283" t="b">
-        <f>ISNUMBER(MATCH(B283,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284" t="s">
         <v>290</v>
       </c>
@@ -13500,12 +10327,8 @@
       <c r="H284" t="s">
         <v>816</v>
       </c>
-      <c r="I284" t="b">
-        <f>ISNUMBER(MATCH(B284,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285" t="s">
         <v>291</v>
       </c>
@@ -13530,12 +10353,8 @@
       <c r="H285" t="s">
         <v>823</v>
       </c>
-      <c r="I285" t="b">
-        <f>ISNUMBER(MATCH(B285,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286" t="s">
         <v>292</v>
       </c>
@@ -13560,12 +10379,8 @@
       <c r="H286" t="s">
         <v>814</v>
       </c>
-      <c r="I286" t="b">
-        <f>ISNUMBER(MATCH(B286,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287" t="s">
         <v>293</v>
       </c>
@@ -13590,12 +10405,8 @@
       <c r="H287" t="s">
         <v>816</v>
       </c>
-      <c r="I287" t="b">
-        <f>ISNUMBER(MATCH(B287,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288" t="s">
         <v>294</v>
       </c>
@@ -13620,12 +10431,8 @@
       <c r="H288" t="s">
         <v>822</v>
       </c>
-      <c r="I288" t="b">
-        <f>ISNUMBER(MATCH(B288,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289" t="s">
         <v>295</v>
       </c>
@@ -13650,12 +10457,8 @@
       <c r="H289" t="s">
         <v>820</v>
       </c>
-      <c r="I289" t="b">
-        <f>ISNUMBER(MATCH(B289,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
         <v>296</v>
       </c>
@@ -13680,12 +10483,8 @@
       <c r="H290" t="s">
         <v>823</v>
       </c>
-      <c r="I290" t="b">
-        <f>ISNUMBER(MATCH(B290,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
         <v>297</v>
       </c>
@@ -13710,12 +10509,8 @@
       <c r="H291" t="s">
         <v>816</v>
       </c>
-      <c r="I291" t="b">
-        <f>ISNUMBER(MATCH(B291,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
         <v>298</v>
       </c>
@@ -13740,12 +10535,8 @@
       <c r="H292" t="s">
         <v>822</v>
       </c>
-      <c r="I292" t="b">
-        <f>ISNUMBER(MATCH(B292,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
         <v>299</v>
       </c>
@@ -13770,12 +10561,8 @@
       <c r="H293" t="s">
         <v>823</v>
       </c>
-      <c r="I293" t="b">
-        <f>ISNUMBER(MATCH(B293,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
         <v>300</v>
       </c>
@@ -13800,12 +10587,8 @@
       <c r="H294" t="s">
         <v>821</v>
       </c>
-      <c r="I294" t="b">
-        <f>ISNUMBER(MATCH(B294,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295" t="s">
         <v>301</v>
       </c>
@@ -13830,12 +10613,8 @@
       <c r="H295" t="s">
         <v>825</v>
       </c>
-      <c r="I295" t="b">
-        <f>ISNUMBER(MATCH(B295,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296" t="s">
         <v>302</v>
       </c>
@@ -13860,12 +10639,8 @@
       <c r="H296" t="s">
         <v>816</v>
       </c>
-      <c r="I296" t="b">
-        <f>ISNUMBER(MATCH(B296,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297" t="s">
         <v>303</v>
       </c>
@@ -13890,12 +10665,8 @@
       <c r="H297" t="s">
         <v>816</v>
       </c>
-      <c r="I297" t="b">
-        <f>ISNUMBER(MATCH(B297,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
         <v>304</v>
       </c>
@@ -13920,12 +10691,8 @@
       <c r="H298" t="s">
         <v>815</v>
       </c>
-      <c r="I298" t="b">
-        <f>ISNUMBER(MATCH(B298,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
         <v>305</v>
       </c>
@@ -13950,12 +10717,8 @@
       <c r="H299" t="s">
         <v>816</v>
       </c>
-      <c r="I299" t="b">
-        <f>ISNUMBER(MATCH(B299,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
         <v>306</v>
       </c>
@@ -13980,12 +10743,8 @@
       <c r="H300" t="s">
         <v>816</v>
       </c>
-      <c r="I300" t="b">
-        <f>ISNUMBER(MATCH(B300,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301" t="s">
         <v>307</v>
       </c>
@@ -14010,12 +10769,8 @@
       <c r="H301" t="s">
         <v>815</v>
       </c>
-      <c r="I301" t="b">
-        <f>ISNUMBER(MATCH(B301,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302" t="s">
         <v>308</v>
       </c>
@@ -14040,12 +10795,8 @@
       <c r="H302" t="s">
         <v>817</v>
       </c>
-      <c r="I302" t="b">
-        <f>ISNUMBER(MATCH(B302,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303" t="s">
         <v>309</v>
       </c>
@@ -14070,12 +10821,8 @@
       <c r="H303" t="s">
         <v>818</v>
       </c>
-      <c r="I303" t="b">
-        <f>ISNUMBER(MATCH(B303,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:8">
       <c r="A304" t="s">
         <v>310</v>
       </c>
@@ -14100,12 +10847,8 @@
       <c r="H304" t="s">
         <v>816</v>
       </c>
-      <c r="I304" t="b">
-        <f>ISNUMBER(MATCH(B304,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305" t="s">
         <v>311</v>
       </c>
@@ -14130,12 +10873,8 @@
       <c r="H305" t="s">
         <v>823</v>
       </c>
-      <c r="I305" t="b">
-        <f>ISNUMBER(MATCH(B305,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306" t="s">
         <v>312</v>
       </c>
@@ -14160,12 +10899,8 @@
       <c r="H306" t="s">
         <v>820</v>
       </c>
-      <c r="I306" t="b">
-        <f>ISNUMBER(MATCH(B306,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307" t="s">
         <v>313</v>
       </c>
@@ -14190,12 +10925,8 @@
       <c r="H307" t="s">
         <v>815</v>
       </c>
-      <c r="I307" t="b">
-        <f>ISNUMBER(MATCH(B307,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308" t="s">
         <v>314</v>
       </c>
@@ -14220,12 +10951,8 @@
       <c r="H308" t="s">
         <v>816</v>
       </c>
-      <c r="I308" t="b">
-        <f>ISNUMBER(MATCH(B308,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:8">
       <c r="A309" t="s">
         <v>315</v>
       </c>
@@ -14250,12 +10977,8 @@
       <c r="H309" t="s">
         <v>816</v>
       </c>
-      <c r="I309" t="b">
-        <f>ISNUMBER(MATCH(B309,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310" t="s">
         <v>316</v>
       </c>
@@ -14280,12 +11003,8 @@
       <c r="H310" t="s">
         <v>823</v>
       </c>
-      <c r="I310" t="b">
-        <f>ISNUMBER(MATCH(B310,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311" t="s">
         <v>317</v>
       </c>
@@ -14310,12 +11029,8 @@
       <c r="H311" t="s">
         <v>817</v>
       </c>
-      <c r="I311" t="b">
-        <f>ISNUMBER(MATCH(B311,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312" t="s">
         <v>318</v>
       </c>
@@ -14340,12 +11055,8 @@
       <c r="H312" t="s">
         <v>817</v>
       </c>
-      <c r="I312" t="b">
-        <f>ISNUMBER(MATCH(B312,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313" t="s">
         <v>319</v>
       </c>
@@ -14370,12 +11081,8 @@
       <c r="H313" t="s">
         <v>819</v>
       </c>
-      <c r="I313" t="b">
-        <f>ISNUMBER(MATCH(B313,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314" t="s">
         <v>320</v>
       </c>
@@ -14400,12 +11107,8 @@
       <c r="H314" t="s">
         <v>823</v>
       </c>
-      <c r="I314" t="b">
-        <f>ISNUMBER(MATCH(B314,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315" t="s">
         <v>321</v>
       </c>
@@ -14430,12 +11133,8 @@
       <c r="H315" t="s">
         <v>816</v>
       </c>
-      <c r="I315" t="b">
-        <f>ISNUMBER(MATCH(B315,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316" t="s">
         <v>322</v>
       </c>
@@ -14460,12 +11159,8 @@
       <c r="H316" t="s">
         <v>814</v>
       </c>
-      <c r="I316" t="b">
-        <f>ISNUMBER(MATCH(B316,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317" t="s">
         <v>323</v>
       </c>
@@ -14490,12 +11185,8 @@
       <c r="H317" t="s">
         <v>815</v>
       </c>
-      <c r="I317" t="b">
-        <f>ISNUMBER(MATCH(B317,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318" t="s">
         <v>324</v>
       </c>
@@ -14520,12 +11211,8 @@
       <c r="H318" t="s">
         <v>823</v>
       </c>
-      <c r="I318" t="b">
-        <f>ISNUMBER(MATCH(B318,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319" t="s">
         <v>325</v>
       </c>
@@ -14550,12 +11237,8 @@
       <c r="H319" t="s">
         <v>817</v>
       </c>
-      <c r="I319" t="b">
-        <f>ISNUMBER(MATCH(B319,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320" t="s">
         <v>326</v>
       </c>
@@ -14580,12 +11263,8 @@
       <c r="H320" t="s">
         <v>815</v>
       </c>
-      <c r="I320" t="b">
-        <f>ISNUMBER(MATCH(B320,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321" t="s">
         <v>327</v>
       </c>
@@ -14610,12 +11289,8 @@
       <c r="H321" t="s">
         <v>823</v>
       </c>
-      <c r="I321" t="b">
-        <f>ISNUMBER(MATCH(B321,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322" t="s">
         <v>328</v>
       </c>
@@ -14640,12 +11315,8 @@
       <c r="H322" t="s">
         <v>818</v>
       </c>
-      <c r="I322" t="b">
-        <f>ISNUMBER(MATCH(B322,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323" t="s">
         <v>329</v>
       </c>
@@ -14670,12 +11341,8 @@
       <c r="H323" t="s">
         <v>816</v>
       </c>
-      <c r="I323" t="b">
-        <f>ISNUMBER(MATCH(B323,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324" t="s">
         <v>330</v>
       </c>
@@ -14700,12 +11367,8 @@
       <c r="H324" t="s">
         <v>816</v>
       </c>
-      <c r="I324" t="b">
-        <f>ISNUMBER(MATCH(B324,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325" t="s">
         <v>331</v>
       </c>
@@ -14730,12 +11393,8 @@
       <c r="H325" t="s">
         <v>823</v>
       </c>
-      <c r="I325" t="b">
-        <f>ISNUMBER(MATCH(B325,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326" t="s">
         <v>332</v>
       </c>
@@ -14760,12 +11419,8 @@
       <c r="H326" t="s">
         <v>816</v>
       </c>
-      <c r="I326" t="b">
-        <f>ISNUMBER(MATCH(B326,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327" t="s">
         <v>333</v>
       </c>
@@ -14790,12 +11445,8 @@
       <c r="H327" t="s">
         <v>820</v>
       </c>
-      <c r="I327" t="b">
-        <f>ISNUMBER(MATCH(B327,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:8">
       <c r="A328" t="s">
         <v>334</v>
       </c>
@@ -14820,12 +11471,8 @@
       <c r="H328" t="s">
         <v>816</v>
       </c>
-      <c r="I328" t="b">
-        <f>ISNUMBER(MATCH(B328,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329" t="s">
         <v>335</v>
       </c>
@@ -14850,12 +11497,8 @@
       <c r="H329" t="s">
         <v>817</v>
       </c>
-      <c r="I329" t="b">
-        <f>ISNUMBER(MATCH(B329,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:8">
       <c r="A330" t="s">
         <v>336</v>
       </c>
@@ -14880,12 +11523,8 @@
       <c r="H330" t="s">
         <v>817</v>
       </c>
-      <c r="I330" t="b">
-        <f>ISNUMBER(MATCH(B330,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331" t="s">
         <v>337</v>
       </c>
@@ -14910,12 +11549,8 @@
       <c r="H331" t="s">
         <v>816</v>
       </c>
-      <c r="I331" t="b">
-        <f>ISNUMBER(MATCH(B331,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332" t="s">
         <v>338</v>
       </c>
@@ -14940,12 +11575,8 @@
       <c r="H332" t="s">
         <v>816</v>
       </c>
-      <c r="I332" t="b">
-        <f>ISNUMBER(MATCH(B332,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:8">
       <c r="A333" t="s">
         <v>339</v>
       </c>
@@ -14970,12 +11601,8 @@
       <c r="H333" t="s">
         <v>817</v>
       </c>
-      <c r="I333" t="b">
-        <f>ISNUMBER(MATCH(B333,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:8">
       <c r="A334" t="s">
         <v>340</v>
       </c>
@@ -15000,12 +11627,8 @@
       <c r="H334" t="s">
         <v>819</v>
       </c>
-      <c r="I334" t="b">
-        <f>ISNUMBER(MATCH(B334,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335" t="s">
         <v>341</v>
       </c>
@@ -15030,12 +11653,8 @@
       <c r="H335" t="s">
         <v>817</v>
       </c>
-      <c r="I335" t="b">
-        <f>ISNUMBER(MATCH(B335,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:8">
       <c r="A336" t="s">
         <v>342</v>
       </c>
@@ -15060,12 +11679,8 @@
       <c r="H336" t="s">
         <v>817</v>
       </c>
-      <c r="I336" t="b">
-        <f>ISNUMBER(MATCH(B336,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:8">
       <c r="A337" t="s">
         <v>343</v>
       </c>
@@ -15090,12 +11705,8 @@
       <c r="H337" t="s">
         <v>814</v>
       </c>
-      <c r="I337" t="b">
-        <f>ISNUMBER(MATCH(B337,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:8">
       <c r="A338" t="s">
         <v>344</v>
       </c>
@@ -15120,12 +11731,8 @@
       <c r="H338" t="s">
         <v>815</v>
       </c>
-      <c r="I338" t="b">
-        <f>ISNUMBER(MATCH(B338,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:8">
       <c r="A339" t="s">
         <v>345</v>
       </c>
@@ -15150,12 +11757,8 @@
       <c r="H339" t="s">
         <v>818</v>
       </c>
-      <c r="I339" t="b">
-        <f>ISNUMBER(MATCH(B339,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:8">
       <c r="A340" t="s">
         <v>346</v>
       </c>
@@ -15180,12 +11783,8 @@
       <c r="H340" t="s">
         <v>822</v>
       </c>
-      <c r="I340" t="b">
-        <f>ISNUMBER(MATCH(B340,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341" t="s">
         <v>347</v>
       </c>
@@ -15210,12 +11809,8 @@
       <c r="H341" t="s">
         <v>817</v>
       </c>
-      <c r="I341" t="b">
-        <f>ISNUMBER(MATCH(B341,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:8">
       <c r="A342" t="s">
         <v>348</v>
       </c>
@@ -15240,12 +11835,8 @@
       <c r="H342" t="s">
         <v>816</v>
       </c>
-      <c r="I342" t="b">
-        <f>ISNUMBER(MATCH(B342,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:8">
       <c r="A343" t="s">
         <v>349</v>
       </c>
@@ -15259,7 +11850,7 @@
         <v>48755500</v>
       </c>
       <c r="E343">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F343">
         <v>1</v>
@@ -15270,12 +11861,8 @@
       <c r="H343" t="s">
         <v>817</v>
       </c>
-      <c r="I343" t="b">
-        <f>ISNUMBER(MATCH(B343,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344" t="s">
         <v>350</v>
       </c>
@@ -15300,12 +11887,8 @@
       <c r="H344" t="s">
         <v>824</v>
       </c>
-      <c r="I344" t="b">
-        <f>ISNUMBER(MATCH(B344,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:8">
       <c r="A345" t="s">
         <v>351</v>
       </c>
@@ -15330,12 +11913,8 @@
       <c r="H345" t="s">
         <v>816</v>
       </c>
-      <c r="I345" t="b">
-        <f>ISNUMBER(MATCH(B345,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346" t="s">
         <v>352</v>
       </c>
@@ -15349,7 +11928,7 @@
         <v>2945448200</v>
       </c>
       <c r="E346">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F346">
         <v>1</v>
@@ -15360,12 +11939,8 @@
       <c r="H346" t="s">
         <v>819</v>
       </c>
-      <c r="I346" t="b">
-        <f>ISNUMBER(MATCH(B346,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347" t="s">
         <v>353</v>
       </c>
@@ -15390,12 +11965,8 @@
       <c r="H347" t="s">
         <v>823</v>
       </c>
-      <c r="I347" t="b">
-        <f>ISNUMBER(MATCH(B347,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348" t="s">
         <v>354</v>
       </c>
@@ -15420,12 +11991,8 @@
       <c r="H348" t="s">
         <v>814</v>
       </c>
-      <c r="I348" t="b">
-        <f>ISNUMBER(MATCH(B348,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:8">
       <c r="A349" t="s">
         <v>355</v>
       </c>
@@ -15450,12 +12017,8 @@
       <c r="H349" t="s">
         <v>814</v>
       </c>
-      <c r="I349" t="b">
-        <f>ISNUMBER(MATCH(B349,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:8">
       <c r="A350" t="s">
         <v>356</v>
       </c>
@@ -15480,12 +12043,8 @@
       <c r="H350" t="s">
         <v>824</v>
       </c>
-      <c r="I350" t="b">
-        <f>ISNUMBER(MATCH(B350,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351" t="s">
         <v>357</v>
       </c>
@@ -15510,12 +12069,8 @@
       <c r="H351" t="s">
         <v>821</v>
       </c>
-      <c r="I351" t="b">
-        <f>ISNUMBER(MATCH(B351,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:8">
       <c r="A352" t="s">
         <v>358</v>
       </c>
@@ -15540,12 +12095,8 @@
       <c r="H352" t="s">
         <v>818</v>
       </c>
-      <c r="I352" t="b">
-        <f>ISNUMBER(MATCH(B352,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="1:8">
       <c r="A353" t="s">
         <v>359</v>
       </c>
@@ -15570,12 +12121,8 @@
       <c r="H353" t="s">
         <v>817</v>
       </c>
-      <c r="I353" t="b">
-        <f>ISNUMBER(MATCH(B353,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:8">
       <c r="A354" t="s">
         <v>360</v>
       </c>
@@ -15600,12 +12147,8 @@
       <c r="H354" t="s">
         <v>816</v>
       </c>
-      <c r="I354" t="b">
-        <f>ISNUMBER(MATCH(B354,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:8">
       <c r="A355" t="s">
         <v>361</v>
       </c>
@@ -15630,12 +12173,8 @@
       <c r="H355" t="s">
         <v>817</v>
       </c>
-      <c r="I355" t="b">
-        <f>ISNUMBER(MATCH(B355,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:8">
       <c r="A356" t="s">
         <v>362</v>
       </c>
@@ -15660,12 +12199,8 @@
       <c r="H356" t="s">
         <v>816</v>
       </c>
-      <c r="I356" t="b">
-        <f>ISNUMBER(MATCH(B356,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:8">
       <c r="A357" t="s">
         <v>363</v>
       </c>
@@ -15690,12 +12225,8 @@
       <c r="H357" t="s">
         <v>817</v>
       </c>
-      <c r="I357" t="b">
-        <f>ISNUMBER(MATCH(B357,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:8">
       <c r="A358" t="s">
         <v>364</v>
       </c>
@@ -15720,12 +12251,8 @@
       <c r="H358" t="s">
         <v>817</v>
       </c>
-      <c r="I358" t="b">
-        <f>ISNUMBER(MATCH(B358,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="1:8">
       <c r="A359" t="s">
         <v>365</v>
       </c>
@@ -15750,12 +12277,8 @@
       <c r="H359" t="s">
         <v>817</v>
       </c>
-      <c r="I359" t="b">
-        <f>ISNUMBER(MATCH(B359,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:8">
       <c r="A360" t="s">
         <v>366</v>
       </c>
@@ -15780,12 +12303,8 @@
       <c r="H360" t="s">
         <v>817</v>
       </c>
-      <c r="I360" t="b">
-        <f>ISNUMBER(MATCH(B360,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="1:8">
       <c r="A361" t="s">
         <v>367</v>
       </c>
@@ -15810,12 +12329,8 @@
       <c r="H361" t="s">
         <v>817</v>
       </c>
-      <c r="I361" t="b">
-        <f>ISNUMBER(MATCH(B361,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:8">
       <c r="A362" t="s">
         <v>368</v>
       </c>
@@ -15840,12 +12355,8 @@
       <c r="H362" t="s">
         <v>817</v>
       </c>
-      <c r="I362" t="b">
-        <f>ISNUMBER(MATCH(B362,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="1:8">
       <c r="A363" t="s">
         <v>369</v>
       </c>
@@ -15870,12 +12381,8 @@
       <c r="H363" t="s">
         <v>817</v>
       </c>
-      <c r="I363" t="b">
-        <f>ISNUMBER(MATCH(B363,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="1:8">
       <c r="A364" t="s">
         <v>370</v>
       </c>
@@ -15900,12 +12407,8 @@
       <c r="H364" t="s">
         <v>823</v>
       </c>
-      <c r="I364" t="b">
-        <f>ISNUMBER(MATCH(B364,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="1:8">
       <c r="A365" t="s">
         <v>371</v>
       </c>
@@ -15930,12 +12433,8 @@
       <c r="H365" t="s">
         <v>816</v>
       </c>
-      <c r="I365" t="b">
-        <f>ISNUMBER(MATCH(B365,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:8">
       <c r="A366" t="s">
         <v>372</v>
       </c>
@@ -15960,12 +12459,8 @@
       <c r="H366" t="s">
         <v>816</v>
       </c>
-      <c r="I366" t="b">
-        <f>ISNUMBER(MATCH(B366,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="367" spans="1:8">
       <c r="A367" t="s">
         <v>373</v>
       </c>
@@ -15979,7 +12474,7 @@
         <v>143244727</v>
       </c>
       <c r="E367">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F367">
         <v>1</v>
@@ -15990,12 +12485,8 @@
       <c r="H367" t="s">
         <v>818</v>
       </c>
-      <c r="I367" t="b">
-        <f>ISNUMBER(MATCH(B367,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="1:8">
       <c r="A368" t="s">
         <v>374</v>
       </c>
@@ -16020,12 +12511,8 @@
       <c r="H368" t="s">
         <v>823</v>
       </c>
-      <c r="I368" t="b">
-        <f>ISNUMBER(MATCH(B368,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="1:8">
       <c r="A369" t="s">
         <v>375</v>
       </c>
@@ -16050,12 +12537,8 @@
       <c r="H369" t="s">
         <v>816</v>
       </c>
-      <c r="I369" t="b">
-        <f>ISNUMBER(MATCH(B369,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="1:8">
       <c r="A370" t="s">
         <v>376</v>
       </c>
@@ -16080,12 +12563,8 @@
       <c r="H370" t="s">
         <v>817</v>
       </c>
-      <c r="I370" t="b">
-        <f>ISNUMBER(MATCH(B370,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:8">
       <c r="A371" t="s">
         <v>377</v>
       </c>
@@ -16110,12 +12589,8 @@
       <c r="H371" t="s">
         <v>819</v>
       </c>
-      <c r="I371" t="b">
-        <f>ISNUMBER(MATCH(B371,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="1:8">
       <c r="A372" t="s">
         <v>378</v>
       </c>
@@ -16140,12 +12615,8 @@
       <c r="H372" t="s">
         <v>816</v>
       </c>
-      <c r="I372" t="b">
-        <f>ISNUMBER(MATCH(B372,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="373" spans="1:8">
       <c r="A373" t="s">
         <v>379</v>
       </c>
@@ -16170,12 +12641,8 @@
       <c r="H373" t="s">
         <v>816</v>
       </c>
-      <c r="I373" t="b">
-        <f>ISNUMBER(MATCH(B373,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="374" spans="1:8">
       <c r="A374" t="s">
         <v>380</v>
       </c>
@@ -16200,12 +12667,8 @@
       <c r="H374" t="s">
         <v>816</v>
       </c>
-      <c r="I374" t="b">
-        <f>ISNUMBER(MATCH(B374,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="375" spans="1:8">
       <c r="A375" t="s">
         <v>381</v>
       </c>
@@ -16230,12 +12693,8 @@
       <c r="H375" t="s">
         <v>818</v>
       </c>
-      <c r="I375" t="b">
-        <f>ISNUMBER(MATCH(B375,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="1:8">
       <c r="A376" t="s">
         <v>382</v>
       </c>
@@ -16260,12 +12719,8 @@
       <c r="H376" t="s">
         <v>816</v>
       </c>
-      <c r="I376" t="b">
-        <f>ISNUMBER(MATCH(B376,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="377" spans="1:8">
       <c r="A377" t="s">
         <v>383</v>
       </c>
@@ -16290,12 +12745,8 @@
       <c r="H377" t="s">
         <v>815</v>
       </c>
-      <c r="I377" t="b">
-        <f>ISNUMBER(MATCH(B377,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="378" spans="1:8">
       <c r="A378" t="s">
         <v>384</v>
       </c>
@@ -16320,12 +12771,8 @@
       <c r="H378" t="s">
         <v>822</v>
       </c>
-      <c r="I378" t="b">
-        <f>ISNUMBER(MATCH(B378,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="379" spans="1:8">
       <c r="A379" t="s">
         <v>385</v>
       </c>
@@ -16350,12 +12797,8 @@
       <c r="H379" t="s">
         <v>818</v>
       </c>
-      <c r="I379" t="b">
-        <f>ISNUMBER(MATCH(B379,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="380" spans="1:8">
       <c r="A380" t="s">
         <v>386</v>
       </c>
@@ -16380,12 +12823,8 @@
       <c r="H380" t="s">
         <v>816</v>
       </c>
-      <c r="I380" t="b">
-        <f>ISNUMBER(MATCH(B380,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="381" spans="1:8">
       <c r="A381" t="s">
         <v>387</v>
       </c>
@@ -16410,12 +12849,8 @@
       <c r="H381" t="s">
         <v>814</v>
       </c>
-      <c r="I381" t="b">
-        <f>ISNUMBER(MATCH(B381,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="382" spans="1:8">
       <c r="A382" t="s">
         <v>388</v>
       </c>
@@ -16440,12 +12875,8 @@
       <c r="H382" t="s">
         <v>815</v>
       </c>
-      <c r="I382" t="b">
-        <f>ISNUMBER(MATCH(B382,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="383" spans="1:8">
       <c r="A383" t="s">
         <v>389</v>
       </c>
@@ -16470,12 +12901,8 @@
       <c r="H383" t="s">
         <v>818</v>
       </c>
-      <c r="I383" t="b">
-        <f>ISNUMBER(MATCH(B383,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="384" spans="1:8">
       <c r="A384" t="s">
         <v>390</v>
       </c>
@@ -16500,12 +12927,8 @@
       <c r="H384" t="s">
         <v>816</v>
       </c>
-      <c r="I384" t="b">
-        <f>ISNUMBER(MATCH(B384,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="385" spans="1:8">
       <c r="A385" t="s">
         <v>391</v>
       </c>
@@ -16530,12 +12953,8 @@
       <c r="H385" t="s">
         <v>816</v>
       </c>
-      <c r="I385" t="b">
-        <f>ISNUMBER(MATCH(B385,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="1:8">
       <c r="A386" t="s">
         <v>392</v>
       </c>
@@ -16560,12 +12979,8 @@
       <c r="H386" t="s">
         <v>824</v>
       </c>
-      <c r="I386" t="b">
-        <f>ISNUMBER(MATCH(B386,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="387" spans="1:8">
       <c r="A387" t="s">
         <v>393</v>
       </c>
@@ -16590,12 +13005,8 @@
       <c r="H387" t="s">
         <v>814</v>
       </c>
-      <c r="I387" t="b">
-        <f>ISNUMBER(MATCH(B387,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="388" spans="1:8">
       <c r="A388" t="s">
         <v>394</v>
       </c>
@@ -16620,12 +13031,8 @@
       <c r="H388" t="s">
         <v>823</v>
       </c>
-      <c r="I388" t="b">
-        <f>ISNUMBER(MATCH(B388,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="389" spans="1:8">
       <c r="A389" t="s">
         <v>395</v>
       </c>
@@ -16650,12 +13057,8 @@
       <c r="H389" t="s">
         <v>816</v>
       </c>
-      <c r="I389" t="b">
-        <f>ISNUMBER(MATCH(B389,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="390" spans="1:8">
       <c r="A390" t="s">
         <v>396</v>
       </c>
@@ -16680,12 +13083,8 @@
       <c r="H390" t="s">
         <v>816</v>
       </c>
-      <c r="I390" t="b">
-        <f>ISNUMBER(MATCH(B390,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="391" spans="1:8">
       <c r="A391" t="s">
         <v>397</v>
       </c>
@@ -16699,7 +13098,7 @@
         <v>46695094</v>
       </c>
       <c r="E391">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F391">
         <v>1</v>
@@ -16710,12 +13109,8 @@
       <c r="H391" t="s">
         <v>818</v>
       </c>
-      <c r="I391" t="b">
-        <f>ISNUMBER(MATCH(B391,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="392" spans="1:8">
       <c r="A392" t="s">
         <v>398</v>
       </c>
@@ -16740,12 +13135,8 @@
       <c r="H392" t="s">
         <v>819</v>
       </c>
-      <c r="I392" t="b">
-        <f>ISNUMBER(MATCH(B392,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="1:8">
       <c r="A393" t="s">
         <v>399</v>
       </c>
@@ -16770,12 +13161,8 @@
       <c r="H393" t="s">
         <v>816</v>
       </c>
-      <c r="I393" t="b">
-        <f>ISNUMBER(MATCH(B393,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="1:8">
       <c r="A394" t="s">
         <v>400</v>
       </c>
@@ -16800,35 +13187,21 @@
       <c r="H394" t="s">
         <v>816</v>
       </c>
-      <c r="I394" t="b">
-        <f>ISNUMBER(MATCH(B394,'[1]Index Composition'!$B$2:$B$393,0))</f>
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I394" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="FALSE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16839,7 +13212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -16850,7 +13223,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -16861,7 +13234,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -16872,7 +13245,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -16883,7 +13256,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -16894,7 +13267,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -16905,7 +13278,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -16916,7 +13289,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>158</v>
       </c>
@@ -16927,7 +13300,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>192</v>
       </c>
@@ -16938,7 +13311,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>326</v>
       </c>
@@ -16949,7 +13322,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>375</v>
       </c>
@@ -16962,21 +13335,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16987,7 +13357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>826</v>
       </c>
@@ -16998,7 +13368,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>827</v>
       </c>
@@ -17009,7 +13379,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>828</v>
       </c>
@@ -17020,7 +13390,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>829</v>
       </c>
@@ -17031,7 +13401,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>830</v>
       </c>
@@ -17042,7 +13412,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>831</v>
       </c>
@@ -17053,7 +13423,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>832</v>
       </c>
@@ -17064,7 +13434,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>833</v>
       </c>
@@ -17075,7 +13445,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>834</v>
       </c>
@@ -17086,7 +13456,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>835</v>
       </c>
@@ -17097,7 +13467,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>836</v>
       </c>
@@ -17108,7 +13478,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>837</v>
       </c>
@@ -17119,7 +13489,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>838</v>
       </c>
@@ -17130,7 +13500,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>839</v>
       </c>
@@ -17143,8 +13513,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>